--- a/QuantLibXL/Data2/XLS/SEK/SEK_MxContributor.xlsx
+++ b/QuantLibXL/Data2/XLS/SEK/SEK_MxContributor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19215" yWindow="-15" windowWidth="19260" windowHeight="10680" activeTab="1"/>
+    <workbookView xWindow="19215" yWindow="105" windowWidth="19260" windowHeight="10560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="2" r:id="rId1"/>
@@ -1351,109 +1351,109 @@
   <volType type="realTimeData">
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>-0.20716403</v>
+        <v>-0.29230609900000004</v>
         <stp/>
         <stp xml:space="preserve">	SEKONOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC6" s="7"/>
       </tp>
       <tp>
-        <v>-0.20719527200000001</v>
+        <v>-0.29240740700000001</v>
         <stp/>
         <stp xml:space="preserve">	SEKONTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC7" s="7"/>
       </tp>
       <tp>
-        <v>0.17750000000000002</v>
+        <v>0.58750000000000002</v>
         <stp/>
         <stp xml:space="preserve">	SEKON6YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC30" s="7"/>
       </tp>
       <tp>
-        <v>-0.24399999999999999</v>
+        <v>-0.35199999999999998</v>
         <stp/>
         <stp xml:space="preserve">	SEKON6MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC17" s="7"/>
       </tp>
       <tp>
-        <v>0.23875000000000002</v>
+        <v>0.77750000000000008</v>
         <stp/>
         <stp xml:space="preserve">	SEKON7YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC31" s="7"/>
       </tp>
       <tp>
-        <v>0.03</v>
+        <v>0.15</v>
         <stp/>
         <stp xml:space="preserve">	SEKON4YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC28" s="7"/>
       </tp>
       <tp>
-        <v>-0.23700000000000002</v>
+        <v>-0.34400000000000003</v>
         <stp/>
         <stp xml:space="preserve">	SEKON4MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC15" s="7"/>
       </tp>
       <tp>
-        <v>0.105</v>
+        <v>0.3775</v>
         <stp/>
         <stp xml:space="preserve">	SEKON5YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC29" s="7"/>
       </tp>
       <tp>
-        <v>-0.24099999999999999</v>
+        <v>-0.34600000000000003</v>
         <stp/>
         <stp xml:space="preserve">	SEKON5MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC16" s="7"/>
       </tp>
       <tp>
-        <v>-9.6250000000000002E-2</v>
+        <v>-0.24750000000000003</v>
         <stp/>
         <stp xml:space="preserve">	SEKON2YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC26" s="7"/>
       </tp>
       <tp>
-        <v>-0.224</v>
+        <v>-0.313</v>
         <stp/>
         <stp xml:space="preserve">	SEKON2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC13" s="7"/>
       </tp>
       <tp>
-        <v>-3.7499999999999999E-2</v>
+        <v>-0.06</v>
         <stp/>
         <stp xml:space="preserve">	SEKON3YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC27" s="7"/>
       </tp>
       <tp>
-        <v>-0.23200000000000001</v>
+        <v>-0.33400000000000002</v>
         <stp/>
         <stp xml:space="preserve">	SEKON3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC14" s="7"/>
       </tp>
       <tp>
-        <v>-0.24199999999999999</v>
+        <v>-0.35199999999999998</v>
         <stp/>
         <stp xml:space="preserve">	SEKON1YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC25" s="7"/>
       </tp>
       <tp>
-        <v>-0.21299999999999999</v>
+        <v>-0.29700000100000001</v>
         <stp/>
         <stp xml:space="preserve">	SEKON1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC12" s="7"/>
       </tp>
       <tp>
-        <v>0.29125000000000001</v>
+        <v>0.93500000000000005</v>
         <stp/>
         <stp xml:space="preserve">	SEKON8YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC32" s="7"/>
       </tp>
       <tp>
-        <v>0.33625000000000005</v>
+        <v>1.0625</v>
         <stp/>
         <stp xml:space="preserve">	SEKON9YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC33" s="7"/>
       </tp>
       <tp>
-        <v>-0.25</v>
+        <v>-0.35299999999999998</v>
         <stp/>
         <stp xml:space="preserve">	SEKON9MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC18" s="7"/>
@@ -1461,196 +1461,194 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0.65625</v>
+        <v>1.8</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON30YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB39" s="7"/>
       </tp>
       <tp>
-        <v>0.63875000000000004</v>
+        <v>1.76</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON25YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB38" s="7"/>
       </tp>
       <tp>
-        <v>0.59375</v>
+        <v>1.67</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON20YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB37" s="7"/>
       </tp>
       <tp>
-        <v>0.50750000000000006</v>
+        <v>1.4825000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON15YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB36" s="7"/>
       </tp>
       <tp>
-        <v>0.435</v>
+        <v>1.3149999999999999</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON12YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB35" s="7"/>
       </tp>
       <tp>
-        <v>0.3725</v>
+        <v>1.1599999999999999</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON10YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB34" s="7"/>
       </tp>
+      <tp>
+        <v>-0.29230609900000004</v>
+        <stp/>
+        <stp xml:space="preserve">	SEKONOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AB6" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.29240740700000001</v>
+        <stp/>
+        <stp xml:space="preserve">	SEKONTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AB7" s="7"/>
+      </tp>
+      <tp>
+        <v>0.58750000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">	SEKON6YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AB30" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.35199999999999998</v>
+        <stp/>
+        <stp xml:space="preserve">	SEKON6MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AB17" s="7"/>
+      </tp>
+      <tp>
+        <v>0.77750000000000008</v>
+        <stp/>
+        <stp xml:space="preserve">	SEKON7YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AB31" s="7"/>
+      </tp>
+      <tp>
+        <v>0.15</v>
+        <stp/>
+        <stp xml:space="preserve">	SEKON4YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AB28" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.34400000000000003</v>
+        <stp/>
+        <stp xml:space="preserve">	SEKON4MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AB15" s="7"/>
+      </tp>
+      <tp>
+        <v>0.3775</v>
+        <stp/>
+        <stp xml:space="preserve">	SEKON5YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AB29" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.34600000000000003</v>
+        <stp/>
+        <stp xml:space="preserve">	SEKON5MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AB16" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.24750000000000003</v>
+        <stp/>
+        <stp xml:space="preserve">	SEKON2YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AB26" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.313</v>
+        <stp/>
+        <stp xml:space="preserve">	SEKON2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AB13" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.06</v>
+        <stp/>
+        <stp xml:space="preserve">	SEKON3YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AB27" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.33400000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">	SEKON3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AB14" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.35199999999999998</v>
+        <stp/>
+        <stp xml:space="preserve">	SEKON1YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AB25" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.29700000100000001</v>
+        <stp/>
+        <stp xml:space="preserve">	SEKON1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AB12" s="7"/>
+      </tp>
+      <tp>
+        <v>0.93500000000000005</v>
+        <stp/>
+        <stp xml:space="preserve">	SEKON8YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AB32" s="7"/>
+      </tp>
+      <tp>
+        <v>1.0625</v>
+        <stp/>
+        <stp xml:space="preserve">	SEKON9YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AB33" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.35299999999999998</v>
+        <stp/>
+        <stp xml:space="preserve">	SEKON9MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AB18" s="7"/>
+      </tp>
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>-0.20716403</v>
-        <stp/>
-        <stp xml:space="preserve">	SEKONOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AB6" s="7"/>
-      </tp>
-      <tp>
-        <v>-0.20719527200000001</v>
-        <stp/>
-        <stp xml:space="preserve">	SEKONTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AB7" s="7"/>
-      </tp>
-      <tp>
-        <v>0.17750000000000002</v>
-        <stp/>
-        <stp xml:space="preserve">	SEKON6YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AB30" s="7"/>
-      </tp>
-      <tp>
-        <v>-0.24399999999999999</v>
-        <stp/>
-        <stp xml:space="preserve">	SEKON6MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AB17" s="7"/>
-      </tp>
-      <tp>
-        <v>0.23875000000000002</v>
-        <stp/>
-        <stp xml:space="preserve">	SEKON7YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AB31" s="7"/>
-      </tp>
-      <tp>
-        <v>0.03</v>
-        <stp/>
-        <stp xml:space="preserve">	SEKON4YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AB28" s="7"/>
-      </tp>
-      <tp>
-        <v>-0.23700000000000002</v>
-        <stp/>
-        <stp xml:space="preserve">	SEKON4MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AB15" s="7"/>
-      </tp>
-      <tp>
-        <v>0.105</v>
-        <stp/>
-        <stp xml:space="preserve">	SEKON5YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AB29" s="7"/>
-      </tp>
-      <tp>
-        <v>-0.24099999999999999</v>
-        <stp/>
-        <stp xml:space="preserve">	SEKON5MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AB16" s="7"/>
-      </tp>
-      <tp>
-        <v>-9.6250000000000002E-2</v>
-        <stp/>
-        <stp xml:space="preserve">	SEKON2YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AB26" s="7"/>
-      </tp>
-      <tp>
-        <v>-0.224</v>
-        <stp/>
-        <stp xml:space="preserve">	SEKON2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AB13" s="7"/>
-      </tp>
-      <tp>
-        <v>-3.7499999999999999E-2</v>
-        <stp/>
-        <stp xml:space="preserve">	SEKON3YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AB27" s="7"/>
-      </tp>
-      <tp>
-        <v>-0.23200000000000001</v>
-        <stp/>
-        <stp xml:space="preserve">	SEKON3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AB14" s="7"/>
-      </tp>
-      <tp>
-        <v>-0.24199999999999999</v>
-        <stp/>
-        <stp xml:space="preserve">	SEKON1YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AB25" s="7"/>
-      </tp>
-      <tp>
-        <v>-0.21299999999999999</v>
-        <stp/>
-        <stp xml:space="preserve">	SEKON1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AB12" s="7"/>
-      </tp>
-      <tp>
-        <v>0.29125000000000001</v>
-        <stp/>
-        <stp xml:space="preserve">	SEKON8YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AB32" s="7"/>
-      </tp>
-      <tp>
-        <v>0.33625000000000005</v>
-        <stp/>
-        <stp xml:space="preserve">	SEKON9YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AB33" s="7"/>
-      </tp>
-      <tp>
-        <v>-0.25</v>
-        <stp/>
-        <stp xml:space="preserve">	SEKON9MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AB18" s="7"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp>
-        <v>0.50750000000000006</v>
+        <v>1.4825000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON15YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC36" s="7"/>
       </tp>
       <tp>
-        <v>0.435</v>
+        <v>1.3149999999999999</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON12YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC35" s="7"/>
       </tp>
       <tp>
-        <v>0.3725</v>
+        <v>1.1599999999999999</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON10YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC34" s="7"/>
       </tp>
       <tp>
-        <v>0.63875000000000004</v>
+        <v>1.76</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON25YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC38" s="7"/>
       </tp>
       <tp>
-        <v>0.59375</v>
+        <v>1.67</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON20YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC37" s="7"/>
       </tp>
       <tp>
-        <v>0.65625</v>
+        <v>1.8</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON30YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1659,151 +1657,151 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>-1.5234412000000001E-2</v>
+        <v>-9.5722648000000007E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK6MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH9" s="7"/>
       </tp>
       <tp>
-        <v>-1.5005242E-2</v>
+        <v>-9.5422892000000009E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK6MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH8" s="7"/>
       </tp>
       <tp>
-        <v>-4.4999999999999998E-2</v>
+        <v>-0.155</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M6MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH17" s="7"/>
       </tp>
       <tp>
-        <v>-4.0500000000000001E-2</v>
+        <v>-0.14699999999999999</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M4MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH15" s="7"/>
       </tp>
       <tp>
-        <v>-4.3300000000000005E-2</v>
+        <v>-0.14899999999999999</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M5MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH16" s="7"/>
       </tp>
       <tp>
-        <v>-1.5936275E-2</v>
+        <v>-9.6351787000000008E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH10" s="7"/>
       </tp>
       <tp>
-        <v>-0.03</v>
+        <v>-0.11600000000000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH13" s="7"/>
       </tp>
       <tp>
-        <v>-1.7106056000000001E-2</v>
+        <v>-9.7520001000000009E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH11" s="7"/>
       </tp>
       <tp>
-        <v>-3.6799999999999999E-2</v>
+        <v>-0.13700000000000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH14" s="7"/>
       </tp>
       <tp>
-        <v>-2.0200000000000003E-2</v>
+        <v>-0.1</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH12" s="7"/>
       </tp>
       <tp>
-        <v>1.328711685</v>
+        <v>1.78364305</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE38" s="7"/>
       </tp>
       <tp>
-        <v>1.249260018</v>
+        <v>1.6993895270000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE37" s="7"/>
       </tp>
       <tp>
-        <v>1.356659464</v>
+        <v>1.816392757</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE39" s="7"/>
       </tp>
       <tp>
-        <v>1.0839021990000002</v>
+        <v>1.521856423</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE36" s="7"/>
       </tp>
       <tp>
-        <v>0.81671830900000009</v>
+        <v>1.2047469770000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE34" s="7"/>
       </tp>
       <tp>
-        <v>0.94180458800000011</v>
+        <v>1.3547912550000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE35" s="7"/>
       </tp>
       <tp>
-        <v>0.75750000000000006</v>
+        <v>1.085</v>
         <stp/>
         <stp>_x0008_SEK3M8Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG32" s="7"/>
       </tp>
       <tp>
-        <v>0.84750000000000003</v>
+        <v>1.21</v>
         <stp/>
         <stp>_x0008_SEK3M9Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG33" s="7"/>
       </tp>
       <tp>
-        <v>0.23</v>
+        <v>0.30000000000000004</v>
         <stp/>
         <stp>_x0008_SEK3M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG28" s="7"/>
       </tp>
       <tp>
-        <v>0.38250000000000001</v>
+        <v>0.53</v>
         <stp/>
         <stp>_x0008_SEK3M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG29" s="7"/>
       </tp>
       <tp>
-        <v>0.53</v>
+        <v>0.74</v>
         <stp/>
         <stp>_x0008_SEK3M6Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG30" s="7"/>
       </tp>
       <tp>
-        <v>0.65250000000000008</v>
+        <v>0.92749999999999999</v>
         <stp/>
         <stp>_x0008_SEK3M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG31" s="7"/>
       </tp>
       <tp>
-        <v>-0.11396569000000001</v>
+        <v>-0.241895362</v>
         <stp/>
         <stp>_x0008_SEK3M1Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG25" s="7"/>
       </tp>
       <tp>
-        <v>-0.05</v>
+        <v>-0.13250000000000001</v>
         <stp/>
         <stp>_x0008_SEK3M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG26" s="7"/>
       </tp>
       <tp>
-        <v>0.08</v>
+        <v>7.2500000000000009E-2</v>
         <stp/>
         <stp>_x0008_SEK3M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG27" s="7"/>
@@ -1811,91 +1809,91 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>1.42</v>
+        <v>1.875</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG38" s="7"/>
       </tp>
       <tp>
-        <v>1.345</v>
+        <v>1.7949999999999999</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG37" s="7"/>
       </tp>
       <tp>
-        <v>1.4450000000000001</v>
+        <v>1.905</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG39" s="7"/>
       </tp>
       <tp>
-        <v>1.1850000000000001</v>
+        <v>1.6225000000000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG36" s="7"/>
       </tp>
       <tp>
-        <v>0.92</v>
+        <v>1.3075000000000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG34" s="7"/>
       </tp>
       <tp>
-        <v>1.0449999999999999</v>
+        <v>1.4575</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG35" s="7"/>
       </tp>
       <tp>
-        <v>0.65427037300000002</v>
+        <v>0.98215793700000009</v>
         <stp/>
         <stp>_x0008_SEK1M8Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE32" s="7"/>
       </tp>
       <tp>
-        <v>0.74422578700000008</v>
+        <v>1.107180523</v>
         <stp/>
         <stp>_x0008_SEK1M9Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE33" s="7"/>
       </tp>
       <tp>
-        <v>0.12770567600000002</v>
+        <v>0.19783409600000001</v>
         <stp/>
         <stp>_x0008_SEK1M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE28" s="7"/>
       </tp>
       <tp>
-        <v>0.27961965900000002</v>
+        <v>0.427274918</v>
         <stp/>
         <stp>_x0008_SEK1M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE29" s="7"/>
       </tp>
       <tp>
-        <v>0.42690083900000003</v>
+        <v>0.63709210599999999</v>
         <stp/>
         <stp>_x0008_SEK1M6Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE30" s="7"/>
       </tp>
       <tp>
-        <v>0.54928412199999999</v>
+        <v>0.82461828400000003</v>
         <stp/>
         <stp>_x0008_SEK1M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE31" s="7"/>
       </tp>
       <tp>
-        <v>-0.19362547900000002</v>
+        <v>-0.32109715300000002</v>
         <stp/>
         <stp>_x0008_SEK1M1Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE25" s="7"/>
       </tp>
       <tp>
-        <v>-0.14377569500000001</v>
+        <v>-0.22621880200000002</v>
         <stp/>
         <stp>_x0008_SEK1M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE26" s="7"/>
       </tp>
       <tp>
-        <v>-1.9542244E-2</v>
+        <v>-2.6947656E-2</v>
         <stp/>
         <stp>_x0008_SEK1M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE27" s="7"/>
@@ -1903,645 +1901,643 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>-6.4211153000000007E-2</v>
+        <v>-0.156500475</v>
         <stp/>
         <stp xml:space="preserve">	SEK3MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF9" s="7"/>
       </tp>
       <tp>
-        <v>-6.3944235000000002E-2</v>
+        <v>-0.15607385500000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK3MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF8" s="7"/>
       </tp>
       <tp>
-        <v>-6.502922400000001E-2</v>
+        <v>-0.15739724300000002</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF10" s="7"/>
       </tp>
       <tp>
-        <v>-8.14E-2</v>
+        <v>-0.18340000000000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF13" s="7"/>
       </tp>
       <tp>
-        <v>-6.6392913999999997E-2</v>
+        <v>-0.159063026</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF11" s="7"/>
       </tp>
       <tp>
-        <v>-8.9700000000000002E-2</v>
+        <v>-0.20800000000000002</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF14" s="7"/>
       </tp>
       <tp>
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.16259999999999999</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF12" s="7"/>
       </tp>
       <tp>
-        <v>0.8547106470000001</v>
+        <v>1.1825659260000001</v>
         <stp/>
         <stp>_x0008_SEK6M8Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI32" s="7"/>
       </tp>
       <tp>
-        <v>0.94485063000000002</v>
+        <v>1.3075289450000001</v>
         <stp/>
         <stp>_x0008_SEK6M9Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI33" s="7"/>
       </tp>
       <tp>
-        <v>0.32518768100000001</v>
+        <v>0.39666822900000004</v>
         <stp/>
         <stp>_x0008_SEK6M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI28" s="7"/>
       </tp>
       <tp>
-        <v>0.47876987900000001</v>
+        <v>0.62730216300000008</v>
         <stp/>
         <stp>_x0008_SEK6M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI29" s="7"/>
       </tp>
       <tp>
-        <v>0.62668490900000007</v>
+        <v>0.83756521400000006</v>
         <stp/>
         <stp>_x0008_SEK6M6Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI30" s="7"/>
       </tp>
       <tp>
-        <v>0.74949886100000007</v>
+        <v>1.025121494</v>
         <stp/>
         <stp>_x0008_SEK6M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI31" s="7"/>
       </tp>
       <tp>
-        <v>-3.5870157999999999E-2</v>
+        <v>-0.15752471900000001</v>
         <stp/>
         <stp>_x0008_SEK6M1Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI25" s="7"/>
       </tp>
       <tp>
-        <v>3.9722973000000002E-2</v>
+        <v>-3.9675202999999999E-2</v>
         <stp/>
         <stp>_x0008_SEK6M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI26" s="7"/>
       </tp>
       <tp>
-        <v>0.17345665100000002</v>
+        <v>0.16799386800000002</v>
         <stp/>
         <stp>_x0008_SEK6M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI27" s="7"/>
       </tp>
+      <tp>
+        <v>-0.25969999999999999</v>
+        <stp/>
+        <stp xml:space="preserve">	SEK1MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AD9" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.25932528300000002</v>
+        <stp/>
+        <stp xml:space="preserve">	SEK1MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AD8" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.26040000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">	SEK1M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AD10" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.26150000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">	SEK1M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AD11" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.26400000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">	SEK1M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AD12" s="7"/>
+      </tp>
+      <tp>
+        <v>1.9457914860000001</v>
+        <stp/>
+        <stp xml:space="preserve">	SEK6M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AI38" s="7"/>
+      </tp>
+      <tp>
+        <v>1.8730147880000001</v>
+        <stp/>
+        <stp xml:space="preserve">	SEK6M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AI37" s="7"/>
+      </tp>
+      <tp>
+        <v>1.9698736790000002</v>
+        <stp/>
+        <stp xml:space="preserve">	SEK6M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AI39" s="7"/>
+      </tp>
+      <tp>
+        <v>1.710465766</v>
+        <stp/>
+        <stp xml:space="preserve">	SEK6M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AI36" s="7"/>
+      </tp>
+      <tp>
+        <v>1.404545299</v>
+        <stp/>
+        <stp xml:space="preserve">	SEK6M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AI34" s="7"/>
+      </tp>
+      <tp>
+        <v>1.552139935</v>
+        <stp/>
+        <stp xml:space="preserve">	SEK6M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AI35" s="7"/>
+      </tp>
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>-0.12130000000000001</v>
-        <stp/>
-        <stp xml:space="preserve">	SEK1MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AD9" s="7"/>
-      </tp>
-      <tp>
-        <v>-0.12102691400000001</v>
-        <stp/>
-        <stp xml:space="preserve">	SEK1MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AD8" s="7"/>
-      </tp>
-      <tp>
-        <v>-0.1221</v>
-        <stp/>
-        <stp xml:space="preserve">	SEK1M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AD10" s="7"/>
-      </tp>
-      <tp>
-        <v>-0.12340000000000001</v>
-        <stp/>
-        <stp xml:space="preserve">	SEK1M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AD11" s="7"/>
-      </tp>
-      <tp>
-        <v>-0.1268</v>
-        <stp/>
-        <stp xml:space="preserve">	SEK1M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AD12" s="7"/>
-      </tp>
-      <tp>
-        <v>1.4898787340000001</v>
-        <stp/>
-        <stp xml:space="preserve">	SEK6M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AI38" s="7"/>
-      </tp>
-      <tp>
-        <v>1.4223873680000001</v>
-        <stp/>
-        <stp xml:space="preserve">	SEK6M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AI37" s="7"/>
-      </tp>
-      <tp>
-        <v>1.508675728</v>
-        <stp/>
-        <stp xml:space="preserve">	SEK6M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AI39" s="7"/>
-      </tp>
-      <tp>
-        <v>1.2727362610000001</v>
-        <stp/>
-        <stp xml:space="preserve">	SEK6M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AI36" s="7"/>
-      </tp>
-      <tp>
-        <v>1.01694825</v>
-        <stp/>
-        <stp xml:space="preserve">	SEK6M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AI34" s="7"/>
-      </tp>
-      <tp>
-        <v>1.1395184470000002</v>
-        <stp/>
-        <stp xml:space="preserve">	SEK6M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AI35" s="7"/>
+        <v>1.3075289450000001</v>
+        <stp/>
+        <stp>_x0008_SEK6M9Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AH33" s="7"/>
+      </tp>
+      <tp>
+        <v>1.1825659260000001</v>
+        <stp/>
+        <stp>_x0008_SEK6M8Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AH32" s="7"/>
+      </tp>
+      <tp>
+        <v>1.025121494</v>
+        <stp/>
+        <stp>_x0008_SEK6M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AH31" s="7"/>
+      </tp>
+      <tp>
+        <v>0.83756521400000006</v>
+        <stp/>
+        <stp>_x0008_SEK6M6Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AH30" s="7"/>
+      </tp>
+      <tp>
+        <v>0.62730216300000008</v>
+        <stp/>
+        <stp>_x0008_SEK6M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AH29" s="7"/>
+      </tp>
+      <tp>
+        <v>0.39666822900000004</v>
+        <stp/>
+        <stp>_x0008_SEK6M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AH28" s="7"/>
+      </tp>
+      <tp>
+        <v>0.16799386800000002</v>
+        <stp/>
+        <stp>_x0008_SEK6M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AH27" s="7"/>
+      </tp>
+      <tp>
+        <v>-3.9675202999999999E-2</v>
+        <stp/>
+        <stp>_x0008_SEK6M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AH26" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.15752471900000001</v>
+        <stp/>
+        <stp>_x0008_SEK6M1Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AH25" s="7"/>
       </tp>
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0.94485063000000002</v>
-        <stp/>
-        <stp>_x0008_SEK6M9Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AH33" s="7"/>
-      </tp>
-      <tp>
-        <v>0.8547106470000001</v>
-        <stp/>
-        <stp>_x0008_SEK6M8Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AH32" s="7"/>
-      </tp>
-      <tp>
-        <v>0.74949886100000007</v>
-        <stp/>
-        <stp>_x0008_SEK6M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AH31" s="7"/>
-      </tp>
-      <tp>
-        <v>0.62668490900000007</v>
-        <stp/>
-        <stp>_x0008_SEK6M6Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AH30" s="7"/>
-      </tp>
-      <tp>
-        <v>0.47876987900000001</v>
-        <stp/>
-        <stp>_x0008_SEK6M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AH29" s="7"/>
-      </tp>
-      <tp>
-        <v>0.32518768100000001</v>
-        <stp/>
-        <stp>_x0008_SEK6M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AH28" s="7"/>
-      </tp>
-      <tp>
-        <v>0.17345665100000002</v>
-        <stp/>
-        <stp>_x0008_SEK6M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AH27" s="7"/>
-      </tp>
-      <tp>
-        <v>3.9722973000000002E-2</v>
-        <stp/>
-        <stp>_x0008_SEK6M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AH26" s="7"/>
-      </tp>
-      <tp>
-        <v>-3.5870157999999999E-2</v>
-        <stp/>
-        <stp>_x0008_SEK6M1Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AH25" s="7"/>
+        <v>1.107180523</v>
+        <stp/>
+        <stp>_x0008_SEK1M9Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AD33" s="7"/>
+      </tp>
+      <tp>
+        <v>0.98215793700000009</v>
+        <stp/>
+        <stp>_x0008_SEK1M8Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AD32" s="7"/>
+      </tp>
+      <tp>
+        <v>0.82461828400000003</v>
+        <stp/>
+        <stp>_x0008_SEK1M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AD31" s="7"/>
+      </tp>
+      <tp>
+        <v>0.63709210599999999</v>
+        <stp/>
+        <stp>_x0008_SEK1M6Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AD30" s="7"/>
+      </tp>
+      <tp>
+        <v>0.427274918</v>
+        <stp/>
+        <stp>_x0008_SEK1M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AD29" s="7"/>
+      </tp>
+      <tp>
+        <v>0.19783409600000001</v>
+        <stp/>
+        <stp>_x0008_SEK1M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AD28" s="7"/>
+      </tp>
+      <tp>
+        <v>-2.6947656E-2</v>
+        <stp/>
+        <stp>_x0008_SEK1M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AD27" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.22621880200000002</v>
+        <stp/>
+        <stp>_x0008_SEK1M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AD26" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.32109715300000002</v>
+        <stp/>
+        <stp>_x0008_SEK1M1Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AD25" s="7"/>
       </tp>
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0.74422578700000008</v>
-        <stp/>
-        <stp>_x0008_SEK1M9Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AD33" s="7"/>
-      </tp>
-      <tp>
-        <v>0.65427037300000002</v>
-        <stp/>
-        <stp>_x0008_SEK1M8Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AD32" s="7"/>
-      </tp>
-      <tp>
-        <v>0.54928412199999999</v>
-        <stp/>
-        <stp>_x0008_SEK1M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AD31" s="7"/>
-      </tp>
-      <tp>
-        <v>0.42690083900000003</v>
-        <stp/>
-        <stp>_x0008_SEK1M6Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AD30" s="7"/>
-      </tp>
-      <tp>
-        <v>0.27961965900000002</v>
-        <stp/>
-        <stp>_x0008_SEK1M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AD29" s="7"/>
-      </tp>
-      <tp>
-        <v>0.12770567600000002</v>
-        <stp/>
-        <stp>_x0008_SEK1M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AD28" s="7"/>
-      </tp>
-      <tp>
-        <v>-1.9542244E-2</v>
-        <stp/>
-        <stp>_x0008_SEK1M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AD27" s="7"/>
-      </tp>
-      <tp>
-        <v>-0.14377569500000001</v>
-        <stp/>
-        <stp>_x0008_SEK1M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AD26" s="7"/>
-      </tp>
-      <tp>
-        <v>-0.19362547900000002</v>
-        <stp/>
-        <stp>_x0008_SEK1M1Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="AD25" s="7"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp>
-        <v>0.84750000000000003</v>
+        <v>1.21</v>
         <stp/>
         <stp>_x0008_SEK3M9Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF33" s="7"/>
       </tp>
       <tp>
-        <v>0.75750000000000006</v>
+        <v>1.085</v>
         <stp/>
         <stp>_x0008_SEK3M8Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF32" s="7"/>
       </tp>
       <tp>
-        <v>0.65250000000000008</v>
+        <v>0.92749999999999999</v>
         <stp/>
         <stp>_x0008_SEK3M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF31" s="7"/>
       </tp>
       <tp>
-        <v>0.53</v>
+        <v>0.74</v>
         <stp/>
         <stp>_x0008_SEK3M6Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF30" s="7"/>
       </tp>
       <tp>
-        <v>0.38250000000000001</v>
+        <v>0.53</v>
         <stp/>
         <stp>_x0008_SEK3M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF29" s="7"/>
       </tp>
       <tp>
-        <v>0.23</v>
+        <v>0.30000000000000004</v>
         <stp/>
         <stp>_x0008_SEK3M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF28" s="7"/>
       </tp>
       <tp>
-        <v>0.08</v>
+        <v>7.2500000000000009E-2</v>
         <stp/>
         <stp>_x0008_SEK3M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF27" s="7"/>
       </tp>
       <tp>
-        <v>-0.05</v>
+        <v>-0.13250000000000001</v>
         <stp/>
         <stp>_x0008_SEK3M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF26" s="7"/>
       </tp>
       <tp>
-        <v>-0.11396569000000001</v>
+        <v>-0.241895362</v>
         <stp/>
         <stp>_x0008_SEK3M1Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF25" s="7"/>
       </tp>
       <tp>
-        <v>1.42</v>
+        <v>1.875</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF38" s="7"/>
       </tp>
       <tp>
-        <v>1.345</v>
+        <v>1.7949999999999999</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF37" s="7"/>
       </tp>
       <tp>
-        <v>1.4450000000000001</v>
+        <v>1.905</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF39" s="7"/>
       </tp>
       <tp>
-        <v>1.1850000000000001</v>
+        <v>1.6225000000000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF36" s="7"/>
       </tp>
       <tp>
-        <v>1.0449999999999999</v>
+        <v>1.4575</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF35" s="7"/>
       </tp>
       <tp>
-        <v>0.92</v>
+        <v>1.3075000000000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF34" s="7"/>
       </tp>
       <tp>
-        <v>1.328711685</v>
+        <v>1.78364305</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD38" s="7"/>
       </tp>
       <tp>
-        <v>1.249260018</v>
+        <v>1.6993895270000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD37" s="7"/>
       </tp>
       <tp>
-        <v>1.356659464</v>
+        <v>1.816392757</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD39" s="7"/>
       </tp>
       <tp>
-        <v>1.0839021990000002</v>
+        <v>1.521856423</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD36" s="7"/>
       </tp>
       <tp>
-        <v>0.94180458800000011</v>
+        <v>1.3547912550000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD35" s="7"/>
       </tp>
       <tp>
-        <v>0.81671830900000009</v>
+        <v>1.2047469770000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD34" s="7"/>
       </tp>
       <tp>
-        <v>-1.5234412000000001E-2</v>
+        <v>-9.5722648000000007E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK6MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI9" s="7"/>
       </tp>
       <tp>
-        <v>-1.5005242E-2</v>
+        <v>-9.5422892000000009E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK6MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI8" s="7"/>
       </tp>
       <tp>
-        <v>-4.4999999999999998E-2</v>
+        <v>-0.155</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M6MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI17" s="7"/>
       </tp>
       <tp>
-        <v>-4.0500000000000001E-2</v>
+        <v>-0.14699999999999999</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M4MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI15" s="7"/>
       </tp>
       <tp>
-        <v>-4.3300000000000005E-2</v>
+        <v>-0.14899999999999999</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M5MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI16" s="7"/>
       </tp>
       <tp>
-        <v>-1.5936275E-2</v>
+        <v>-9.6351787000000008E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI10" s="7"/>
       </tp>
       <tp>
-        <v>-0.03</v>
+        <v>-0.11600000000000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI13" s="7"/>
       </tp>
       <tp>
-        <v>-1.7106056000000001E-2</v>
+        <v>-9.7520001000000009E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI11" s="7"/>
       </tp>
       <tp>
-        <v>-3.6799999999999999E-2</v>
+        <v>-0.13700000000000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI14" s="7"/>
       </tp>
       <tp>
-        <v>-2.0200000000000003E-2</v>
+        <v>-0.1</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI12" s="7"/>
       </tp>
       <tp>
-        <v>1.4898787340000001</v>
+        <v>1.9457914860000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH38" s="7"/>
       </tp>
       <tp>
-        <v>1.4223873680000001</v>
+        <v>1.8730147880000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH37" s="7"/>
       </tp>
       <tp>
-        <v>1.508675728</v>
+        <v>1.9698736790000002</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH39" s="7"/>
       </tp>
       <tp>
-        <v>1.2727362610000001</v>
+        <v>1.710465766</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH36" s="7"/>
       </tp>
       <tp>
-        <v>1.1395184470000002</v>
+        <v>1.552139935</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH35" s="7"/>
       </tp>
       <tp>
-        <v>1.01694825</v>
+        <v>1.404545299</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH34" s="7"/>
       </tp>
       <tp>
-        <v>-0.12130000000000001</v>
+        <v>-0.25969999999999999</v>
         <stp/>
         <stp xml:space="preserve">	SEK1MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE9" s="7"/>
       </tp>
       <tp>
-        <v>-0.12102691400000001</v>
+        <v>-0.25932528300000002</v>
         <stp/>
         <stp xml:space="preserve">	SEK1MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE8" s="7"/>
       </tp>
       <tp>
-        <v>-0.1221</v>
+        <v>-0.26040000000000002</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE10" s="7"/>
       </tp>
       <tp>
-        <v>-0.12340000000000001</v>
+        <v>-0.26150000000000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE11" s="7"/>
       </tp>
       <tp>
-        <v>-0.1268</v>
+        <v>-0.26400000000000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE12" s="7"/>
       </tp>
       <tp>
-        <v>-6.4211153000000007E-2</v>
+        <v>-0.156500475</v>
         <stp/>
         <stp xml:space="preserve">	SEK3MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG9" s="7"/>
       </tp>
       <tp>
-        <v>-6.3944235000000002E-2</v>
+        <v>-0.15607385500000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK3MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG8" s="7"/>
       </tp>
       <tp>
-        <v>-6.502922400000001E-2</v>
+        <v>-0.15739724300000002</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG10" s="7"/>
       </tp>
       <tp>
-        <v>-8.14E-2</v>
+        <v>-0.18340000000000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG13" s="7"/>
       </tp>
       <tp>
-        <v>-6.6392913999999997E-2</v>
+        <v>-0.159063026</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG11" s="7"/>
       </tp>
       <tp>
-        <v>-8.9700000000000002E-2</v>
+        <v>-0.20800000000000002</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG14" s="7"/>
       </tp>
       <tp>
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.16259999999999999</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG12" s="7"/>
       </tp>
       <tp>
-        <v>100.09</v>
+        <v>100.215</v>
         <stp/>
         <stp>_x0007_SEK3MH6_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF22" s="7"/>
       </tp>
       <tp>
-        <v>100.0475</v>
+        <v>100.14750000000001</v>
         <stp/>
         <stp>_x0007_SEK3MM6_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF23" s="7"/>
       </tp>
       <tp>
-        <v>100.11500000000001</v>
+        <v>100.24000000000001</v>
         <stp/>
         <stp>_x0007_SEK3MM5_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF19" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>100.05500000000001</v>
         <stp/>
         <stp>_x0007_SEK3MU6_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF24" s="7"/>
       </tp>
       <tp>
-        <v>100.125</v>
+        <v>100.26</v>
         <stp/>
         <stp>_x0007_SEK3MU5_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF20" s="7"/>
       </tp>
       <tp>
-        <v>100.12</v>
+        <v>100.25</v>
         <stp/>
         <stp>_x0007_SEK3MZ5_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF21" s="7"/>
       </tp>
       <tp>
-        <v>100.12</v>
+        <v>100.25</v>
         <stp/>
         <stp>_x0007_SEK3MZ5_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG21" s="7"/>
       </tp>
       <tp>
-        <v>100.125</v>
+        <v>100.26</v>
         <stp/>
         <stp>_x0007_SEK3MU5_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG20" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>100.05500000000001</v>
         <stp/>
         <stp>_x0007_SEK3MU6_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG24" s="7"/>
       </tp>
       <tp>
-        <v>100.09</v>
+        <v>100.215</v>
         <stp/>
         <stp>_x0007_SEK3MH6_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG22" s="7"/>
       </tp>
       <tp>
-        <v>100.11500000000001</v>
+        <v>100.24000000000001</v>
         <stp/>
         <stp>_x0007_SEK3MM5_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG19" s="7"/>
       </tp>
       <tp>
-        <v>100.0475</v>
+        <v>100.14750000000001</v>
         <stp/>
         <stp>_x0007_SEK3MM6_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG23" s="7"/>
@@ -2572,7 +2568,7 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="I3">
-            <v>2</v>
+            <v>144</v>
           </cell>
         </row>
       </sheetData>
@@ -2924,7 +2920,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="178">
-        <v>42086.438738425924</v>
+        <v>42137.497083333335</v>
       </c>
       <c r="E4" s="136"/>
     </row>
@@ -2935,7 +2931,7 @@
       </c>
       <c r="D5" s="124">
         <f>[1]!TriggerCounter</f>
-        <v>2</v>
+        <v>144</v>
       </c>
       <c r="E5" s="136"/>
     </row>
@@ -2946,7 +2942,7 @@
       </c>
       <c r="D6" s="141">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="E6" s="136"/>
     </row>
@@ -3072,7 +3068,7 @@
       </c>
       <c r="D20" s="129">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,SettlementDays&amp;"d","following",FALSE)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="E20" s="136"/>
     </row>
@@ -3372,11 +3368,11 @@
       </c>
       <c r="N6" s="9">
         <f>'ON Pricing'!H6*100</f>
-        <v>-0.20716389393711679</v>
+        <v>-0.29230609923130274</v>
       </c>
       <c r="O6" s="9">
         <f t="shared" ref="O6:O7" si="1">N6</f>
-        <v>-0.20716389393711679</v>
+        <v>-0.29230609923130274</v>
       </c>
       <c r="P6" s="86"/>
       <c r="Q6" s="87"/>
@@ -3394,11 +3390,11 @@
       <c r="AA6" s="9"/>
       <c r="AB6" s="9">
         <f>ABS(_xll.RtGet(SourceAlias,$M6,BID)-N6)</f>
-        <v>1.3606288321033055E-7</v>
+        <v>2.3130269921622926E-10</v>
       </c>
       <c r="AC6" s="9">
         <f>ABS(_xll.RtGet(SourceAlias,$M6,ASK)-O6)</f>
-        <v>1.3606288321033055E-7</v>
+        <v>2.3130269921622926E-10</v>
       </c>
       <c r="AD6" s="88"/>
       <c r="AE6" s="88"/>
@@ -3432,11 +3428,11 @@
       </c>
       <c r="N7" s="13">
         <f>'ON Pricing'!H7*100</f>
-        <v>-0.20719513692053865</v>
+        <v>-0.292407407227042</v>
       </c>
       <c r="O7" s="13">
         <f t="shared" si="1"/>
-        <v>-0.20719513692053865</v>
+        <v>-0.292407407227042</v>
       </c>
       <c r="P7" s="102"/>
       <c r="Q7" s="103"/>
@@ -3454,11 +3450,11 @@
       <c r="AA7" s="13"/>
       <c r="AB7" s="13">
         <f>ABS(_xll.RtGet(SourceAlias,$M7,BID)-N7)</f>
-        <v>1.3507946136637194E-7</v>
+        <v>2.2704199631462529E-10</v>
       </c>
       <c r="AC7" s="13">
         <f>ABS(_xll.RtGet(SourceAlias,$M7,ASK)-O7)</f>
-        <v>1.3507946136637194E-7</v>
+        <v>2.2704199631462529E-10</v>
       </c>
       <c r="AD7" s="104"/>
       <c r="AE7" s="104"/>
@@ -3499,11 +3495,11 @@
       </c>
       <c r="Q8" s="90">
         <f>'1M Pricing'!H8*100</f>
-        <v>-0.12102406118863485</v>
+        <v>-0.25932528321526149</v>
       </c>
       <c r="R8" s="90">
         <f t="shared" ref="R8" si="3">Q8</f>
-        <v>-0.12102406118863485</v>
+        <v>-0.25932528321526149</v>
       </c>
       <c r="S8" s="10" t="str">
         <f t="shared" ref="S8:S14" si="4">Currency&amp;$S$4&amp;C8&amp;"D="</f>
@@ -3511,11 +3507,11 @@
       </c>
       <c r="T8" s="11">
         <f>'3M Pricing'!H8*100</f>
-        <v>-6.4766386753678518E-2</v>
+        <v>-0.15607385499194493</v>
       </c>
       <c r="U8" s="11">
         <f t="shared" ref="U8" si="5">T8</f>
-        <v>-6.4766386753678518E-2</v>
+        <v>-0.15607385499194493</v>
       </c>
       <c r="V8" s="10" t="str">
         <f t="shared" ref="V8:V17" si="6">Currency&amp;$V$4&amp;C8&amp;"D="</f>
@@ -3523,11 +3519,11 @@
       </c>
       <c r="W8" s="11">
         <f>'6M Pricing'!H8*100</f>
-        <v>-4.0800712896249536E-2</v>
+        <v>-9.5422892267826853E-2</v>
       </c>
       <c r="X8" s="11">
         <f t="shared" ref="X8" si="7">W8</f>
-        <v>-4.0800712896249536E-2</v>
+        <v>-9.5422892267826853E-2</v>
       </c>
       <c r="Y8" s="67" t="s">
         <v>56</v>
@@ -3538,27 +3534,27 @@
       <c r="AC8" s="11"/>
       <c r="AD8" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P8,BID)-Q8)</f>
-        <v>2.8528113651671294E-6</v>
+        <v>2.1526147531147899E-10</v>
       </c>
       <c r="AE8" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P8,ASK)-R8)</f>
-        <v>2.8528113651671294E-6</v>
+        <v>2.1526147531147899E-10</v>
       </c>
       <c r="AF8" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S8,BID)-T8)</f>
-        <v>8.2215175367851556E-4</v>
+        <v>8.0550843772897451E-12</v>
       </c>
       <c r="AG8" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S8,ASK)-U8)</f>
-        <v>8.2215175367851556E-4</v>
+        <v>8.0550843772897451E-12</v>
       </c>
       <c r="AH8" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V8,BID)-W8)</f>
-        <v>2.5795470896249534E-2</v>
+        <v>2.6782684403592327E-10</v>
       </c>
       <c r="AI8" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V8,ASK)-X8)</f>
-        <v>2.5795470896249534E-2</v>
+        <v>2.6782684403592327E-10</v>
       </c>
       <c r="AJ8" s="33"/>
     </row>
@@ -3593,11 +3589,11 @@
       </c>
       <c r="Q9" s="90">
         <f>'1M Pricing'!H9*100</f>
-        <v>-0.12129999999815105</v>
+        <v>-0.25969999999986282</v>
       </c>
       <c r="R9" s="90">
         <f t="shared" ref="R9:R12" si="8">Q9</f>
-        <v>-0.12129999999815105</v>
+        <v>-0.25969999999986282</v>
       </c>
       <c r="S9" s="10" t="str">
         <f t="shared" si="4"/>
@@ -3605,11 +3601,11 @@
       </c>
       <c r="T9" s="11">
         <f>'3M Pricing'!H9*100</f>
-        <v>-6.5023497456121293E-2</v>
+        <v>-0.15650047506771125</v>
       </c>
       <c r="U9" s="11">
         <f t="shared" ref="U9:U14" si="9">T9</f>
-        <v>-6.5023497456121293E-2</v>
+        <v>-0.15650047506771125</v>
       </c>
       <c r="V9" s="10" t="str">
         <f t="shared" si="6"/>
@@ -3617,11 +3613,11 @@
       </c>
       <c r="W9" s="11">
         <f>'6M Pricing'!H9*100</f>
-        <v>-4.0932932381895375E-2</v>
+        <v>-9.572264759288851E-2</v>
       </c>
       <c r="X9" s="11">
         <f t="shared" ref="X9:X17" si="10">W9</f>
-        <v>-4.0932932381895375E-2</v>
+        <v>-9.572264759288851E-2</v>
       </c>
       <c r="Y9" s="67" t="s">
         <v>56</v>
@@ -3632,27 +3628,27 @@
       <c r="AC9" s="11"/>
       <c r="AD9" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P9,BID)-Q9)</f>
-        <v>1.8489515474229279E-12</v>
+        <v>1.3716805469243809E-13</v>
       </c>
       <c r="AE9" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P9,ASK)-R9)</f>
-        <v>1.8489515474229279E-12</v>
+        <v>1.3716805469243809E-13</v>
       </c>
       <c r="AF9" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S9,BID)-T9)</f>
-        <v>8.1234445612128614E-4</v>
+        <v>6.7711253270985594E-11</v>
       </c>
       <c r="AG9" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S9,ASK)-U9)</f>
-        <v>8.1234445612128614E-4</v>
+        <v>6.7711253270985594E-11</v>
       </c>
       <c r="AH9" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V9,BID)-W9)</f>
-        <v>2.5698520381895372E-2</v>
+        <v>4.071114972914458E-10</v>
       </c>
       <c r="AI9" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V9,ASK)-X9)</f>
-        <v>2.5698520381895372E-2</v>
+        <v>4.071114972914458E-10</v>
       </c>
       <c r="AJ9" s="33" t="s">
         <v>56</v>
@@ -3689,11 +3685,11 @@
       </c>
       <c r="Q10" s="90">
         <f>'1M Pricing'!H10*100</f>
-        <v>-0.1221000000046768</v>
+        <v>-0.26040000000025565</v>
       </c>
       <c r="R10" s="90">
         <f t="shared" si="8"/>
-        <v>-0.1221000000046768</v>
+        <v>-0.26040000000025565</v>
       </c>
       <c r="S10" s="10" t="str">
         <f t="shared" si="4"/>
@@ -3701,11 +3697,11 @@
       </c>
       <c r="T10" s="11">
         <f>'3M Pricing'!H10*100</f>
-        <v>-6.5811548335816178E-2</v>
+        <v>-0.15739724300911639</v>
       </c>
       <c r="U10" s="11">
         <f t="shared" si="9"/>
-        <v>-6.5811548335816178E-2</v>
+        <v>-0.15739724300911639</v>
       </c>
       <c r="V10" s="10" t="str">
         <f t="shared" si="6"/>
@@ -3713,11 +3709,11 @@
       </c>
       <c r="W10" s="11">
         <f>'6M Pricing'!H10*100</f>
-        <v>-4.133811324361477E-2</v>
+        <v>-9.635178746858486E-2</v>
       </c>
       <c r="X10" s="11">
         <f t="shared" si="10"/>
-        <v>-4.133811324361477E-2</v>
+        <v>-9.635178746858486E-2</v>
       </c>
       <c r="Y10" s="67" t="s">
         <v>56</v>
@@ -3728,27 +3724,27 @@
       <c r="AC10" s="11"/>
       <c r="AD10" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P10,BID)-Q10)</f>
-        <v>4.6768006134456641E-12</v>
+        <v>2.5562885141994229E-13</v>
       </c>
       <c r="AE10" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P10,ASK)-R10)</f>
-        <v>4.6768006134456641E-12</v>
+        <v>2.5562885141994229E-13</v>
       </c>
       <c r="AF10" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S10,BID)-T10)</f>
-        <v>7.8232433581616745E-4</v>
+        <v>9.1163743221045479E-12</v>
       </c>
       <c r="AG10" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S10,ASK)-U10)</f>
-        <v>7.8232433581616745E-4</v>
+        <v>9.1163743221045479E-12</v>
       </c>
       <c r="AH10" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V10,BID)-W10)</f>
-        <v>2.540183824361477E-2</v>
+        <v>4.6858485147627249E-10</v>
       </c>
       <c r="AI10" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V10,ASK)-X10)</f>
-        <v>2.540183824361477E-2</v>
+        <v>4.6858485147627249E-10</v>
       </c>
       <c r="AJ10" s="33" t="s">
         <v>56</v>
@@ -3785,11 +3781,11 @@
       </c>
       <c r="Q11" s="90">
         <f>'1M Pricing'!H11*100</f>
-        <v>-0.1234000000190757</v>
+        <v>-0.26149999999981943</v>
       </c>
       <c r="R11" s="90">
         <f t="shared" si="8"/>
-        <v>-0.1234000000190757</v>
+        <v>-0.26149999999981943</v>
       </c>
       <c r="S11" s="10" t="str">
         <f t="shared" si="4"/>
@@ -3797,11 +3793,11 @@
       </c>
       <c r="T11" s="11">
         <f>'3M Pricing'!H11*100</f>
-        <v>-6.7125212964036507E-2</v>
+        <v>-0.15906302619184132</v>
       </c>
       <c r="U11" s="11">
         <f t="shared" si="9"/>
-        <v>-6.7125212964036507E-2</v>
+        <v>-0.15906302619184132</v>
       </c>
       <c r="V11" s="10" t="str">
         <f t="shared" si="6"/>
@@ -3809,11 +3805,11 @@
       </c>
       <c r="W11" s="11">
         <f>'6M Pricing'!H11*100</f>
-        <v>-4.2013514419839533E-2</v>
+        <v>-9.7520001409406074E-2</v>
       </c>
       <c r="X11" s="11">
         <f t="shared" si="10"/>
-        <v>-4.2013514419839533E-2</v>
+        <v>-9.7520001409406074E-2</v>
       </c>
       <c r="Y11" s="67" t="s">
         <v>56</v>
@@ -3824,27 +3820,27 @@
       <c r="AC11" s="11"/>
       <c r="AD11" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P11,BID)-Q11)</f>
-        <v>1.9075685475655746E-11</v>
+        <v>1.8057777495528171E-13</v>
       </c>
       <c r="AE11" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P11,ASK)-R11)</f>
-        <v>1.9075685475655746E-11</v>
+        <v>1.8057777495528171E-13</v>
       </c>
       <c r="AF11" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S11,BID)-T11)</f>
-        <v>7.3229896403650963E-4</v>
+        <v>1.9184132060701131E-10</v>
       </c>
       <c r="AG11" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S11,ASK)-U11)</f>
-        <v>7.3229896403650963E-4</v>
+        <v>1.9184132060701131E-10</v>
       </c>
       <c r="AH11" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V11,BID)-W11)</f>
-        <v>2.4907458419839532E-2</v>
+        <v>4.0940606460537765E-10</v>
       </c>
       <c r="AI11" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V11,ASK)-X11)</f>
-        <v>2.4907458419839532E-2</v>
+        <v>4.0940606460537765E-10</v>
       </c>
       <c r="AJ11" s="33" t="s">
         <v>56</v>
@@ -3881,11 +3877,11 @@
       </c>
       <c r="N12" s="11">
         <f>'ON Pricing'!H12*100</f>
-        <v>-0.21299999992343352</v>
+        <v>-0.29700000068499932</v>
       </c>
       <c r="O12" s="11">
         <f t="shared" ref="O12" si="11">N12</f>
-        <v>-0.21299999992343352</v>
+        <v>-0.29700000068499932</v>
       </c>
       <c r="P12" s="89" t="str">
         <f t="shared" si="2"/>
@@ -3893,11 +3889,11 @@
       </c>
       <c r="Q12" s="90">
         <f>'1M Pricing'!H12*100</f>
-        <v>-0.12679999980850939</v>
+        <v>-0.2639999999989962</v>
       </c>
       <c r="R12" s="90">
         <f t="shared" si="8"/>
-        <v>-0.12679999980850939</v>
+        <v>-0.2639999999989962</v>
       </c>
       <c r="S12" s="10" t="str">
         <f t="shared" si="4"/>
@@ -3905,11 +3901,11 @@
       </c>
       <c r="T12" s="11">
         <f>'3M Pricing'!H12*100</f>
-        <v>-7.0599999982399395E-2</v>
+        <v>-0.16260000047622322</v>
       </c>
       <c r="U12" s="11">
         <f t="shared" si="9"/>
-        <v>-7.0599999982399395E-2</v>
+        <v>-0.16260000047622322</v>
       </c>
       <c r="V12" s="10" t="str">
         <f t="shared" si="6"/>
@@ -3917,11 +3913,11 @@
       </c>
       <c r="W12" s="11">
         <f>'6M Pricing'!H12*100</f>
-        <v>-4.3799999999896956E-2</v>
+        <v>-0.10000000000091298</v>
       </c>
       <c r="X12" s="11">
         <f t="shared" si="10"/>
-        <v>-4.3799999999896956E-2</v>
+        <v>-0.10000000000091298</v>
       </c>
       <c r="Y12" s="67" t="s">
         <v>56</v>
@@ -3930,35 +3926,35 @@
       <c r="AA12" s="11"/>
       <c r="AB12" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M12,BID)-N12)</f>
-        <v>7.656647538212269E-11</v>
+        <v>3.1500069219703164E-10</v>
       </c>
       <c r="AC12" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M12,ASK)-O12)</f>
-        <v>7.656647538212269E-11</v>
+        <v>3.1500069219703164E-10</v>
       </c>
       <c r="AD12" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P12,BID)-Q12)</f>
-        <v>1.9149060115353222E-10</v>
+        <v>1.0038081477148353E-12</v>
       </c>
       <c r="AE12" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P12,ASK)-R12)</f>
-        <v>1.9149060115353222E-10</v>
+        <v>1.0038081477148353E-12</v>
       </c>
       <c r="AF12" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S12,BID)-T12)</f>
-        <v>5.999999823993879E-4</v>
+        <v>4.7622322751905699E-10</v>
       </c>
       <c r="AG12" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S12,ASK)-U12)</f>
-        <v>5.999999823993879E-4</v>
+        <v>4.7622322751905699E-10</v>
       </c>
       <c r="AH12" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V12,BID)-W12)</f>
-        <v>2.3599999999896953E-2</v>
+        <v>9.1297802651268967E-13</v>
       </c>
       <c r="AI12" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V12,ASK)-X12)</f>
-        <v>2.3599999999896953E-2</v>
+        <v>9.1297802651268967E-13</v>
       </c>
       <c r="AJ12" s="33" t="s">
         <v>56</v>
@@ -3994,11 +3990,11 @@
       </c>
       <c r="N13" s="11">
         <f>'ON Pricing'!H13*100</f>
-        <v>-0.22399999979947427</v>
+        <v>-0.31300000015984814</v>
       </c>
       <c r="O13" s="11">
         <f t="shared" ref="O13:O39" si="12">N13</f>
-        <v>-0.22399999979947427</v>
+        <v>-0.31300000015984814</v>
       </c>
       <c r="P13" s="89"/>
       <c r="Q13" s="90"/>
@@ -4009,11 +4005,11 @@
       </c>
       <c r="T13" s="11">
         <f>'3M Pricing'!H13*100</f>
-        <v>-8.1599999940353038E-2</v>
+        <v>-0.18340000012966637</v>
       </c>
       <c r="U13" s="11">
         <f t="shared" si="9"/>
-        <v>-8.1599999940353038E-2</v>
+        <v>-0.18340000012966637</v>
       </c>
       <c r="V13" s="10" t="str">
         <f t="shared" si="6"/>
@@ -4021,11 +4017,11 @@
       </c>
       <c r="W13" s="11">
         <f>'6M Pricing'!H13*100</f>
-        <v>-4.9100000000059936E-2</v>
+        <v>-0.11600000000162275</v>
       </c>
       <c r="X13" s="11">
         <f t="shared" si="10"/>
-        <v>-4.9100000000059936E-2</v>
+        <v>-0.11600000000162275</v>
       </c>
       <c r="Y13" s="67" t="s">
         <v>56</v>
@@ -4034,29 +4030,29 @@
       <c r="AA13" s="11"/>
       <c r="AB13" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M13,BID)-N13)</f>
-        <v>2.0052573490580983E-10</v>
+        <v>1.5984813472869064E-10</v>
       </c>
       <c r="AC13" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M13,ASK)-O13)</f>
-        <v>2.0052573490580983E-10</v>
+        <v>1.5984813472869064E-10</v>
       </c>
       <c r="AD13" s="91"/>
       <c r="AE13" s="91"/>
       <c r="AF13" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S13,BID)-T13)</f>
-        <v>1.9999994035303781E-4</v>
+        <v>1.2966636098177275E-10</v>
       </c>
       <c r="AG13" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S13,ASK)-U13)</f>
-        <v>1.9999994035303781E-4</v>
+        <v>1.2966636098177275E-10</v>
       </c>
       <c r="AH13" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V13,BID)-W13)</f>
-        <v>1.9100000000059937E-2</v>
+        <v>1.6227436061555522E-12</v>
       </c>
       <c r="AI13" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V13,ASK)-X13)</f>
-        <v>1.9100000000059937E-2</v>
+        <v>1.6227436061555522E-12</v>
       </c>
       <c r="AJ13" s="33" t="s">
         <v>56</v>
@@ -4092,11 +4088,11 @@
       </c>
       <c r="N14" s="11">
         <f>'ON Pricing'!H14*100</f>
-        <v>-0.2320000000000341</v>
+        <v>-0.33400000000004204</v>
       </c>
       <c r="O14" s="11">
         <f t="shared" si="12"/>
-        <v>-0.2320000000000341</v>
+        <v>-0.33400000000004204</v>
       </c>
       <c r="P14" s="92"/>
       <c r="Q14" s="93"/>
@@ -4107,11 +4103,11 @@
       </c>
       <c r="T14" s="11">
         <f>'3M Pricing'!H14*100</f>
-        <v>-8.9699999814722417E-2</v>
+        <v>-0.20799999999998117</v>
       </c>
       <c r="U14" s="11">
         <f t="shared" si="9"/>
-        <v>-8.9699999814722417E-2</v>
+        <v>-0.20799999999998117</v>
       </c>
       <c r="V14" s="10" t="str">
         <f t="shared" si="6"/>
@@ -4119,11 +4115,11 @@
       </c>
       <c r="W14" s="11">
         <f>'6M Pricing'!H14*100</f>
-        <v>-5.1200000000000044E-2</v>
+        <v>-0.13700000000210524</v>
       </c>
       <c r="X14" s="11">
         <f t="shared" si="10"/>
-        <v>-5.1200000000000044E-2</v>
+        <v>-0.13700000000210524</v>
       </c>
       <c r="Y14" s="67" t="s">
         <v>56</v>
@@ -4132,29 +4128,29 @@
       <c r="AA14" s="11"/>
       <c r="AB14" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M14,BID)-N14)</f>
-        <v>3.4083846855992306E-14</v>
+        <v>4.2021941482062175E-14</v>
       </c>
       <c r="AC14" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M14,ASK)-O14)</f>
-        <v>3.4083846855992306E-14</v>
+        <v>4.2021941482062175E-14</v>
       </c>
       <c r="AD14" s="94"/>
       <c r="AE14" s="94"/>
       <c r="AF14" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S14,BID)-T14)</f>
-        <v>1.8527758494091273E-10</v>
+        <v>1.8846035843012032E-14</v>
       </c>
       <c r="AG14" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S14,ASK)-U14)</f>
-        <v>1.8527758494091273E-10</v>
+        <v>1.8846035843012032E-14</v>
       </c>
       <c r="AH14" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V14,BID)-W14)</f>
-        <v>1.4400000000000045E-2</v>
+        <v>2.1052326548698375E-12</v>
       </c>
       <c r="AI14" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V14,ASK)-X14)</f>
-        <v>1.4400000000000045E-2</v>
+        <v>2.1052326548698375E-12</v>
       </c>
       <c r="AJ14" s="33" t="s">
         <v>56</v>
@@ -4189,11 +4185,11 @@
       </c>
       <c r="N15" s="11">
         <f>'ON Pricing'!H15*100</f>
-        <v>-0.23700000000002483</v>
+        <v>-0.34400000000002456</v>
       </c>
       <c r="O15" s="11">
         <f t="shared" si="12"/>
-        <v>-0.23700000000002483</v>
+        <v>-0.34400000000002456</v>
       </c>
       <c r="P15" s="89"/>
       <c r="Q15" s="90"/>
@@ -4207,11 +4203,11 @@
       </c>
       <c r="W15" s="11">
         <f>'6M Pricing'!H15*100</f>
-        <v>-4.9799999952417476E-2</v>
+        <v>-0.14700000000303293</v>
       </c>
       <c r="X15" s="11">
         <f t="shared" si="10"/>
-        <v>-4.9799999952417476E-2</v>
+        <v>-0.14700000000303293</v>
       </c>
       <c r="Y15" s="67" t="s">
         <v>56</v>
@@ -4220,11 +4216,11 @@
       <c r="AA15" s="11"/>
       <c r="AB15" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M15,BID)-N15)</f>
-        <v>2.4813484600372249E-14</v>
+        <v>2.453592884421596E-14</v>
       </c>
       <c r="AC15" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M15,ASK)-O15)</f>
-        <v>2.4813484600372249E-14</v>
+        <v>2.453592884421596E-14</v>
       </c>
       <c r="AD15" s="91"/>
       <c r="AE15" s="91"/>
@@ -4232,11 +4228,11 @@
       <c r="AG15" s="71"/>
       <c r="AH15" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V15,BID)-W15)</f>
-        <v>9.2999999524174745E-3</v>
+        <v>3.0329350142466183E-12</v>
       </c>
       <c r="AI15" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V15,ASK)-X15)</f>
-        <v>9.2999999524174745E-3</v>
+        <v>3.0329350142466183E-12</v>
       </c>
       <c r="AJ15" s="33" t="s">
         <v>56</v>
@@ -4271,11 +4267,11 @@
       </c>
       <c r="N16" s="11">
         <f>'ON Pricing'!H16*100</f>
-        <v>-0.24099999999998797</v>
+        <v>-0.34600000000000358</v>
       </c>
       <c r="O16" s="11">
         <f t="shared" si="12"/>
-        <v>-0.24099999999998797</v>
+        <v>-0.34600000000000358</v>
       </c>
       <c r="P16" s="89"/>
       <c r="Q16" s="90"/>
@@ -4289,11 +4285,11 @@
       </c>
       <c r="W16" s="11">
         <f>'6M Pricing'!H16*100</f>
-        <v>-4.8100000046095749E-2</v>
+        <v>-0.14899999999999511</v>
       </c>
       <c r="X16" s="11">
         <f t="shared" si="10"/>
-        <v>-4.8100000046095749E-2</v>
+        <v>-0.14899999999999511</v>
       </c>
       <c r="Y16" s="67" t="s">
         <v>56</v>
@@ -4302,11 +4298,11 @@
       <c r="AA16" s="11"/>
       <c r="AB16" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M16,BID)-N16)</f>
-        <v>1.201816424156732E-14</v>
+        <v>3.5527136788005009E-15</v>
       </c>
       <c r="AC16" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M16,ASK)-O16)</f>
-        <v>1.201816424156732E-14</v>
+        <v>3.5527136788005009E-15</v>
       </c>
       <c r="AD16" s="91"/>
       <c r="AE16" s="91"/>
@@ -4314,11 +4310,11 @@
       <c r="AG16" s="71"/>
       <c r="AH16" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V16,BID)-W16)</f>
-        <v>4.800000046095744E-3</v>
+        <v>4.8849813083506888E-15</v>
       </c>
       <c r="AI16" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V16,ASK)-X16)</f>
-        <v>4.800000046095744E-3</v>
+        <v>4.8849813083506888E-15</v>
       </c>
       <c r="AJ16" s="33" t="s">
         <v>56</v>
@@ -4354,11 +4350,11 @@
       </c>
       <c r="N17" s="11">
         <f>'ON Pricing'!H17*100</f>
-        <v>-0.24400000000001718</v>
+        <v>-0.35199999999999487</v>
       </c>
       <c r="O17" s="11">
         <f t="shared" si="12"/>
-        <v>-0.24400000000001718</v>
+        <v>-0.35199999999999487</v>
       </c>
       <c r="P17" s="92"/>
       <c r="Q17" s="93"/>
@@ -4372,11 +4368,11 @@
       </c>
       <c r="W17" s="11">
         <f>'6M Pricing'!H17*100</f>
-        <v>-4.49999999999907E-2</v>
+        <v>-0.15499999999999453</v>
       </c>
       <c r="X17" s="11">
         <f t="shared" si="10"/>
-        <v>-4.49999999999907E-2</v>
+        <v>-0.15499999999999453</v>
       </c>
       <c r="Y17" s="67" t="s">
         <v>56</v>
@@ -4385,11 +4381,11 @@
       <c r="AA17" s="11"/>
       <c r="AB17" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M17,BID)-N17)</f>
-        <v>1.7180701306074297E-14</v>
+        <v>5.1070259132757201E-15</v>
       </c>
       <c r="AC17" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M17,ASK)-O17)</f>
-        <v>1.7180701306074297E-14</v>
+        <v>5.1070259132757201E-15</v>
       </c>
       <c r="AD17" s="94"/>
       <c r="AE17" s="94"/>
@@ -4397,11 +4393,11 @@
       <c r="AG17" s="71"/>
       <c r="AH17" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V17,BID)-W17)</f>
-        <v>9.298117831235686E-15</v>
+        <v>5.467848396278896E-15</v>
       </c>
       <c r="AI17" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V17,ASK)-X17)</f>
-        <v>9.298117831235686E-15</v>
+        <v>5.467848396278896E-15</v>
       </c>
       <c r="AJ17" s="33" t="s">
         <v>56</v>
@@ -4435,11 +4431,11 @@
       </c>
       <c r="N18" s="11">
         <f>'ON Pricing'!H18*100</f>
-        <v>-0.25000000000004197</v>
+        <v>-0.3530000000000042</v>
       </c>
       <c r="O18" s="11">
         <f t="shared" si="12"/>
-        <v>-0.25000000000004197</v>
+        <v>-0.3530000000000042</v>
       </c>
       <c r="P18" s="92"/>
       <c r="Q18" s="93"/>
@@ -4457,11 +4453,11 @@
       <c r="AA18" s="11"/>
       <c r="AB18" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M18,BID)-N18)</f>
-        <v>4.1966430330830917E-14</v>
+        <v>4.2188474935755949E-15</v>
       </c>
       <c r="AC18" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M18,ASK)-O18)</f>
-        <v>4.1966430330830917E-14</v>
+        <v>4.2188474935755949E-15</v>
       </c>
       <c r="AD18" s="97"/>
       <c r="AE18" s="97"/>
@@ -4515,11 +4511,11 @@
       </c>
       <c r="T19" s="9">
         <f>'3M Pricing'!H19</f>
-        <v>100.11499999985878</v>
+        <v>100.23999999994962</v>
       </c>
       <c r="U19" s="9">
         <f t="shared" ref="U19:U24" si="14">T19</f>
-        <v>100.11499999985878</v>
+        <v>100.23999999994962</v>
       </c>
       <c r="V19" s="68"/>
       <c r="W19" s="68"/>
@@ -4535,11 +4531,11 @@
       <c r="AE19" s="100"/>
       <c r="AF19" s="9">
         <f>ABS(_xll.RtGet(SourceAlias,$S19,BID)-T19)</f>
-        <v>1.4122747415967751E-10</v>
+        <v>5.0391690820106305E-11</v>
       </c>
       <c r="AG19" s="9">
         <f>ABS(_xll.RtGet(SourceAlias,$S19,ASK)-U19)</f>
-        <v>1.4122747415967751E-10</v>
+        <v>5.0391690820106305E-11</v>
       </c>
       <c r="AH19" s="69"/>
       <c r="AI19" s="69"/>
@@ -4588,11 +4584,11 @@
       </c>
       <c r="T20" s="11">
         <f>'3M Pricing'!H20</f>
-        <v>100.12499999994462</v>
+        <v>100.26000000020865</v>
       </c>
       <c r="U20" s="11">
         <f t="shared" si="14"/>
-        <v>100.12499999994462</v>
+        <v>100.26000000020865</v>
       </c>
       <c r="V20" s="70"/>
       <c r="W20" s="70"/>
@@ -4608,11 +4604,11 @@
       <c r="AE20" s="94"/>
       <c r="AF20" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S20,BID)-T20)</f>
-        <v>5.5379700825142208E-11</v>
+        <v>2.0864376892859582E-10</v>
       </c>
       <c r="AG20" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S20,ASK)-U20)</f>
-        <v>5.5379700825142208E-11</v>
+        <v>2.0864376892859582E-10</v>
       </c>
       <c r="AH20" s="71"/>
       <c r="AI20" s="71"/>
@@ -4661,11 +4657,11 @@
       </c>
       <c r="T21" s="11">
         <f>'3M Pricing'!H21</f>
-        <v>100.125</v>
+        <v>100.25000000026682</v>
       </c>
       <c r="U21" s="11">
         <f t="shared" si="14"/>
-        <v>100.125</v>
+        <v>100.25000000026682</v>
       </c>
       <c r="V21" s="70"/>
       <c r="W21" s="70"/>
@@ -4681,11 +4677,11 @@
       <c r="AE21" s="94"/>
       <c r="AF21" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S21,BID)-T21)</f>
-        <v>4.9999999999954525E-3</v>
+        <v>2.6682300813263282E-10</v>
       </c>
       <c r="AG21" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S21,ASK)-U21)</f>
-        <v>4.9999999999954525E-3</v>
+        <v>2.6682300813263282E-10</v>
       </c>
       <c r="AH21" s="71"/>
       <c r="AI21" s="71"/>
@@ -4734,11 +4730,11 @@
       </c>
       <c r="T22" s="11">
         <f>'3M Pricing'!H22</f>
-        <v>100.09499999999998</v>
+        <v>100.21499999990198</v>
       </c>
       <c r="U22" s="11">
         <f t="shared" si="14"/>
-        <v>100.09499999999998</v>
+        <v>100.21499999990198</v>
       </c>
       <c r="V22" s="70"/>
       <c r="W22" s="70"/>
@@ -4754,11 +4750,11 @@
       <c r="AE22" s="94"/>
       <c r="AF22" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S22,BID)-T22)</f>
-        <v>4.9999999999812417E-3</v>
+        <v>9.8026475825463422E-11</v>
       </c>
       <c r="AG22" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S22,ASK)-U22)</f>
-        <v>4.9999999999812417E-3</v>
+        <v>9.8026475825463422E-11</v>
       </c>
       <c r="AH22" s="71"/>
       <c r="AI22" s="71"/>
@@ -4807,11 +4803,11 @@
       </c>
       <c r="T23" s="11">
         <f>'3M Pricing'!H23</f>
-        <v>100.04249999990166</v>
+        <v>100.1474999998748</v>
       </c>
       <c r="U23" s="11">
         <f t="shared" si="14"/>
-        <v>100.04249999990166</v>
+        <v>100.1474999998748</v>
       </c>
       <c r="V23" s="70"/>
       <c r="W23" s="70"/>
@@ -4827,11 +4823,11 @@
       <c r="AE23" s="94"/>
       <c r="AF23" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S23,BID)-T23)</f>
-        <v>5.0000000983345672E-3</v>
+        <v>1.2521184089564485E-10</v>
       </c>
       <c r="AG23" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S23,ASK)-U23)</f>
-        <v>5.0000000983345672E-3</v>
+        <v>1.2521184089564485E-10</v>
       </c>
       <c r="AH23" s="71"/>
       <c r="AI23" s="71"/>
@@ -4878,11 +4874,11 @@
       </c>
       <c r="T24" s="13">
         <f>'3M Pricing'!H24</f>
-        <v>99.974999999999994</v>
+        <v>100.05499999986229</v>
       </c>
       <c r="U24" s="13">
         <f t="shared" si="14"/>
-        <v>99.974999999999994</v>
+        <v>100.05499999986229</v>
       </c>
       <c r="V24" s="72"/>
       <c r="W24" s="72"/>
@@ -4896,13 +4892,13 @@
       <c r="AC24" s="76"/>
       <c r="AD24" s="101"/>
       <c r="AE24" s="101"/>
-      <c r="AF24" s="13" t="e">
+      <c r="AF24" s="13">
         <f>ABS(_xll.RtGet(SourceAlias,$S24,BID)-T24)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG24" s="13" t="e">
+        <v>1.3771739304502262E-10</v>
+      </c>
+      <c r="AG24" s="13">
         <f>ABS(_xll.RtGet(SourceAlias,$S24,ASK)-U24)</f>
-        <v>#VALUE!</v>
+        <v>1.3771739304502262E-10</v>
       </c>
       <c r="AH24" s="73"/>
       <c r="AI24" s="73"/>
@@ -4940,10 +4936,10 @@
         <v>SEK3M1Y=</v>
       </c>
       <c r="K25" s="9">
-        <v>-0.11542212671681977</v>
+        <v>-0.24189536157916752</v>
       </c>
       <c r="L25" s="9">
-        <v>-0.11542212671681977</v>
+        <v>-0.24189536157916752</v>
       </c>
       <c r="M25" s="8" t="str">
         <f t="shared" ref="M25:M39" si="15">Currency&amp;"ON"&amp;C25&amp;"D="</f>
@@ -4951,11 +4947,11 @@
       </c>
       <c r="N25" s="9">
         <f>'ON Pricing'!H25*100</f>
-        <v>-0.2430000000000688</v>
+        <v>-0.35199999999998438</v>
       </c>
       <c r="O25" s="9">
         <f>N25</f>
-        <v>-0.2430000000000688</v>
+        <v>-0.35199999999998438</v>
       </c>
       <c r="P25" s="98" t="str">
         <f t="shared" ref="P25:P39" si="16">Currency&amp;$P$4&amp;C25&amp;"="</f>
@@ -4963,11 +4959,11 @@
       </c>
       <c r="Q25" s="90">
         <f>'1M Pricing'!H25*100</f>
-        <v>-0.19132798649356048</v>
+        <v>-0.32109715324591509</v>
       </c>
       <c r="R25" s="90">
         <f t="shared" ref="R25" si="17">Q25</f>
-        <v>-0.19132798649356048</v>
+        <v>-0.32109715324591509</v>
       </c>
       <c r="S25" s="10" t="str">
         <f t="shared" ref="S25:S39" si="18">Currency&amp;$S$4&amp;C25&amp;"="</f>
@@ -4975,11 +4971,11 @@
       </c>
       <c r="T25" s="11">
         <f>'3M Pricing'!H25*100</f>
-        <v>-0.11542212671681977</v>
+        <v>-0.24189536157916752</v>
       </c>
       <c r="U25" s="11">
         <f>T25</f>
-        <v>-0.11542212671681977</v>
+        <v>-0.24189536157916752</v>
       </c>
       <c r="V25" s="8" t="str">
         <f t="shared" ref="V25:V39" si="19">Currency&amp;$V$4&amp;C25&amp;"="</f>
@@ -4987,51 +4983,51 @@
       </c>
       <c r="W25" s="9">
         <f>'6M Pricing'!H25*100</f>
-        <v>-4.3623538733729601E-2</v>
+        <v>-0.15752471896158804</v>
       </c>
       <c r="X25" s="9">
         <f>W25</f>
-        <v>-4.3623538733729601E-2</v>
+        <v>-0.15752471896158804</v>
       </c>
       <c r="Y25" s="67"/>
       <c r="Z25" s="11">
         <f t="array" ref="Z25:AA39">AF25:AG39</f>
-        <v>1.4564367168197617E-3</v>
+        <v>4.2083247997481976E-10</v>
       </c>
       <c r="AA25" s="11">
-        <v>1.4564367168197617E-3</v>
+        <v>4.2083247997481976E-10</v>
       </c>
       <c r="AB25" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M25,BID)-N25)</f>
-        <v>1.000000000068807E-3</v>
+        <v>1.5598633495983449E-14</v>
       </c>
       <c r="AC25" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M25,ASK)-O25)</f>
-        <v>1.000000000068807E-3</v>
+        <v>1.5598633495983449E-14</v>
       </c>
       <c r="AD25" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P25,BID)-Q25)</f>
-        <v>2.2974925064395413E-3</v>
+        <v>2.4591506608828695E-10</v>
       </c>
       <c r="AE25" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P25,ASK)-R25)</f>
-        <v>2.2974925064395413E-3</v>
+        <v>2.4591506608828695E-10</v>
       </c>
       <c r="AF25" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S25,BID)-T25)</f>
-        <v>1.4564367168197617E-3</v>
+        <v>4.2083247997481976E-10</v>
       </c>
       <c r="AG25" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S25,ASK)-U25)</f>
-        <v>1.4564367168197617E-3</v>
+        <v>4.2083247997481976E-10</v>
       </c>
       <c r="AH25" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V25,BID)-W25)</f>
-        <v>7.7533807337296021E-3</v>
+        <v>3.8411968050766632E-11</v>
       </c>
       <c r="AI25" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V25,ASK)-X25)</f>
-        <v>7.7533807337296021E-3</v>
+        <v>3.8411968050766632E-11</v>
       </c>
       <c r="AJ25" s="33"/>
     </row>
@@ -5063,10 +5059,10 @@
         <v>SEK3M2Y=</v>
       </c>
       <c r="K26" s="11">
-        <v>-6.2499999995672698E-2</v>
+        <v>-0.13249999999888071</v>
       </c>
       <c r="L26" s="11">
-        <v>-6.2499999995672698E-2</v>
+        <v>-0.13249999999888071</v>
       </c>
       <c r="M26" s="10" t="str">
         <f t="shared" si="15"/>
@@ -5074,11 +5070,11 @@
       </c>
       <c r="N26" s="11">
         <f>'ON Pricing'!H26*100</f>
-        <v>-0.10374999999999887</v>
+        <v>-0.2474999999999962</v>
       </c>
       <c r="O26" s="11">
         <f t="shared" si="12"/>
-        <v>-0.10374999999999887</v>
+        <v>-0.2474999999999962</v>
       </c>
       <c r="P26" s="89" t="str">
         <f t="shared" si="16"/>
@@ -5086,11 +5082,11 @@
       </c>
       <c r="Q26" s="90">
         <f>'1M Pricing'!H26*100</f>
-        <v>-0.15627027289320405</v>
+        <v>-0.22621880165685135</v>
       </c>
       <c r="R26" s="90">
         <f>Q26</f>
-        <v>-0.15627027289320405</v>
+        <v>-0.22621880165685135</v>
       </c>
       <c r="S26" s="10" t="str">
         <f t="shared" si="18"/>
@@ -5098,11 +5094,11 @@
       </c>
       <c r="T26" s="11">
         <f>'3M Pricing'!H26*100</f>
-        <v>-6.2499999995672698E-2</v>
+        <v>-0.13249999999888071</v>
       </c>
       <c r="U26" s="11">
         <f t="shared" ref="U26:U39" si="20">T26</f>
-        <v>-6.2499999995672698E-2</v>
+        <v>-0.13249999999888071</v>
       </c>
       <c r="V26" s="10" t="str">
         <f t="shared" si="19"/>
@@ -5110,52 +5106,52 @@
       </c>
       <c r="W26" s="11">
         <f>'6M Pricing'!H26*100</f>
-        <v>2.3970658132554442E-2</v>
+        <v>-3.967520260186265E-2</v>
       </c>
       <c r="X26" s="11">
         <f t="shared" ref="X26:X39" si="21">W26</f>
-        <v>2.3970658132554442E-2</v>
+        <v>-3.967520260186265E-2</v>
       </c>
       <c r="Y26" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z26" s="11">
-        <v>1.2499999995672695E-2</v>
+        <v>1.1192990978514672E-12</v>
       </c>
       <c r="AA26" s="11">
-        <v>1.2499999995672695E-2</v>
+        <v>1.1192990978514672E-12</v>
       </c>
       <c r="AB26" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M26,BID)-N26)</f>
-        <v>7.4999999999988687E-3</v>
+        <v>3.8302694349567901E-15</v>
       </c>
       <c r="AC26" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M26,ASK)-O26)</f>
-        <v>7.4999999999988687E-3</v>
+        <v>3.8302694349567901E-15</v>
       </c>
       <c r="AD26" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P26,BID)-Q26)</f>
-        <v>1.2494577893204045E-2</v>
+        <v>3.4314867614071431E-10</v>
       </c>
       <c r="AE26" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P26,ASK)-R26)</f>
-        <v>1.2494577893204045E-2</v>
+        <v>3.4314867614071431E-10</v>
       </c>
       <c r="AF26" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S26,BID)-T26)</f>
-        <v>1.2499999995672695E-2</v>
+        <v>1.1192990978514672E-12</v>
       </c>
       <c r="AG26" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S26,ASK)-U26)</f>
-        <v>1.2499999995672695E-2</v>
+        <v>1.1192990978514672E-12</v>
       </c>
       <c r="AH26" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V26,BID)-W26)</f>
-        <v>1.575231486744556E-2</v>
+        <v>3.9813734947768964E-10</v>
       </c>
       <c r="AI26" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V26,ASK)-X26)</f>
-        <v>1.575231486744556E-2</v>
+        <v>3.9813734947768964E-10</v>
       </c>
       <c r="AJ26" s="33" t="s">
         <v>56</v>
@@ -5189,10 +5185,10 @@
         <v>SEK3M3Y=</v>
       </c>
       <c r="K27" s="11">
-        <v>6.7499999989308779E-2</v>
+        <v>7.2500000001042744E-2</v>
       </c>
       <c r="L27" s="11">
-        <v>6.7499999989308779E-2</v>
+        <v>7.2500000001042744E-2</v>
       </c>
       <c r="M27" s="10" t="str">
         <f t="shared" si="15"/>
@@ -5200,11 +5196,11 @@
       </c>
       <c r="N27" s="11">
         <f>'ON Pricing'!H27*100</f>
-        <v>-4.4999999999999436E-2</v>
+        <v>-6.0000000000002371E-2</v>
       </c>
       <c r="O27" s="11">
         <f t="shared" si="12"/>
-        <v>-4.4999999999999436E-2</v>
+        <v>-6.0000000000002371E-2</v>
       </c>
       <c r="P27" s="89" t="str">
         <f t="shared" si="16"/>
@@ -5212,11 +5208,11 @@
       </c>
       <c r="Q27" s="90">
         <f>'1M Pricing'!H27*100</f>
-        <v>-3.2037612674177235E-2</v>
+        <v>-2.6947655926456319E-2</v>
       </c>
       <c r="R27" s="90">
         <f t="shared" ref="R27:R39" si="22">Q27</f>
-        <v>-3.2037612674177235E-2</v>
+        <v>-2.6947655926456319E-2</v>
       </c>
       <c r="S27" s="10" t="str">
         <f t="shared" si="18"/>
@@ -5224,11 +5220,11 @@
       </c>
       <c r="T27" s="11">
         <f>'3M Pricing'!H27*100</f>
-        <v>6.7499999989308779E-2</v>
+        <v>7.2500000001042744E-2</v>
       </c>
       <c r="U27" s="11">
         <f t="shared" si="20"/>
-        <v>6.7499999989308779E-2</v>
+        <v>7.2500000001042744E-2</v>
       </c>
       <c r="V27" s="10" t="str">
         <f t="shared" si="19"/>
@@ -5236,52 +5232,52 @@
       </c>
       <c r="W27" s="11">
         <f>'6M Pricing'!H27*100</f>
-        <v>0.15882204778771206</v>
+        <v>0.16799386825871751</v>
       </c>
       <c r="X27" s="11">
         <f t="shared" si="21"/>
-        <v>0.15882204778771206</v>
+        <v>0.16799386825871751</v>
       </c>
       <c r="Y27" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z27" s="11">
-        <v>1.2500000010691223E-2</v>
+        <v>1.0427353425157548E-12</v>
       </c>
       <c r="AA27" s="11">
-        <v>1.2500000010691223E-2</v>
+        <v>1.0427353425157548E-12</v>
       </c>
       <c r="AB27" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M27,BID)-N27)</f>
-        <v>7.4999999999994377E-3</v>
+        <v>2.3731017151362721E-15</v>
       </c>
       <c r="AC27" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M27,ASK)-O27)</f>
-        <v>7.4999999999994377E-3</v>
+        <v>2.3731017151362721E-15</v>
       </c>
       <c r="AD27" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P27,BID)-Q27)</f>
-        <v>1.2495368674177235E-2</v>
+        <v>7.3543681561316632E-11</v>
       </c>
       <c r="AE27" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P27,ASK)-R27)</f>
-        <v>1.2495368674177235E-2</v>
+        <v>7.3543681561316632E-11</v>
       </c>
       <c r="AF27" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S27,BID)-T27)</f>
-        <v>1.2500000010691223E-2</v>
+        <v>1.0427353425157548E-12</v>
       </c>
       <c r="AG27" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S27,ASK)-U27)</f>
-        <v>1.2500000010691223E-2</v>
+        <v>1.0427353425157548E-12</v>
       </c>
       <c r="AH27" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V27,BID)-W27)</f>
-        <v>1.4634603212287961E-2</v>
+        <v>2.5871749187444948E-10</v>
       </c>
       <c r="AI27" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V27,ASK)-X27)</f>
-        <v>1.4634603212287961E-2</v>
+        <v>2.5871749187444948E-10</v>
       </c>
       <c r="AJ27" s="33" t="s">
         <v>56</v>
@@ -5315,10 +5311,10 @@
         <v>SEK3M4Y=</v>
       </c>
       <c r="K28" s="11">
-        <v>0.21500000000126918</v>
+        <v>0.30000000000080751</v>
       </c>
       <c r="L28" s="11">
-        <v>0.21500000000126918</v>
+        <v>0.30000000000080751</v>
       </c>
       <c r="M28" s="10" t="str">
         <f t="shared" si="15"/>
@@ -5326,11 +5322,11 @@
       </c>
       <c r="N28" s="11">
         <f>'ON Pricing'!H28*100</f>
-        <v>2.3750000009517241E-2</v>
+        <v>0.14999999999999744</v>
       </c>
       <c r="O28" s="11">
         <f t="shared" si="12"/>
-        <v>2.3750000009517241E-2</v>
+        <v>0.14999999999999744</v>
       </c>
       <c r="P28" s="89" t="str">
         <f t="shared" si="16"/>
@@ -5338,11 +5334,11 @@
       </c>
       <c r="Q28" s="90">
         <f>'1M Pricing'!H28*100</f>
-        <v>0.11270977705203478</v>
+        <v>0.19783409626271334</v>
       </c>
       <c r="R28" s="90">
         <f t="shared" si="22"/>
-        <v>0.11270977705203478</v>
+        <v>0.19783409626271334</v>
       </c>
       <c r="S28" s="10" t="str">
         <f t="shared" si="18"/>
@@ -5350,11 +5346,11 @@
       </c>
       <c r="T28" s="11">
         <f>'3M Pricing'!H28*100</f>
-        <v>0.21500000000126918</v>
+        <v>0.30000000000080751</v>
       </c>
       <c r="U28" s="11">
         <f t="shared" si="20"/>
-        <v>0.21500000000126918</v>
+        <v>0.30000000000080751</v>
       </c>
       <c r="V28" s="10" t="str">
         <f t="shared" si="19"/>
@@ -5362,52 +5358,52 @@
       </c>
       <c r="W28" s="11">
         <f>'6M Pricing'!H28*100</f>
-        <v>0.30856076319858533</v>
+        <v>0.39666822915645045</v>
       </c>
       <c r="X28" s="11">
         <f t="shared" si="21"/>
-        <v>0.30856076319858533</v>
+        <v>0.39666822915645045</v>
       </c>
       <c r="Y28" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z28" s="11">
-        <v>1.4999999998730834E-2</v>
+        <v>8.0746520580987635E-13</v>
       </c>
       <c r="AA28" s="11">
-        <v>1.4999999998730834E-2</v>
+        <v>8.0746520580987635E-13</v>
       </c>
       <c r="AB28" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M28,BID)-N28)</f>
-        <v>6.2499999904827575E-3</v>
+        <v>2.55351295663786E-15</v>
       </c>
       <c r="AC28" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M28,ASK)-O28)</f>
-        <v>6.2499999904827575E-3</v>
+        <v>2.55351295663786E-15</v>
       </c>
       <c r="AD28" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P28,BID)-Q28)</f>
-        <v>1.4995898947965242E-2</v>
+        <v>2.627133233179535E-10</v>
       </c>
       <c r="AE28" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P28,ASK)-R28)</f>
-        <v>1.4995898947965242E-2</v>
+        <v>2.627133233179535E-10</v>
       </c>
       <c r="AF28" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S28,BID)-T28)</f>
-        <v>1.4999999998730834E-2</v>
+        <v>8.0746520580987635E-13</v>
       </c>
       <c r="AG28" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S28,ASK)-U28)</f>
-        <v>1.4999999998730834E-2</v>
+        <v>8.0746520580987635E-13</v>
       </c>
       <c r="AH28" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V28,BID)-W28)</f>
-        <v>1.6626917801414676E-2</v>
+        <v>1.5645040818412781E-10</v>
       </c>
       <c r="AI28" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V28,ASK)-X28)</f>
-        <v>1.6626917801414676E-2</v>
+        <v>1.5645040818412781E-10</v>
       </c>
       <c r="AJ28" s="33" t="s">
         <v>56</v>
@@ -5441,10 +5437,10 @@
         <v>SEK3M5Y=</v>
       </c>
       <c r="K29" s="11">
-        <v>0.36500000000124277</v>
+        <v>0.53000000000080683</v>
       </c>
       <c r="L29" s="11">
-        <v>0.36500000000124277</v>
+        <v>0.53000000000080683</v>
       </c>
       <c r="M29" s="10" t="str">
         <f t="shared" si="15"/>
@@ -5452,11 +5448,11 @@
       </c>
       <c r="N29" s="11">
         <f>'ON Pricing'!H29*100</f>
-        <v>9.5000000000941387E-2</v>
+        <v>0.37750000000000256</v>
       </c>
       <c r="O29" s="11">
         <f t="shared" si="12"/>
-        <v>9.5000000000941387E-2</v>
+        <v>0.37750000000000256</v>
       </c>
       <c r="P29" s="89" t="str">
         <f t="shared" si="16"/>
@@ -5464,11 +5460,11 @@
       </c>
       <c r="Q29" s="90">
         <f>'1M Pricing'!H29*100</f>
-        <v>0.262125719465582</v>
+        <v>0.42727491820882685</v>
       </c>
       <c r="R29" s="90">
         <f t="shared" si="22"/>
-        <v>0.262125719465582</v>
+        <v>0.42727491820882685</v>
       </c>
       <c r="S29" s="10" t="str">
         <f t="shared" si="18"/>
@@ -5476,11 +5472,11 @@
       </c>
       <c r="T29" s="11">
         <f>'3M Pricing'!H29*100</f>
-        <v>0.36500000000124277</v>
+        <v>0.53000000000080683</v>
       </c>
       <c r="U29" s="11">
         <f t="shared" si="20"/>
-        <v>0.36500000000124277</v>
+        <v>0.53000000000080683</v>
       </c>
       <c r="V29" s="10" t="str">
         <f t="shared" si="19"/>
@@ -5488,52 +5484,52 @@
       </c>
       <c r="W29" s="11">
         <f>'6M Pricing'!H29*100</f>
-        <v>0.45994495849480627</v>
+        <v>0.62730216322019883</v>
       </c>
       <c r="X29" s="11">
         <f t="shared" si="21"/>
-        <v>0.45994495849480627</v>
+        <v>0.62730216322019883</v>
       </c>
       <c r="Y29" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z29" s="11">
-        <v>1.7499999998757232E-2</v>
+        <v>8.0679907199510126E-13</v>
       </c>
       <c r="AA29" s="11">
-        <v>1.7499999998757232E-2</v>
+        <v>8.0679907199510126E-13</v>
       </c>
       <c r="AB29" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M29,BID)-N29)</f>
-        <v>9.9999999990586091E-3</v>
+        <v>2.55351295663786E-15</v>
       </c>
       <c r="AC29" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M29,ASK)-O29)</f>
-        <v>9.9999999990586091E-3</v>
+        <v>2.55351295663786E-15</v>
       </c>
       <c r="AD29" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P29,BID)-Q29)</f>
-        <v>1.7493939534418024E-2</v>
+        <v>2.0882684470535651E-10</v>
       </c>
       <c r="AE29" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P29,ASK)-R29)</f>
-        <v>1.7493939534418024E-2</v>
+        <v>2.0882684470535651E-10</v>
       </c>
       <c r="AF29" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S29,BID)-T29)</f>
-        <v>1.7499999998757232E-2</v>
+        <v>8.0679907199510126E-13</v>
       </c>
       <c r="AG29" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S29,ASK)-U29)</f>
-        <v>1.7499999998757232E-2</v>
+        <v>8.0679907199510126E-13</v>
       </c>
       <c r="AH29" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V29,BID)-W29)</f>
-        <v>1.8824920505193743E-2</v>
+        <v>2.2019874812428952E-10</v>
       </c>
       <c r="AI29" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V29,ASK)-X29)</f>
-        <v>1.8824920505193743E-2</v>
+        <v>2.2019874812428952E-10</v>
       </c>
       <c r="AJ29" s="33" t="s">
         <v>56</v>
@@ -5567,10 +5563,10 @@
         <v>SEK3M6Y=</v>
       </c>
       <c r="K30" s="11">
-        <v>0.50500000000097667</v>
+        <v>0.74000000000073984</v>
       </c>
       <c r="L30" s="11">
-        <v>0.50500000000097667</v>
+        <v>0.74000000000073984</v>
       </c>
       <c r="M30" s="10" t="str">
         <f t="shared" si="15"/>
@@ -5578,11 +5574,11 @@
       </c>
       <c r="N30" s="11">
         <f>'ON Pricing'!H30*100</f>
-        <v>0.16375000000039086</v>
+        <v>0.58750000000001024</v>
       </c>
       <c r="O30" s="11">
         <f t="shared" si="12"/>
-        <v>0.16375000000039086</v>
+        <v>0.58750000000001024</v>
       </c>
       <c r="P30" s="89" t="str">
         <f t="shared" si="16"/>
@@ -5590,11 +5586,11 @@
       </c>
       <c r="Q30" s="90">
         <f>'1M Pricing'!H30*100</f>
-        <v>0.40180681344880159</v>
+        <v>0.63709210631232671</v>
       </c>
       <c r="R30" s="90">
         <f t="shared" si="22"/>
-        <v>0.40180681344880159</v>
+        <v>0.63709210631232671</v>
       </c>
       <c r="S30" s="10" t="str">
         <f t="shared" si="18"/>
@@ -5602,11 +5598,11 @@
       </c>
       <c r="T30" s="11">
         <f>'3M Pricing'!H30*100</f>
-        <v>0.50500000000097667</v>
+        <v>0.74000000000073984</v>
       </c>
       <c r="U30" s="11">
         <f t="shared" si="20"/>
-        <v>0.50500000000097667</v>
+        <v>0.74000000000073984</v>
       </c>
       <c r="V30" s="10" t="str">
         <f t="shared" si="19"/>
@@ -5614,52 +5610,52 @@
       </c>
       <c r="W30" s="11">
         <f>'6M Pricing'!H30*100</f>
-        <v>0.60066344015783124</v>
+        <v>0.8375652136622187</v>
       </c>
       <c r="X30" s="11">
         <f t="shared" si="21"/>
-        <v>0.60066344015783124</v>
+        <v>0.8375652136622187</v>
       </c>
       <c r="Y30" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z30" s="11">
-        <v>2.4999999999023359E-2</v>
+        <v>7.3985262361020432E-13</v>
       </c>
       <c r="AA30" s="11">
-        <v>2.4999999999023359E-2</v>
+        <v>7.3985262361020432E-13</v>
       </c>
       <c r="AB30" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M30,BID)-N30)</f>
-        <v>1.3749999999609158E-2</v>
+        <v>1.021405182655144E-14</v>
       </c>
       <c r="AC30" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M30,ASK)-O30)</f>
-        <v>1.3749999999609158E-2</v>
+        <v>1.021405182655144E-14</v>
       </c>
       <c r="AD30" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P30,BID)-Q30)</f>
-        <v>2.509402555119844E-2</v>
+        <v>3.1232672004222195E-10</v>
       </c>
       <c r="AE30" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P30,ASK)-R30)</f>
-        <v>2.509402555119844E-2</v>
+        <v>3.1232672004222195E-10</v>
       </c>
       <c r="AF30" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S30,BID)-T30)</f>
-        <v>2.4999999999023359E-2</v>
+        <v>7.3985262361020432E-13</v>
       </c>
       <c r="AG30" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S30,ASK)-U30)</f>
-        <v>2.4999999999023359E-2</v>
+        <v>7.3985262361020432E-13</v>
       </c>
       <c r="AH30" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V30,BID)-W30)</f>
-        <v>2.6021468842168827E-2</v>
+        <v>3.3778135843931523E-10</v>
       </c>
       <c r="AI30" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V30,ASK)-X30)</f>
-        <v>2.6021468842168827E-2</v>
+        <v>3.3778135843931523E-10</v>
       </c>
       <c r="AJ30" s="33" t="s">
         <v>56</v>
@@ -5693,10 +5689,10 @@
         <v>SEK3M7Y=</v>
       </c>
       <c r="K31" s="11">
-        <v>0.62750000000087758</v>
+        <v>0.92750000000069011</v>
       </c>
       <c r="L31" s="11">
-        <v>0.62750000000087758</v>
+        <v>0.92750000000069011</v>
       </c>
       <c r="M31" s="10" t="str">
         <f t="shared" si="15"/>
@@ -5704,11 +5700,11 @@
       </c>
       <c r="N31" s="11">
         <f>'ON Pricing'!H31*100</f>
-        <v>0.22500000000067044</v>
+        <v>0.77750000000000175</v>
       </c>
       <c r="O31" s="11">
         <f t="shared" si="12"/>
-        <v>0.22500000000067044</v>
+        <v>0.77750000000000175</v>
       </c>
       <c r="P31" s="89" t="str">
         <f t="shared" si="16"/>
@@ -5716,11 +5712,11 @@
       </c>
       <c r="Q31" s="90">
         <f>'1M Pricing'!H31*100</f>
-        <v>0.52429125738546822</v>
+        <v>0.82461828413513372</v>
       </c>
       <c r="R31" s="90">
         <f t="shared" si="22"/>
-        <v>0.52429125738546822</v>
+        <v>0.82461828413513372</v>
       </c>
       <c r="S31" s="10" t="str">
         <f t="shared" si="18"/>
@@ -5728,11 +5724,11 @@
       </c>
       <c r="T31" s="11">
         <f>'3M Pricing'!H31*100</f>
-        <v>0.62750000000087758</v>
+        <v>0.92750000000069011</v>
       </c>
       <c r="U31" s="11">
         <f t="shared" si="20"/>
-        <v>0.62750000000087758</v>
+        <v>0.92750000000069011</v>
       </c>
       <c r="V31" s="10" t="str">
         <f t="shared" si="19"/>
@@ -5740,52 +5736,52 @@
       </c>
       <c r="W31" s="11">
         <f>'6M Pricing'!H31*100</f>
-        <v>0.72357920977970636</v>
+        <v>1.0251214935585427</v>
       </c>
       <c r="X31" s="11">
         <f t="shared" si="21"/>
-        <v>0.72357920977970636</v>
+        <v>1.0251214935585427</v>
       </c>
       <c r="Y31" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z31" s="11">
-        <v>2.4999999999122502E-2</v>
+        <v>6.9011463210699731E-13</v>
       </c>
       <c r="AA31" s="11">
-        <v>2.4999999999122502E-2</v>
+        <v>6.9011463210699731E-13</v>
       </c>
       <c r="AB31" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M31,BID)-N31)</f>
-        <v>1.3749999999329576E-2</v>
+        <v>1.6653345369377348E-15</v>
       </c>
       <c r="AC31" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M31,ASK)-O31)</f>
-        <v>1.3749999999329576E-2</v>
+        <v>1.6653345369377348E-15</v>
       </c>
       <c r="AD31" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P31,BID)-Q31)</f>
-        <v>2.4992864614531762E-2</v>
+        <v>1.3513368202211495E-10</v>
       </c>
       <c r="AE31" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P31,ASK)-R31)</f>
-        <v>2.4992864614531762E-2</v>
+        <v>1.3513368202211495E-10</v>
       </c>
       <c r="AF31" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S31,BID)-T31)</f>
-        <v>2.4999999999122502E-2</v>
+        <v>6.9011463210699731E-13</v>
       </c>
       <c r="AG31" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S31,ASK)-U31)</f>
-        <v>2.4999999999122502E-2</v>
+        <v>6.9011463210699731E-13</v>
       </c>
       <c r="AH31" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V31,BID)-W31)</f>
-        <v>2.5919651220293716E-2</v>
+        <v>4.4145731514788622E-10</v>
       </c>
       <c r="AI31" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V31,ASK)-X31)</f>
-        <v>2.5919651220293716E-2</v>
+        <v>4.4145731514788622E-10</v>
       </c>
       <c r="AJ31" s="33" t="s">
         <v>56</v>
@@ -5819,10 +5815,10 @@
         <v>SEK3M8Y=</v>
       </c>
       <c r="K32" s="11">
-        <v>0.7325000000007581</v>
+        <v>1.085000000000637</v>
       </c>
       <c r="L32" s="11">
-        <v>0.7325000000007581</v>
+        <v>1.085000000000637</v>
       </c>
       <c r="M32" s="10" t="str">
         <f t="shared" si="15"/>
@@ -5830,11 +5826,11 @@
       </c>
       <c r="N32" s="11">
         <f>'ON Pricing'!H32*100</f>
-        <v>0.27875000000133238</v>
+        <v>0.93500000000000782</v>
       </c>
       <c r="O32" s="11">
         <f t="shared" si="12"/>
-        <v>0.27875000000133238</v>
+        <v>0.93500000000000782</v>
       </c>
       <c r="P32" s="89" t="str">
         <f t="shared" si="16"/>
@@ -5842,11 +5838,11 @@
       </c>
       <c r="Q32" s="90">
         <f>'1M Pricing'!H32*100</f>
-        <v>0.62917539919121301</v>
+        <v>0.98215793742416646</v>
       </c>
       <c r="R32" s="90">
         <f t="shared" si="22"/>
-        <v>0.62917539919121301</v>
+        <v>0.98215793742416646</v>
       </c>
       <c r="S32" s="10" t="str">
         <f t="shared" si="18"/>
@@ -5854,11 +5850,11 @@
       </c>
       <c r="T32" s="11">
         <f>'3M Pricing'!H32*100</f>
-        <v>0.7325000000007581</v>
+        <v>1.085000000000637</v>
       </c>
       <c r="U32" s="11">
         <f t="shared" si="20"/>
-        <v>0.7325000000007581</v>
+        <v>1.085000000000637</v>
       </c>
       <c r="V32" s="10" t="str">
         <f t="shared" si="19"/>
@@ -5866,52 +5862,52 @@
       </c>
       <c r="W32" s="11">
         <f>'6M Pricing'!H32*100</f>
-        <v>0.8288928587255483</v>
+        <v>1.1825659256964303</v>
       </c>
       <c r="X32" s="11">
         <f t="shared" si="21"/>
-        <v>0.8288928587255483</v>
+        <v>1.1825659256964303</v>
       </c>
       <c r="Y32" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z32" s="11">
-        <v>2.4999999999241962E-2</v>
+        <v>6.3704597152991482E-13</v>
       </c>
       <c r="AA32" s="11">
-        <v>2.4999999999241962E-2</v>
+        <v>6.3704597152991482E-13</v>
       </c>
       <c r="AB32" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M32,BID)-N32)</f>
-        <v>1.2499999998667632E-2</v>
+        <v>7.7715611723760958E-15</v>
       </c>
       <c r="AC32" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M32,ASK)-O32)</f>
-        <v>1.2499999998667632E-2</v>
+        <v>7.7715611723760958E-15</v>
       </c>
       <c r="AD32" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P32,BID)-Q32)</f>
-        <v>2.5094973808787002E-2</v>
+        <v>4.2416636869546664E-10</v>
       </c>
       <c r="AE32" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P32,ASK)-R32)</f>
-        <v>2.5094973808787002E-2</v>
+        <v>4.2416636869546664E-10</v>
       </c>
       <c r="AF32" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S32,BID)-T32)</f>
-        <v>2.4999999999241962E-2</v>
+        <v>6.3704597152991482E-13</v>
       </c>
       <c r="AG32" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S32,ASK)-U32)</f>
-        <v>2.4999999999241962E-2</v>
+        <v>6.3704597152991482E-13</v>
       </c>
       <c r="AH32" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V32,BID)-W32)</f>
-        <v>2.5817788274451803E-2</v>
+        <v>3.0356983593549103E-10</v>
       </c>
       <c r="AI32" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V32,ASK)-X32)</f>
-        <v>2.5817788274451803E-2</v>
+        <v>3.0356983593549103E-10</v>
       </c>
       <c r="AJ32" s="33" t="s">
         <v>56</v>
@@ -5945,10 +5941,10 @@
         <v>SEK3M9Y=</v>
       </c>
       <c r="K33" s="11">
-        <v>0.82000000000067386</v>
+        <v>1.2100000000004492</v>
       </c>
       <c r="L33" s="11">
-        <v>0.82000000000067386</v>
+        <v>1.2100000000004492</v>
       </c>
       <c r="M33" s="10" t="str">
         <f t="shared" si="15"/>
@@ -5956,11 +5952,11 @@
       </c>
       <c r="N33" s="11">
         <f>'ON Pricing'!H33*100</f>
-        <v>0.32250000000310963</v>
+        <v>1.0624999999999991</v>
       </c>
       <c r="O33" s="11">
         <f t="shared" si="12"/>
-        <v>0.32250000000310963</v>
+        <v>1.0624999999999991</v>
       </c>
       <c r="P33" s="89" t="str">
         <f t="shared" si="16"/>
@@ -5968,11 +5964,11 @@
       </c>
       <c r="Q33" s="90">
         <f>'1M Pricing'!H33*100</f>
-        <v>0.71673290638369691</v>
+        <v>1.1071805229727358</v>
       </c>
       <c r="R33" s="90">
         <f t="shared" si="22"/>
-        <v>0.71673290638369691</v>
+        <v>1.1071805229727358</v>
       </c>
       <c r="S33" s="10" t="str">
         <f t="shared" si="18"/>
@@ -5980,11 +5976,11 @@
       </c>
       <c r="T33" s="11">
         <f>'3M Pricing'!H33*100</f>
-        <v>0.82000000000067386</v>
+        <v>1.2100000000004492</v>
       </c>
       <c r="U33" s="11">
         <f t="shared" si="20"/>
-        <v>0.82000000000067386</v>
+        <v>1.2100000000004492</v>
       </c>
       <c r="V33" s="10" t="str">
         <f t="shared" si="19"/>
@@ -5992,52 +5988,52 @@
       </c>
       <c r="W33" s="11">
         <f>'6M Pricing'!H33*100</f>
-        <v>0.91663376432828592</v>
+        <v>1.3075289451457863</v>
       </c>
       <c r="X33" s="11">
         <f t="shared" si="21"/>
-        <v>0.91663376432828592</v>
+        <v>1.3075289451457863</v>
       </c>
       <c r="Y33" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z33" s="11">
-        <v>2.7499999999326175E-2</v>
+        <v>4.4919623576333834E-13</v>
       </c>
       <c r="AA33" s="11">
-        <v>2.7499999999326175E-2</v>
+        <v>4.4919623576333834E-13</v>
       </c>
       <c r="AB33" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M33,BID)-N33)</f>
-        <v>1.3749999996890416E-2</v>
+        <v>8.8817841970012523E-16</v>
       </c>
       <c r="AC33" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M33,ASK)-O33)</f>
-        <v>1.3749999996890416E-2</v>
+        <v>8.8817841970012523E-16</v>
       </c>
       <c r="AD33" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P33,BID)-Q33)</f>
-        <v>2.7492880616303172E-2</v>
+        <v>2.7264190904929819E-11</v>
       </c>
       <c r="AE33" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P33,ASK)-R33)</f>
-        <v>2.7492880616303172E-2</v>
+        <v>2.7264190904929819E-11</v>
       </c>
       <c r="AF33" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S33,BID)-T33)</f>
-        <v>2.7499999999326175E-2</v>
+        <v>4.4919623576333834E-13</v>
       </c>
       <c r="AG33" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S33,ASK)-U33)</f>
-        <v>2.7499999999326175E-2</v>
+        <v>4.4919623576333834E-13</v>
       </c>
       <c r="AH33" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V33,BID)-W33)</f>
-        <v>2.8216865671714109E-2</v>
+        <v>1.4578627194339333E-10</v>
       </c>
       <c r="AI33" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V33,ASK)-X33)</f>
-        <v>2.8216865671714109E-2</v>
+        <v>1.4578627194339333E-10</v>
       </c>
       <c r="AJ33" s="33" t="s">
         <v>56</v>
@@ -6071,10 +6067,10 @@
         <v>SEK3M10Y=</v>
       </c>
       <c r="K34" s="11">
-        <v>0.89500000000058522</v>
+        <v>1.3075000000003392</v>
       </c>
       <c r="L34" s="11">
-        <v>0.89500000000058522</v>
+        <v>1.3075000000003392</v>
       </c>
       <c r="M34" s="10" t="str">
         <f t="shared" si="15"/>
@@ -6082,11 +6078,11 @@
       </c>
       <c r="N34" s="11">
         <f>'ON Pricing'!H34*100</f>
-        <v>0.36000000000353177</v>
+        <v>1.1600000000000059</v>
       </c>
       <c r="O34" s="11">
         <f t="shared" si="12"/>
-        <v>0.36000000000353177</v>
+        <v>1.1600000000000059</v>
       </c>
       <c r="P34" s="89" t="str">
         <f t="shared" si="16"/>
@@ -6094,11 +6090,11 @@
       </c>
       <c r="Q34" s="90">
         <f>'1M Pricing'!H34*100</f>
-        <v>0.79172464384677022</v>
+        <v>1.2047469769411656</v>
       </c>
       <c r="R34" s="90">
         <f t="shared" si="22"/>
-        <v>0.79172464384677022</v>
+        <v>1.2047469769411656</v>
       </c>
       <c r="S34" s="10" t="str">
         <f t="shared" si="18"/>
@@ -6106,11 +6102,11 @@
       </c>
       <c r="T34" s="11">
         <f>'3M Pricing'!H34*100</f>
-        <v>0.89500000000058522</v>
+        <v>1.3075000000003392</v>
       </c>
       <c r="U34" s="11">
         <f t="shared" si="20"/>
-        <v>0.89500000000058522</v>
+        <v>1.3075000000003392</v>
       </c>
       <c r="V34" s="10" t="str">
         <f t="shared" si="19"/>
@@ -6118,52 +6114,52 @@
       </c>
       <c r="W34" s="11">
         <f>'6M Pricing'!H34*100</f>
-        <v>0.99123199980293353</v>
+        <v>1.4045452994811174</v>
       </c>
       <c r="X34" s="11">
         <f t="shared" si="21"/>
-        <v>0.99123199980293353</v>
+        <v>1.4045452994811174</v>
       </c>
       <c r="Y34" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z34" s="11">
-        <v>2.4999999999414824E-2</v>
+        <v>3.3906211172052281E-13</v>
       </c>
       <c r="AA34" s="11">
-        <v>2.4999999999414824E-2</v>
+        <v>3.3906211172052281E-13</v>
       </c>
       <c r="AB34" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M34,BID)-N34)</f>
-        <v>1.2499999996468225E-2</v>
+        <v>5.9952043329758453E-15</v>
       </c>
       <c r="AC34" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M34,ASK)-O34)</f>
-        <v>1.2499999996468225E-2</v>
+        <v>5.9952043329758453E-15</v>
       </c>
       <c r="AD34" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P34,BID)-Q34)</f>
-        <v>2.4993665153229871E-2</v>
+        <v>5.8834492833170771E-11</v>
       </c>
       <c r="AE34" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P34,ASK)-R34)</f>
-        <v>2.4993665153229871E-2</v>
+        <v>5.8834492833170771E-11</v>
       </c>
       <c r="AF34" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S34,BID)-T34)</f>
-        <v>2.4999999999414824E-2</v>
+        <v>3.3906211172052281E-13</v>
       </c>
       <c r="AG34" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S34,ASK)-U34)</f>
-        <v>2.4999999999414824E-2</v>
+        <v>3.3906211172052281E-13</v>
       </c>
       <c r="AH34" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V34,BID)-W34)</f>
-        <v>2.571625019706647E-2</v>
+        <v>4.8111736816736084E-10</v>
       </c>
       <c r="AI34" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V34,ASK)-X34)</f>
-        <v>2.571625019706647E-2</v>
+        <v>4.8111736816736084E-10</v>
       </c>
       <c r="AJ34" s="33" t="s">
         <v>56</v>
@@ -6197,10 +6193,10 @@
         <v>SEK3M12Y=</v>
       </c>
       <c r="K35" s="11">
-        <v>1.0175000000005168</v>
+        <v>1.4575000000004326</v>
       </c>
       <c r="L35" s="11">
-        <v>1.0175000000005168</v>
+        <v>1.4575000000004326</v>
       </c>
       <c r="M35" s="10" t="str">
         <f t="shared" si="15"/>
@@ -6208,11 +6204,11 @@
       </c>
       <c r="N35" s="11">
         <f>'ON Pricing'!H35*100</f>
-        <v>0.42250000000587323</v>
+        <v>1.314999999997791</v>
       </c>
       <c r="O35" s="11">
         <f t="shared" si="12"/>
-        <v>0.42250000000587323</v>
+        <v>1.314999999997791</v>
       </c>
       <c r="P35" s="89" t="str">
         <f t="shared" si="16"/>
@@ -6220,11 +6216,11 @@
       </c>
       <c r="Q35" s="90">
         <f>'1M Pricing'!H35*100</f>
-        <v>0.91431103235379041</v>
+        <v>1.354791254868305</v>
       </c>
       <c r="R35" s="90">
         <f t="shared" si="22"/>
-        <v>0.91431103235379041</v>
+        <v>1.354791254868305</v>
       </c>
       <c r="S35" s="10" t="str">
         <f t="shared" si="18"/>
@@ -6232,11 +6228,11 @@
       </c>
       <c r="T35" s="11">
         <f>'3M Pricing'!H35*100</f>
-        <v>1.0175000000005168</v>
+        <v>1.4575000000004326</v>
       </c>
       <c r="U35" s="11">
         <f t="shared" si="20"/>
-        <v>1.0175000000005168</v>
+        <v>1.4575000000004326</v>
       </c>
       <c r="V35" s="10" t="str">
         <f t="shared" si="19"/>
@@ -6244,52 +6240,52 @@
       </c>
       <c r="W35" s="11">
         <f>'6M Pricing'!H35*100</f>
-        <v>1.1114037811975774</v>
+        <v>1.5521399354079595</v>
       </c>
       <c r="X35" s="11">
         <f t="shared" si="21"/>
-        <v>1.1114037811975774</v>
+        <v>1.5521399354079595</v>
       </c>
       <c r="Y35" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z35" s="11">
-        <v>2.749999999948316E-2</v>
+        <v>4.3254289039396099E-13</v>
       </c>
       <c r="AA35" s="11">
-        <v>2.749999999948316E-2</v>
+        <v>4.3254289039396099E-13</v>
       </c>
       <c r="AB35" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M35,BID)-N35)</f>
-        <v>1.2499999994126765E-2</v>
+        <v>2.2088997297942115E-12</v>
       </c>
       <c r="AC35" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M35,ASK)-O35)</f>
-        <v>1.2499999994126765E-2</v>
+        <v>2.2088997297942115E-12</v>
       </c>
       <c r="AD35" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P35,BID)-Q35)</f>
-        <v>2.74935556462097E-2</v>
+        <v>1.3169509927024592E-10</v>
       </c>
       <c r="AE35" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P35,ASK)-R35)</f>
-        <v>2.74935556462097E-2</v>
+        <v>1.3169509927024592E-10</v>
       </c>
       <c r="AF35" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S35,BID)-T35)</f>
-        <v>2.749999999948316E-2</v>
+        <v>4.3254289039396099E-13</v>
       </c>
       <c r="AG35" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S35,ASK)-U35)</f>
-        <v>2.749999999948316E-2</v>
+        <v>4.3254289039396099E-13</v>
       </c>
       <c r="AH35" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V35,BID)-W35)</f>
-        <v>2.8114665802422723E-2</v>
+        <v>4.0795944400429107E-10</v>
       </c>
       <c r="AI35" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V35,ASK)-X35)</f>
-        <v>2.8114665802422723E-2</v>
+        <v>4.0795944400429107E-10</v>
       </c>
       <c r="AJ35" s="33" t="s">
         <v>56</v>
@@ -6323,10 +6319,10 @@
         <v>SEK3M15Y=</v>
       </c>
       <c r="K36" s="11">
-        <v>1.1549999999989691</v>
+        <v>1.6225000000010279</v>
       </c>
       <c r="L36" s="11">
-        <v>1.1549999999989691</v>
+        <v>1.6225000000010279</v>
       </c>
       <c r="M36" s="10" t="str">
         <f t="shared" si="15"/>
@@ -6334,11 +6330,11 @@
       </c>
       <c r="N36" s="11">
         <f>'ON Pricing'!H36*100</f>
-        <v>0.49250000000551464</v>
+        <v>1.4824999999933102</v>
       </c>
       <c r="O36" s="11">
         <f t="shared" si="12"/>
-        <v>0.49250000000551464</v>
+        <v>1.4824999999933102</v>
       </c>
       <c r="P36" s="89" t="str">
         <f t="shared" si="16"/>
@@ -6346,11 +6342,11 @@
       </c>
       <c r="Q36" s="90">
         <f>'1M Pricing'!H36*100</f>
-        <v>1.0539096029397896</v>
+        <v>1.5218564229779268</v>
       </c>
       <c r="R36" s="90">
         <f t="shared" si="22"/>
-        <v>1.0539096029397896</v>
+        <v>1.5218564229779268</v>
       </c>
       <c r="S36" s="10" t="str">
         <f t="shared" si="18"/>
@@ -6358,11 +6354,11 @@
       </c>
       <c r="T36" s="11">
         <f>'3M Pricing'!H36*100</f>
-        <v>1.1549999999989691</v>
+        <v>1.6225000000010279</v>
       </c>
       <c r="U36" s="11">
         <f t="shared" si="20"/>
-        <v>1.1549999999989691</v>
+        <v>1.6225000000010279</v>
       </c>
       <c r="V36" s="10" t="str">
         <f t="shared" si="19"/>
@@ -6370,52 +6366,52 @@
       </c>
       <c r="W36" s="11">
         <f>'6M Pricing'!H36*100</f>
-        <v>1.2422226574754835</v>
+        <v>1.7104657664153329</v>
       </c>
       <c r="X36" s="11">
         <f t="shared" si="21"/>
-        <v>1.2422226574754835</v>
+        <v>1.7104657664153329</v>
       </c>
       <c r="Y36" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z36" s="11">
-        <v>3.000000000103098E-2</v>
+        <v>1.0278444761979699E-12</v>
       </c>
       <c r="AA36" s="11">
-        <v>3.000000000103098E-2</v>
+        <v>1.0278444761979699E-12</v>
       </c>
       <c r="AB36" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M36,BID)-N36)</f>
-        <v>1.4999999994485425E-2</v>
+        <v>6.6899819017862683E-12</v>
       </c>
       <c r="AC36" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M36,ASK)-O36)</f>
-        <v>1.4999999994485425E-2</v>
+        <v>6.6899819017862683E-12</v>
       </c>
       <c r="AD36" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P36,BID)-Q36)</f>
-        <v>2.9992596060210541E-2</v>
+        <v>2.2073232130992437E-11</v>
       </c>
       <c r="AE36" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P36,ASK)-R36)</f>
-        <v>2.9992596060210541E-2</v>
+        <v>2.2073232130992437E-11</v>
       </c>
       <c r="AF36" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S36,BID)-T36)</f>
-        <v>3.000000000103098E-2</v>
+        <v>1.0278444761979699E-12</v>
       </c>
       <c r="AG36" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S36,ASK)-U36)</f>
-        <v>3.000000000103098E-2</v>
+        <v>1.0278444761979699E-12</v>
       </c>
       <c r="AH36" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V36,BID)-W36)</f>
-        <v>3.0513603524516597E-2</v>
+        <v>4.1533287920003659E-10</v>
       </c>
       <c r="AI36" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V36,ASK)-X36)</f>
-        <v>3.0513603524516597E-2</v>
+        <v>4.1533287920003659E-10</v>
       </c>
       <c r="AJ36" s="33" t="s">
         <v>56</v>
@@ -6449,10 +6445,10 @@
         <v>SEK3M20Y=</v>
       </c>
       <c r="K37" s="11">
-        <v>1.3100000000004361</v>
+        <v>1.7950000000014996</v>
       </c>
       <c r="L37" s="11">
-        <v>1.3100000000004361</v>
+        <v>1.7950000000014996</v>
       </c>
       <c r="M37" s="10" t="str">
         <f t="shared" si="15"/>
@@ -6460,11 +6456,11 @@
       </c>
       <c r="N37" s="11">
         <f>'ON Pricing'!H37*100</f>
-        <v>0.57749999999802648</v>
+        <v>1.6699999999974988</v>
       </c>
       <c r="O37" s="11">
         <f t="shared" si="12"/>
-        <v>0.57749999999802648</v>
+        <v>1.6699999999974988</v>
       </c>
       <c r="P37" s="89" t="str">
         <f t="shared" si="16"/>
@@ -6472,11 +6468,11 @@
       </c>
       <c r="Q37" s="90">
         <f>'1M Pricing'!H37*100</f>
-        <v>1.2141657616593624</v>
+        <v>1.6993895273814885</v>
       </c>
       <c r="R37" s="90">
         <f t="shared" si="22"/>
-        <v>1.2141657616593624</v>
+        <v>1.6993895273814885</v>
       </c>
       <c r="S37" s="10" t="str">
         <f t="shared" si="18"/>
@@ -6484,11 +6480,11 @@
       </c>
       <c r="T37" s="11">
         <f>'3M Pricing'!H37*100</f>
-        <v>1.3100000000004361</v>
+        <v>1.7950000000014996</v>
       </c>
       <c r="U37" s="11">
         <f t="shared" si="20"/>
-        <v>1.3100000000004361</v>
+        <v>1.7950000000014996</v>
       </c>
       <c r="V37" s="10" t="str">
         <f t="shared" si="19"/>
@@ -6496,52 +6492,52 @@
       </c>
       <c r="W37" s="11">
         <f>'6M Pricing'!H37*100</f>
-        <v>1.3870773285585209</v>
+        <v>1.8730147884245838</v>
       </c>
       <c r="X37" s="11">
         <f t="shared" si="21"/>
-        <v>1.3870773285585209</v>
+        <v>1.8730147884245838</v>
       </c>
       <c r="Y37" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z37" s="11">
-        <v>3.4999999999563824E-2</v>
+        <v>1.4996892616636615E-12</v>
       </c>
       <c r="AA37" s="11">
-        <v>3.4999999999563824E-2</v>
+        <v>1.4996892616636615E-12</v>
       </c>
       <c r="AB37" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M37,BID)-N37)</f>
-        <v>1.6250000001973519E-2</v>
+        <v>2.5011104298755527E-12</v>
       </c>
       <c r="AC37" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M37,ASK)-O37)</f>
-        <v>1.6250000001973519E-2</v>
+        <v>2.5011104298755527E-12</v>
       </c>
       <c r="AD37" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P37,BID)-Q37)</f>
-        <v>3.5094256340637564E-2</v>
+        <v>3.8148839642815346E-10</v>
       </c>
       <c r="AE37" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P37,ASK)-R37)</f>
-        <v>3.5094256340637564E-2</v>
+        <v>3.8148839642815346E-10</v>
       </c>
       <c r="AF37" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S37,BID)-T37)</f>
-        <v>3.4999999999563824E-2</v>
+        <v>1.4996892616636615E-12</v>
       </c>
       <c r="AG37" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S37,ASK)-U37)</f>
-        <v>3.4999999999563824E-2</v>
+        <v>1.4996892616636615E-12</v>
       </c>
       <c r="AH37" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V37,BID)-W37)</f>
-        <v>3.5310039441479146E-2</v>
+        <v>4.2458370153042324E-10</v>
       </c>
       <c r="AI37" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V37,ASK)-X37)</f>
-        <v>3.5310039441479146E-2</v>
+        <v>4.2458370153042324E-10</v>
       </c>
       <c r="AJ37" s="33" t="s">
         <v>56</v>
@@ -6575,10 +6571,10 @@
         <v>SEK3M25Y=</v>
       </c>
       <c r="K38" s="11">
-        <v>1.385000000000296</v>
+        <v>1.8750000000000908</v>
       </c>
       <c r="L38" s="11">
-        <v>1.385000000000296</v>
+        <v>1.8750000000000908</v>
       </c>
       <c r="M38" s="10" t="str">
         <f t="shared" si="15"/>
@@ -6586,11 +6582,11 @@
       </c>
       <c r="N38" s="11">
         <f>'ON Pricing'!H38*100</f>
-        <v>0.62124999999970199</v>
+        <v>1.7600000000019853</v>
       </c>
       <c r="O38" s="11">
         <f t="shared" si="12"/>
-        <v>0.62124999999970199</v>
+        <v>1.7600000000019853</v>
       </c>
       <c r="P38" s="89" t="str">
         <f t="shared" si="16"/>
@@ -6598,11 +6594,11 @@
       </c>
       <c r="Q38" s="90">
         <f>'1M Pricing'!H38*100</f>
-        <v>1.2937192639630541</v>
+        <v>1.7836430499629579</v>
       </c>
       <c r="R38" s="90">
         <f t="shared" si="22"/>
-        <v>1.2937192639630541</v>
+        <v>1.7836430499629579</v>
       </c>
       <c r="S38" s="10" t="str">
         <f t="shared" si="18"/>
@@ -6610,11 +6606,11 @@
       </c>
       <c r="T38" s="11">
         <f>'3M Pricing'!H38*100</f>
-        <v>1.385000000000296</v>
+        <v>1.8750000000000908</v>
       </c>
       <c r="U38" s="11">
         <f t="shared" si="20"/>
-        <v>1.385000000000296</v>
+        <v>1.8750000000000908</v>
       </c>
       <c r="V38" s="10" t="str">
         <f t="shared" si="19"/>
@@ -6622,52 +6618,52 @@
       </c>
       <c r="W38" s="11">
         <f>'6M Pricing'!H38*100</f>
-        <v>1.4545688348535903</v>
+        <v>1.9457914859059164</v>
       </c>
       <c r="X38" s="11">
         <f t="shared" si="21"/>
-        <v>1.4545688348535903</v>
+        <v>1.9457914859059164</v>
       </c>
       <c r="Y38" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z38" s="11">
-        <v>3.4999999999703935E-2</v>
+        <v>9.0816243414337805E-14</v>
       </c>
       <c r="AA38" s="11">
-        <v>3.4999999999703935E-2</v>
+        <v>9.0816243414337805E-14</v>
       </c>
       <c r="AB38" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M38,BID)-N38)</f>
-        <v>1.7500000000298055E-2</v>
+        <v>1.9853008126347049E-12</v>
       </c>
       <c r="AC38" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M38,ASK)-O38)</f>
-        <v>1.7500000000298055E-2</v>
+        <v>1.9853008126347049E-12</v>
       </c>
       <c r="AD38" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P38,BID)-Q38)</f>
-        <v>3.4992421036945887E-2</v>
+        <v>3.7042147127408498E-11</v>
       </c>
       <c r="AE38" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P38,ASK)-R38)</f>
-        <v>3.4992421036945887E-2</v>
+        <v>3.7042147127408498E-11</v>
       </c>
       <c r="AF38" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S38,BID)-T38)</f>
-        <v>3.4999999999703935E-2</v>
+        <v>9.0816243414337805E-14</v>
       </c>
       <c r="AG38" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S38,ASK)-U38)</f>
-        <v>3.4999999999703935E-2</v>
+        <v>9.0816243414337805E-14</v>
       </c>
       <c r="AH38" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V38,BID)-W38)</f>
-        <v>3.5309899146409807E-2</v>
+        <v>9.4083629775809641E-11</v>
       </c>
       <c r="AI38" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V38,ASK)-X38)</f>
-        <v>3.5309899146409807E-2</v>
+        <v>9.4083629775809641E-11</v>
       </c>
       <c r="AJ38" s="33" t="s">
         <v>56</v>
@@ -6701,10 +6697,10 @@
         <v>SEK3M30Y=</v>
       </c>
       <c r="K39" s="13">
-        <v>1.4100000000002075</v>
+        <v>1.9049999999981244</v>
       </c>
       <c r="L39" s="13">
-        <v>1.4100000000002075</v>
+        <v>1.9049999999981244</v>
       </c>
       <c r="M39" s="12" t="str">
         <f t="shared" si="15"/>
@@ -6712,11 +6708,11 @@
       </c>
       <c r="N39" s="13">
         <f>'ON Pricing'!H39*100</f>
-        <v>0.63999999999958168</v>
+        <v>1.7999999999999434</v>
       </c>
       <c r="O39" s="13">
         <f t="shared" si="12"/>
-        <v>0.63999999999958168</v>
+        <v>1.7999999999999434</v>
       </c>
       <c r="P39" s="102" t="str">
         <f t="shared" si="16"/>
@@ -6724,11 +6720,11 @@
       </c>
       <c r="Q39" s="103">
         <f>'1M Pricing'!H39*100</f>
-        <v>1.3216662399604417</v>
+        <v>1.8163927572013145</v>
       </c>
       <c r="R39" s="103">
         <f t="shared" si="22"/>
-        <v>1.3216662399604417</v>
+        <v>1.8163927572013145</v>
       </c>
       <c r="S39" s="12" t="str">
         <f t="shared" si="18"/>
@@ -6736,11 +6732,11 @@
       </c>
       <c r="T39" s="13">
         <f>'3M Pricing'!H39*100</f>
-        <v>1.4100000000002075</v>
+        <v>1.9049999999981244</v>
       </c>
       <c r="U39" s="13">
         <f t="shared" si="20"/>
-        <v>1.4100000000002075</v>
+        <v>1.9049999999981244</v>
       </c>
       <c r="V39" s="12" t="str">
         <f t="shared" si="19"/>
@@ -6748,52 +6744,52 @@
       </c>
       <c r="W39" s="13">
         <f>'6M Pricing'!H39*100</f>
-        <v>1.4733665776958309</v>
+        <v>1.9698736787406146</v>
       </c>
       <c r="X39" s="13">
         <f t="shared" si="21"/>
-        <v>1.4733665776958309</v>
+        <v>1.9698736787406146</v>
       </c>
       <c r="Y39" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z39" s="13">
-        <v>3.499999999979253E-2</v>
+        <v>1.8756107778017395E-12</v>
       </c>
       <c r="AA39" s="13">
-        <v>3.499999999979253E-2</v>
+        <v>1.8756107778017395E-12</v>
       </c>
       <c r="AB39" s="13">
         <f>ABS(_xll.RtGet(SourceAlias,$M39,BID)-N39)</f>
-        <v>1.6250000000418319E-2</v>
+        <v>5.6621374255882984E-14</v>
       </c>
       <c r="AC39" s="13">
         <f>ABS(_xll.RtGet(SourceAlias,$M39,ASK)-O39)</f>
-        <v>1.6250000000418319E-2</v>
+        <v>5.6621374255882984E-14</v>
       </c>
       <c r="AD39" s="104">
         <f>ABS(_xll.RtGet(SourceAlias,$P39,BID)-Q39)</f>
-        <v>3.4993224039558291E-2</v>
+        <v>2.0131452060923039E-10</v>
       </c>
       <c r="AE39" s="104">
         <f>ABS(_xll.RtGet(SourceAlias,$P39,ASK)-R39)</f>
-        <v>3.4993224039558291E-2</v>
+        <v>2.0131452060923039E-10</v>
       </c>
       <c r="AF39" s="13">
         <f>ABS(_xll.RtGet(SourceAlias,$S39,BID)-T39)</f>
-        <v>3.499999999979253E-2</v>
+        <v>1.8756107778017395E-12</v>
       </c>
       <c r="AG39" s="13">
         <f>ABS(_xll.RtGet(SourceAlias,$S39,ASK)-U39)</f>
-        <v>3.499999999979253E-2</v>
+        <v>1.8756107778017395E-12</v>
       </c>
       <c r="AH39" s="13">
         <f>ABS(_xll.RtGet(SourceAlias,$V39,BID)-W39)</f>
-        <v>3.5309150304169146E-2</v>
+        <v>2.593856240906689E-10</v>
       </c>
       <c r="AI39" s="13">
         <f>ABS(_xll.RtGet(SourceAlias,$V39,ASK)-X39)</f>
-        <v>3.5309150304169146E-2</v>
+        <v>2.593856240906689E-10</v>
       </c>
       <c r="AJ39" s="33" t="s">
         <v>56</v>
@@ -6998,7 +6994,7 @@
       <c r="A6" s="62"/>
       <c r="B6" s="16">
         <f t="shared" ref="B6:B18" si="0">G6-EvaluationDate</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>15</v>
@@ -7008,19 +7004,19 @@
       </c>
       <c r="E6" s="37">
         <f t="shared" ref="E6:E7" si="1">EvaluationDate</f>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F6" s="37">
         <f>E6</f>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="G6" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,F6,"1D","f",TRUE,Trigger)</f>
-        <v>42087</v>
+        <v>42139</v>
       </c>
       <c r="H6" s="43">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
-        <v>-2.0716389393711679E-3</v>
+        <v>-2.9230609923130276E-3</v>
       </c>
       <c r="I6" s="44" t="str">
         <f>Contribution!M6</f>
@@ -7030,7 +7026,7 @@
       <c r="K6" s="33"/>
       <c r="L6" s="123" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,B8:B18,H8:H18,,Trigger)</f>
-        <v>obj_0035c#0000</v>
+        <v>obj_0035d#0145</v>
       </c>
       <c r="M6" s="33"/>
       <c r="N6" s="33"/>
@@ -7039,7 +7035,7 @@
       <c r="A7" s="62"/>
       <c r="B7" s="152">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" s="152" t="s">
         <v>73</v>
@@ -7049,19 +7045,19 @@
       </c>
       <c r="E7" s="154">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F7" s="154">
         <f>_xll.qlInterestRateIndexValueDate(OvernightIndex,E7,)</f>
-        <v>42087</v>
+        <v>42139</v>
       </c>
       <c r="G7" s="154">
         <f>_xll.qlInterestRateIndexMaturity(OvernightIndex,F7)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="H7" s="155">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
-        <v>-2.0719513692053866E-3</v>
+        <v>-2.9240740722704201E-3</v>
       </c>
       <c r="I7" s="156" t="str">
         <f>Contribution!M7</f>
@@ -7081,7 +7077,7 @@
       <c r="A8" s="62"/>
       <c r="B8" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>74</v>
@@ -7091,26 +7087,26 @@
       </c>
       <c r="E8" s="37">
         <f t="shared" ref="E8:E18" si="2">EvaluationDate</f>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F8" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,E8,"2D","f",FALSE)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G8" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,F8,IF(C8="SN","1D",IF(C8="SW","1W",C8)),"f",FALSE)</f>
-        <v>42089</v>
+        <v>42143</v>
       </c>
       <c r="H8" s="43">
         <f>_xll.qlOvernightIndexedSwapFairRate(L8,InterestRateTrigger)</f>
-        <v>-2.072241501993588E-3</v>
+        <v>-2.9243533452394388E-3</v>
       </c>
       <c r="I8" s="44"/>
       <c r="J8" s="45"/>
       <c r="K8" s="51"/>
       <c r="L8" s="123" t="str">
-        <f>_xll.qlMakeOIS(,IF(C8="SN","1D",IF(C8="SW","1W",C8)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00309#0000</v>
+        <f>_xll.qlMakeOIS(,2,IF(C8="SN","1D",IF(C8="SW","1W",C8)),OvernightIndex,,"0D",,,,Trigger)</f>
+        <v>obj_00309#0005</v>
       </c>
       <c r="M8" s="33"/>
       <c r="N8" s="33"/>
@@ -7148,7 +7144,7 @@
       <c r="A9" s="62"/>
       <c r="B9" s="16">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>16</v>
@@ -7158,26 +7154,26 @@
       </c>
       <c r="E9" s="40">
         <f t="shared" si="2"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F9" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E9,"2D","f",FALSE)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G9" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F9,IF(C9="SN","1D",IF(C9="SW","1W",C9)),"f",FALSE)</f>
-        <v>42095</v>
+        <v>42150</v>
       </c>
       <c r="H9" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L9,InterestRateTrigger)</f>
-        <v>-2.0747626953334019E-3</v>
+        <v>-2.9272897179044577E-3</v>
       </c>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
       <c r="K9" s="51"/>
       <c r="L9" s="24" t="str">
-        <f>_xll.qlMakeOIS(,IF(C9="SN","1D",IF(C9="SW","1W",C9)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00304#0000</v>
+        <f>_xll.qlMakeOIS(,2,IF(C9="SN","1D",IF(C9="SW","1W",C9)),OvernightIndex,,"0D",,,,Trigger)</f>
+        <v>obj_00304#0001</v>
       </c>
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
@@ -7235,7 +7231,7 @@
       <c r="A10" s="62"/>
       <c r="B10" s="16">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>17</v>
@@ -7245,26 +7241,26 @@
       </c>
       <c r="E10" s="40">
         <f t="shared" si="2"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F10" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E10,"2D","f",FALSE)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G10" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F10,IF(C10="SN","1D",IF(C10="SW","1W",C10)),"f",FALSE)</f>
-        <v>42102</v>
+        <v>42156</v>
       </c>
       <c r="H10" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L10,InterestRateTrigger)</f>
-        <v>-2.0825512720255646E-3</v>
+        <v>-2.9335446006076692E-3</v>
       </c>
       <c r="I10" s="30"/>
       <c r="J10" s="30"/>
       <c r="K10" s="51"/>
       <c r="L10" s="24" t="str">
-        <f>_xll.qlMakeOIS(,IF(C10="SN","1D",IF(C10="SW","1W",C10)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00306#0000</v>
+        <f>_xll.qlMakeOIS(,2,IF(C10="SN","1D",IF(C10="SW","1W",C10)),OvernightIndex,,"0D",,,,Trigger)</f>
+        <v>obj_00318#0001</v>
       </c>
       <c r="M10" s="57"/>
       <c r="N10" s="33"/>
@@ -7322,7 +7318,7 @@
       <c r="A11" s="62"/>
       <c r="B11" s="16">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>18</v>
@@ -7332,26 +7328,26 @@
       </c>
       <c r="E11" s="40">
         <f t="shared" si="2"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F11" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E11,"2D","f",FALSE)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G11" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F11,IF(C11="SN","1D",IF(C11="SW","1W",C11)),"f",FALSE)</f>
-        <v>42109</v>
+        <v>42163</v>
       </c>
       <c r="H11" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L11,InterestRateTrigger)</f>
-        <v>-2.0955592828026631E-3</v>
+        <v>-2.9452022380801629E-3</v>
       </c>
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
       <c r="K11" s="51"/>
       <c r="L11" s="24" t="str">
-        <f>_xll.qlMakeOIS(,IF(C11="SN","1D",IF(C11="SW","1W",C11)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00312#0000</v>
+        <f>_xll.qlMakeOIS(,2,IF(C11="SN","1D",IF(C11="SW","1W",C11)),OvernightIndex,,"0D",,,,Trigger)</f>
+        <v>obj_00312#0001</v>
       </c>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
@@ -7409,7 +7405,7 @@
       <c r="A12" s="62"/>
       <c r="B12" s="173">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="173" t="s">
         <v>19</v>
@@ -7419,19 +7415,19 @@
       </c>
       <c r="E12" s="175">
         <f t="shared" si="2"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F12" s="175">
         <f>_xll.qlCalendarAdvance(Calendar,E12,"2D","f",FALSE)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G12" s="175">
         <f>_xll.qlCalendarAdvance(Calendar,F12,IF(C12="SN","1D",IF(C12="SW","1W",C12)),"mf",TRUE)</f>
-        <v>42121</v>
+        <v>42173</v>
       </c>
       <c r="H12" s="176">
         <f>_xll.qlOvernightIndexedSwapFairRate(L12,InterestRateTrigger)</f>
-        <v>-2.1299999992343351E-3</v>
+        <v>-2.9700000068499932E-3</v>
       </c>
       <c r="I12" s="177" t="str">
         <f>Contribution!M12</f>
@@ -7442,8 +7438,8 @@
       </c>
       <c r="K12" s="51"/>
       <c r="L12" s="24" t="str">
-        <f>_xll.qlMakeOIS(,IF(C12="SN","1D",IF(C12="SW","1W",C12)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_0030f#0000</v>
+        <f>_xll.qlMakeOIS(,2,IF(C12="SN","1D",IF(C12="SW","1W",C12)),OvernightIndex,,"0D",,,,Trigger)</f>
+        <v>obj_00305#0001</v>
       </c>
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
@@ -7501,7 +7497,7 @@
       <c r="A13" s="62"/>
       <c r="B13" s="16">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>20</v>
@@ -7511,19 +7507,19 @@
       </c>
       <c r="E13" s="40">
         <f t="shared" si="2"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F13" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E13,"2D","f",FALSE)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G13" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F13,IF(C13="SN","1D",IF(C13="SW","1W",C13)),"mf",TRUE)</f>
-        <v>42150</v>
+        <v>42205</v>
       </c>
       <c r="H13" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L13,InterestRateTrigger)</f>
-        <v>-2.2399999979947427E-3</v>
+        <v>-3.1300000015984813E-3</v>
       </c>
       <c r="I13" s="30" t="str">
         <f>Contribution!M13</f>
@@ -7534,8 +7530,8 @@
       </c>
       <c r="K13" s="51"/>
       <c r="L13" s="24" t="str">
-        <f>_xll.qlMakeOIS(,IF(C13="SN","1D",IF(C13="SW","1W",C13)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00319#0000</v>
+        <f>_xll.qlMakeOIS(,2,IF(C13="SN","1D",IF(C13="SW","1W",C13)),OvernightIndex,,"0D",,,,Trigger)</f>
+        <v>obj_0030f#0001</v>
       </c>
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
@@ -7593,7 +7589,7 @@
       <c r="A14" s="62"/>
       <c r="B14" s="173">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C14" s="173" t="s">
         <v>21</v>
@@ -7603,19 +7599,19 @@
       </c>
       <c r="E14" s="175">
         <f t="shared" si="2"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F14" s="175">
         <f>_xll.qlCalendarAdvance(Calendar,E14,"2D","f",FALSE)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G14" s="175">
         <f>_xll.qlCalendarAdvance(Calendar,F14,IF(C14="SN","1D",IF(C14="SW","1W",C14)),"mf",TRUE)</f>
-        <v>42180</v>
+        <v>42234</v>
       </c>
       <c r="H14" s="176">
         <f>_xll.qlOvernightIndexedSwapFairRate(L14,InterestRateTrigger)</f>
-        <v>-2.3200000000003409E-3</v>
+        <v>-3.3400000000004203E-3</v>
       </c>
       <c r="I14" s="177" t="str">
         <f>Contribution!M14</f>
@@ -7626,8 +7622,8 @@
       </c>
       <c r="K14" s="51"/>
       <c r="L14" s="24" t="str">
-        <f>_xll.qlMakeOIS(,IF(C14="SN","1D",IF(C14="SW","1W",C14)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_0030c#0000</v>
+        <f>_xll.qlMakeOIS(,2,IF(C14="SN","1D",IF(C14="SW","1W",C14)),OvernightIndex,,"0D",,,,Trigger)</f>
+        <v>obj_0030c#0001</v>
       </c>
       <c r="M14" s="33"/>
       <c r="N14" s="33"/>
@@ -7685,7 +7681,7 @@
       <c r="A15" s="62"/>
       <c r="B15" s="16">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>22</v>
@@ -7695,19 +7691,19 @@
       </c>
       <c r="E15" s="40">
         <f t="shared" si="2"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F15" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E15,"2D","f",FALSE)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G15" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F15,IF(C15="SN","1D",IF(C15="SW","1W",C15)),"mf",TRUE)</f>
-        <v>42212</v>
+        <v>42265</v>
       </c>
       <c r="H15" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L15,InterestRateTrigger)</f>
-        <v>-2.3700000000002482E-3</v>
+        <v>-3.4400000000002454E-3</v>
       </c>
       <c r="I15" s="30" t="str">
         <f>Contribution!M15</f>
@@ -7718,8 +7714,8 @@
       </c>
       <c r="K15" s="51"/>
       <c r="L15" s="24" t="str">
-        <f>_xll.qlMakeOIS(,IF(C15="SN","1D",IF(C15="SW","1W",C15)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_0030e#0000</v>
+        <f>_xll.qlMakeOIS(,2,IF(C15="SN","1D",IF(C15="SW","1W",C15)),OvernightIndex,,"0D",,,,Trigger)</f>
+        <v>obj_0031b#0001</v>
       </c>
       <c r="M15" s="33"/>
       <c r="N15" s="33"/>
@@ -7777,7 +7773,7 @@
       <c r="A16" s="62"/>
       <c r="B16" s="16">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>23</v>
@@ -7787,19 +7783,19 @@
       </c>
       <c r="E16" s="40">
         <f t="shared" si="2"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F16" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E16,"2D","f",FALSE)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G16" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F16,IF(C16="SN","1D",IF(C16="SW","1W",C16)),"mf",TRUE)</f>
-        <v>42241</v>
+        <v>42296</v>
       </c>
       <c r="H16" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L16,InterestRateTrigger)</f>
-        <v>-2.4099999999998797E-3</v>
+        <v>-3.460000000000036E-3</v>
       </c>
       <c r="I16" s="30" t="str">
         <f>Contribution!M16</f>
@@ -7810,8 +7806,8 @@
       </c>
       <c r="K16" s="51"/>
       <c r="L16" s="24" t="str">
-        <f>_xll.qlMakeOIS(,IF(C16="SN","1D",IF(C16="SW","1W",C16)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00307#0000</v>
+        <f>_xll.qlMakeOIS(,2,IF(C16="SN","1D",IF(C16="SW","1W",C16)),OvernightIndex,,"0D",,,,Trigger)</f>
+        <v>obj_00308#0001</v>
       </c>
       <c r="M16" s="33"/>
       <c r="N16" s="33"/>
@@ -7869,7 +7865,7 @@
       <c r="A17" s="62"/>
       <c r="B17" s="173">
         <f t="shared" si="0"/>
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C17" s="173" t="s">
         <v>14</v>
@@ -7879,19 +7875,19 @@
       </c>
       <c r="E17" s="175">
         <f t="shared" si="2"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F17" s="175">
         <f>_xll.qlCalendarAdvance(Calendar,E17,"2D","f",FALSE)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G17" s="175">
         <f>_xll.qlCalendarAdvance(Calendar,F17,IF(C17="SN","1D",IF(C17="SW","1W",C17)),"mf",TRUE)</f>
-        <v>42272</v>
+        <v>42326</v>
       </c>
       <c r="H17" s="176">
         <f>_xll.qlOvernightIndexedSwapFairRate(L17,InterestRateTrigger)</f>
-        <v>-2.4400000000001716E-3</v>
+        <v>-3.519999999999949E-3</v>
       </c>
       <c r="I17" s="177" t="str">
         <f>Contribution!M17</f>
@@ -7902,8 +7898,8 @@
       </c>
       <c r="K17" s="51"/>
       <c r="L17" s="24" t="str">
-        <f>_xll.qlMakeOIS(,IF(C17="SN","1D",IF(C17="SW","1W",C17)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00310#0000</v>
+        <f>_xll.qlMakeOIS(,2,IF(C17="SN","1D",IF(C17="SW","1W",C17)),OvernightIndex,,"0D",,,,Trigger)</f>
+        <v>obj_0031a#0001</v>
       </c>
       <c r="M17" s="33"/>
       <c r="N17" s="33"/>
@@ -7961,7 +7957,7 @@
       <c r="A18" s="62"/>
       <c r="B18" s="17">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>24</v>
@@ -7971,19 +7967,19 @@
       </c>
       <c r="E18" s="41">
         <f t="shared" si="2"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F18" s="41">
         <f>_xll.qlCalendarAdvance(Calendar,E18,"2D","f",FALSE)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G18" s="41">
         <f>_xll.qlCalendarAdvance(Calendar,F18,IF(C18="SN","1D",IF(C18="SW","1W",C18)),"mf",TRUE)</f>
-        <v>42366</v>
+        <v>42418</v>
       </c>
       <c r="H18" s="42">
         <f>_xll.qlOvernightIndexedSwapFairRate(L18,InterestRateTrigger)</f>
-        <v>-2.5000000000004194E-3</v>
+        <v>-3.5300000000000418E-3</v>
       </c>
       <c r="I18" s="32" t="str">
         <f>Contribution!M18</f>
@@ -7994,8 +7990,8 @@
       </c>
       <c r="K18" s="51"/>
       <c r="L18" s="26" t="str">
-        <f>_xll.qlMakeOIS(,IF(C18="SN","1D",IF(C18="SW","1W",C18)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_0031a#0000</v>
+        <f>_xll.qlMakeOIS(,2,IF(C18="SN","1D",IF(C18="SW","1W",C18)),OvernightIndex,,"0D",,,,Trigger)</f>
+        <v>obj_00315#0001</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="33"/>
@@ -8450,19 +8446,19 @@
       </c>
       <c r="E25" s="37">
         <f t="shared" ref="E25:E39" si="3">EvaluationDate</f>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F25" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,E25,"2D","f",FALSE)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G25" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,F25,IF(C25="SN","1D",IF(C25="SW","1W",C25)),"mf",TRUE)</f>
-        <v>42458</v>
+        <v>42508</v>
       </c>
       <c r="H25" s="38">
         <f>_xll.qlOvernightIndexedSwapFairRate(L25,InterestRateTrigger)</f>
-        <v>-2.4300000000006881E-3</v>
+        <v>-3.5199999999998436E-3</v>
       </c>
       <c r="I25" s="31" t="str">
         <f>Contribution!M25</f>
@@ -8473,8 +8469,8 @@
       </c>
       <c r="K25" s="50"/>
       <c r="L25" s="23" t="str">
-        <f>_xll.qlMakeOIS(,IF(C25="SN","1D",IF(C25="SW","1W",C25)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_0030b#0000</v>
+        <f>_xll.qlMakeOIS(,2,IF(C25="SN","1D",IF(C25="SW","1W",C25)),OvernightIndex,,"0D",,,,Trigger)</f>
+        <v>obj_00317#0005</v>
       </c>
       <c r="M25" s="33"/>
       <c r="N25" s="33"/>
@@ -8539,19 +8535,19 @@
       </c>
       <c r="E26" s="40">
         <f t="shared" si="3"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F26" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E26,"2D","f",FALSE)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G26" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F26,IF(C26="SN","1D",IF(C26="SW","1W",C26)),"mf",TRUE)</f>
-        <v>42821</v>
+        <v>42873</v>
       </c>
       <c r="H26" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L26,InterestRateTrigger)</f>
-        <v>-1.0374999999999887E-3</v>
+        <v>-2.474999999999962E-3</v>
       </c>
       <c r="I26" s="30" t="str">
         <f>Contribution!M26</f>
@@ -8562,8 +8558,8 @@
       </c>
       <c r="K26" s="50"/>
       <c r="L26" s="24" t="str">
-        <f>_xll.qlMakeOIS(,IF(C26="SN","1D",IF(C26="SW","1W",C26)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00305#0000</v>
+        <f>_xll.qlMakeOIS(,2,IF(C26="SN","1D",IF(C26="SW","1W",C26)),OvernightIndex,,"0D",,,,Trigger)</f>
+        <v>obj_0030e#0001</v>
       </c>
       <c r="M26" s="33"/>
       <c r="N26" s="33"/>
@@ -8628,19 +8624,19 @@
       </c>
       <c r="E27" s="40">
         <f t="shared" si="3"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F27" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E27,"2D","f",FALSE)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G27" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F27,IF(C27="SN","1D",IF(C27="SW","1W",C27)),"mf",TRUE)</f>
-        <v>43185</v>
+        <v>43238</v>
       </c>
       <c r="H27" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L27,InterestRateTrigger)</f>
-        <v>-4.4999999999999435E-4</v>
+        <v>-6.0000000000002369E-4</v>
       </c>
       <c r="I27" s="30" t="str">
         <f>Contribution!M27</f>
@@ -8651,8 +8647,8 @@
       </c>
       <c r="K27" s="50"/>
       <c r="L27" s="24" t="str">
-        <f>_xll.qlMakeOIS(,IF(C27="SN","1D",IF(C27="SW","1W",C27)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00308#0000</v>
+        <f>_xll.qlMakeOIS(,2,IF(C27="SN","1D",IF(C27="SW","1W",C27)),OvernightIndex,,"0D",,,,Trigger)</f>
+        <v>obj_00307#0001</v>
       </c>
       <c r="M27" s="33"/>
       <c r="N27" s="33"/>
@@ -8717,19 +8713,19 @@
       </c>
       <c r="E28" s="40">
         <f t="shared" si="3"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F28" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E28,"2D","f",FALSE)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G28" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F28,IF(C28="SN","1D",IF(C28="SW","1W",C28)),"mf",TRUE)</f>
-        <v>43549</v>
+        <v>43605</v>
       </c>
       <c r="H28" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L28,InterestRateTrigger)</f>
-        <v>2.375000000951724E-4</v>
+        <v>1.4999999999999744E-3</v>
       </c>
       <c r="I28" s="30" t="str">
         <f>Contribution!M28</f>
@@ -8740,8 +8736,8 @@
       </c>
       <c r="K28" s="50"/>
       <c r="L28" s="24" t="str">
-        <f>_xll.qlMakeOIS(,IF(C28="SN","1D",IF(C28="SW","1W",C28)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00303#0000</v>
+        <f>_xll.qlMakeOIS(,2,IF(C28="SN","1D",IF(C28="SW","1W",C28)),OvernightIndex,,"0D",,,,Trigger)</f>
+        <v>obj_00319#0001</v>
       </c>
       <c r="M28" s="33"/>
       <c r="N28" s="33"/>
@@ -8806,19 +8802,19 @@
       </c>
       <c r="E29" s="40">
         <f t="shared" si="3"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F29" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E29,"2D","f",FALSE)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G29" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F29,IF(C29="SN","1D",IF(C29="SW","1W",C29)),"mf",TRUE)</f>
-        <v>43915</v>
+        <v>43969</v>
       </c>
       <c r="H29" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L29,InterestRateTrigger)</f>
-        <v>9.5000000000941391E-4</v>
+        <v>3.7750000000000257E-3</v>
       </c>
       <c r="I29" s="30" t="str">
         <f>Contribution!M29</f>
@@ -8829,8 +8825,8 @@
       </c>
       <c r="K29" s="50"/>
       <c r="L29" s="24" t="str">
-        <f>_xll.qlMakeOIS(,IF(C29="SN","1D",IF(C29="SW","1W",C29)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00316#0000</v>
+        <f>_xll.qlMakeOIS(,2,IF(C29="SN","1D",IF(C29="SW","1W",C29)),OvernightIndex,,"0D",,,,Trigger)</f>
+        <v>obj_00313#0001</v>
       </c>
       <c r="M29" s="33"/>
       <c r="N29" s="33"/>
@@ -8895,19 +8891,19 @@
       </c>
       <c r="E30" s="40">
         <f t="shared" si="3"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F30" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E30,"2D","f",FALSE)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G30" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F30,IF(C30="SN","1D",IF(C30="SW","1W",C30)),"mf",TRUE)</f>
-        <v>44280</v>
+        <v>44334</v>
       </c>
       <c r="H30" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L30,InterestRateTrigger)</f>
-        <v>1.6375000000039086E-3</v>
+        <v>5.8750000000001024E-3</v>
       </c>
       <c r="I30" s="30" t="str">
         <f>Contribution!M30</f>
@@ -8918,8 +8914,8 @@
       </c>
       <c r="K30" s="50"/>
       <c r="L30" s="24" t="str">
-        <f>_xll.qlMakeOIS(,IF(C30="SN","1D",IF(C30="SW","1W",C30)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_0031b#0000</v>
+        <f>_xll.qlMakeOIS(,2,IF(C30="SN","1D",IF(C30="SW","1W",C30)),OvernightIndex,,"0D",,,,Trigger)</f>
+        <v>obj_0030d#0001</v>
       </c>
       <c r="M30" s="33"/>
       <c r="N30" s="33"/>
@@ -8984,19 +8980,19 @@
       </c>
       <c r="E31" s="40">
         <f t="shared" si="3"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F31" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E31,"2D","f",FALSE)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G31" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F31,IF(C31="SN","1D",IF(C31="SW","1W",C31)),"mf",TRUE)</f>
-        <v>44645</v>
+        <v>44699</v>
       </c>
       <c r="H31" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L31,InterestRateTrigger)</f>
-        <v>2.2500000000067045E-3</v>
+        <v>7.7750000000000171E-3</v>
       </c>
       <c r="I31" s="30" t="str">
         <f>Contribution!M31</f>
@@ -9007,8 +9003,8 @@
       </c>
       <c r="K31" s="50"/>
       <c r="L31" s="24" t="str">
-        <f>_xll.qlMakeOIS(,IF(C31="SN","1D",IF(C31="SW","1W",C31)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00315#0000</v>
+        <f>_xll.qlMakeOIS(,2,IF(C31="SN","1D",IF(C31="SW","1W",C31)),OvernightIndex,,"0D",,,,Trigger)</f>
+        <v>obj_00306#0001</v>
       </c>
       <c r="M31" s="33"/>
       <c r="N31" s="33"/>
@@ -9073,19 +9069,19 @@
       </c>
       <c r="E32" s="40">
         <f t="shared" si="3"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F32" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E32,"2D","f",FALSE)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G32" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F32,IF(C32="SN","1D",IF(C32="SW","1W",C32)),"mf",TRUE)</f>
-        <v>45012</v>
+        <v>45065</v>
       </c>
       <c r="H32" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L32,InterestRateTrigger)</f>
-        <v>2.787500000013324E-3</v>
+        <v>9.3500000000000787E-3</v>
       </c>
       <c r="I32" s="30" t="str">
         <f>Contribution!M32</f>
@@ -9096,8 +9092,8 @@
       </c>
       <c r="K32" s="50"/>
       <c r="L32" s="24" t="str">
-        <f>_xll.qlMakeOIS(,IF(C32="SN","1D",IF(C32="SW","1W",C32)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00302#0000</v>
+        <f>_xll.qlMakeOIS(,2,IF(C32="SN","1D",IF(C32="SW","1W",C32)),OvernightIndex,,"0D",,,,Trigger)</f>
+        <v>obj_00314#0001</v>
       </c>
       <c r="M32" s="33"/>
       <c r="N32" s="33"/>
@@ -9162,19 +9158,19 @@
       </c>
       <c r="E33" s="40">
         <f t="shared" si="3"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F33" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E33,"2D","f",FALSE)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G33" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F33,IF(C33="SN","1D",IF(C33="SW","1W",C33)),"mf",TRUE)</f>
-        <v>45376</v>
+        <v>45433</v>
       </c>
       <c r="H33" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L33,InterestRateTrigger)</f>
-        <v>3.2250000000310962E-3</v>
+        <v>1.062499999999999E-2</v>
       </c>
       <c r="I33" s="30" t="str">
         <f>Contribution!M33</f>
@@ -9185,8 +9181,8 @@
       </c>
       <c r="K33" s="50"/>
       <c r="L33" s="24" t="str">
-        <f>_xll.qlMakeOIS(,IF(C33="SN","1D",IF(C33="SW","1W",C33)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00317#0000</v>
+        <f>_xll.qlMakeOIS(,2,IF(C33="SN","1D",IF(C33="SW","1W",C33)),OvernightIndex,,"0D",,,,Trigger)</f>
+        <v>obj_00311#0001</v>
       </c>
       <c r="M33" s="33"/>
       <c r="N33" s="33"/>
@@ -9251,19 +9247,19 @@
       </c>
       <c r="E34" s="40">
         <f t="shared" si="3"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F34" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E34,"2D","f",FALSE)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G34" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F34,IF(C34="SN","1D",IF(C34="SW","1W",C34)),"mf",TRUE)</f>
-        <v>45741</v>
+        <v>45796</v>
       </c>
       <c r="H34" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L34,InterestRateTrigger)</f>
-        <v>3.6000000000353176E-3</v>
+        <v>1.1600000000000058E-2</v>
       </c>
       <c r="I34" s="30" t="str">
         <f>Contribution!M34</f>
@@ -9274,8 +9270,8 @@
       </c>
       <c r="K34" s="50"/>
       <c r="L34" s="24" t="str">
-        <f>_xll.qlMakeOIS(,IF(C34="SN","1D",IF(C34="SW","1W",C34)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00311#0000</v>
+        <f>_xll.qlMakeOIS(,2,IF(C34="SN","1D",IF(C34="SW","1W",C34)),OvernightIndex,,"0D",,,,Trigger)</f>
+        <v>obj_0030b#0001</v>
       </c>
       <c r="M34" s="33"/>
       <c r="N34" s="33"/>
@@ -9340,19 +9336,19 @@
       </c>
       <c r="E35" s="40">
         <f t="shared" si="3"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F35" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E35,"2D","f",FALSE)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G35" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F35,IF(C35="SN","1D",IF(C35="SW","1W",C35)),"mf",TRUE)</f>
-        <v>46471</v>
+        <v>46525</v>
       </c>
       <c r="H35" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L35,InterestRateTrigger)</f>
-        <v>4.2250000000587321E-3</v>
+        <v>1.314999999997791E-2</v>
       </c>
       <c r="I35" s="30" t="str">
         <f>Contribution!M35</f>
@@ -9363,8 +9359,8 @@
       </c>
       <c r="K35" s="50"/>
       <c r="L35" s="24" t="str">
-        <f>_xll.qlMakeOIS(,IF(C35="SN","1D",IF(C35="SW","1W",C35)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_0030d#0000</v>
+        <f>_xll.qlMakeOIS(,2,IF(C35="SN","1D",IF(C35="SW","1W",C35)),OvernightIndex,,"0D",,,,Trigger)</f>
+        <v>obj_00303#0001</v>
       </c>
       <c r="M35" s="33"/>
       <c r="N35" s="33"/>
@@ -9429,19 +9425,19 @@
       </c>
       <c r="E36" s="40">
         <f t="shared" si="3"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F36" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E36,"2D","f",FALSE)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G36" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F36,IF(C36="SN","1D",IF(C36="SW","1W",C36)),"mf",TRUE)</f>
-        <v>47567</v>
+        <v>47623</v>
       </c>
       <c r="H36" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L36,InterestRateTrigger)</f>
-        <v>4.9250000000551465E-3</v>
+        <v>1.4824999999933102E-2</v>
       </c>
       <c r="I36" s="30" t="str">
         <f>Contribution!M36</f>
@@ -9452,8 +9448,8 @@
       </c>
       <c r="K36" s="50"/>
       <c r="L36" s="24" t="str">
-        <f>_xll.qlMakeOIS(,IF(C36="SN","1D",IF(C36="SW","1W",C36)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_0030a#0000</v>
+        <f>_xll.qlMakeOIS(,2,IF(C36="SN","1D",IF(C36="SW","1W",C36)),OvernightIndex,,"0D",,,,Trigger)</f>
+        <v>obj_00316#0001</v>
       </c>
       <c r="M36" s="33"/>
       <c r="N36" s="33"/>
@@ -9518,19 +9514,19 @@
       </c>
       <c r="E37" s="40">
         <f t="shared" si="3"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F37" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E37,"2D","f",FALSE)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G37" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F37,IF(C37="SN","1D",IF(C37="SW","1W",C37)),"mf",TRUE)</f>
-        <v>49395</v>
+        <v>49447</v>
       </c>
       <c r="H37" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L37,InterestRateTrigger)</f>
-        <v>5.7749999999802647E-3</v>
+        <v>1.6699999999974988E-2</v>
       </c>
       <c r="I37" s="30" t="str">
         <f>Contribution!M37</f>
@@ -9541,8 +9537,8 @@
       </c>
       <c r="K37" s="50"/>
       <c r="L37" s="24" t="str">
-        <f>_xll.qlMakeOIS(,IF(C37="SN","1D",IF(C37="SW","1W",C37)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00314#0000</v>
+        <f>_xll.qlMakeOIS(,2,IF(C37="SN","1D",IF(C37="SW","1W",C37)),OvernightIndex,,"0D",,,,Trigger)</f>
+        <v>obj_00310#0001</v>
       </c>
       <c r="M37" s="33"/>
       <c r="N37" s="33"/>
@@ -9607,19 +9603,19 @@
       </c>
       <c r="E38" s="40">
         <f t="shared" si="3"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F38" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E38,"2D","f",FALSE)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G38" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F38,IF(C38="SN","1D",IF(C38="SW","1W",C38)),"mf",TRUE)</f>
-        <v>51221</v>
+        <v>51274</v>
       </c>
       <c r="H38" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L38,InterestRateTrigger)</f>
-        <v>6.2124999999970199E-3</v>
+        <v>1.7600000000019853E-2</v>
       </c>
       <c r="I38" s="30" t="str">
         <f>Contribution!M38</f>
@@ -9630,8 +9626,8 @@
       </c>
       <c r="K38" s="50"/>
       <c r="L38" s="24" t="str">
-        <f>_xll.qlMakeOIS(,IF(C38="SN","1D",IF(C38="SW","1W",C38)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00313#0000</v>
+        <f>_xll.qlMakeOIS(,2,IF(C38="SN","1D",IF(C38="SW","1W",C38)),OvernightIndex,,"0D",,,,Trigger)</f>
+        <v>obj_0030a#0001</v>
       </c>
       <c r="M38" s="33"/>
       <c r="N38" s="33"/>
@@ -9696,19 +9692,19 @@
       </c>
       <c r="E39" s="41">
         <f t="shared" si="3"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F39" s="41">
         <f>_xll.qlCalendarAdvance(Calendar,E39,"2D","f",FALSE)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G39" s="41">
         <f>_xll.qlCalendarAdvance(Calendar,F39,IF(C39="SN","1D",IF(C39="SW","1W",C39)),"mf",TRUE)</f>
-        <v>53048</v>
+        <v>53101</v>
       </c>
       <c r="H39" s="42">
         <f>_xll.qlOvernightIndexedSwapFairRate(L39,InterestRateTrigger)</f>
-        <v>6.399999999995817E-3</v>
+        <v>1.7999999999999433E-2</v>
       </c>
       <c r="I39" s="32" t="str">
         <f>Contribution!M39</f>
@@ -9719,8 +9715,8 @@
       </c>
       <c r="K39" s="50"/>
       <c r="L39" s="26" t="str">
-        <f>_xll.qlMakeOIS(,IF(C39="SN","1D",IF(C39="SW","1W",C39)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00318#0000</v>
+        <f>_xll.qlMakeOIS(,2,IF(C39="SN","1D",IF(C39="SW","1W",C39)),OvernightIndex,,"0D",,,,Trigger)</f>
+        <v>obj_00302#0001</v>
       </c>
       <c r="M39" s="33"/>
       <c r="N39" s="33"/>
@@ -10233,7 +10229,7 @@
       <c r="A6" s="62"/>
       <c r="B6" s="16">
         <f t="shared" ref="B6:B12" si="0">G6-EvaluationDate</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>15</v>
@@ -10243,26 +10239,26 @@
       </c>
       <c r="E6" s="37">
         <f t="shared" ref="E6:E39" si="1">EvaluationDate</f>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F6" s="37">
         <f>E6</f>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="G6" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,F6,"1D","f",TRUE,Trigger)</f>
-        <v>42087</v>
+        <v>42139</v>
       </c>
       <c r="H6" s="43">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
-        <v>-1.2095604491853952E-3</v>
+        <v>-2.5915567527065569E-3</v>
       </c>
       <c r="I6" s="44"/>
       <c r="J6" s="45"/>
       <c r="K6" s="33"/>
       <c r="L6" s="59" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,B8:B12,H8:H12,,Trigger)</f>
-        <v>obj_0035f#0000</v>
+        <v>obj_0035f#0141</v>
       </c>
       <c r="M6" s="62"/>
       <c r="N6" s="62"/>
@@ -10275,7 +10271,7 @@
       <c r="A7" s="62"/>
       <c r="B7" s="16">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>73</v>
@@ -10285,19 +10281,19 @@
       </c>
       <c r="E7" s="40">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F7" s="40">
         <f>G6</f>
-        <v>42087</v>
+        <v>42139</v>
       </c>
       <c r="G7" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F7,"1D","f",TRUE,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="H7" s="111">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
-        <v>-1.2099117633482515E-3</v>
+        <v>-2.5928793985778155E-3</v>
       </c>
       <c r="I7" s="46"/>
       <c r="J7" s="112"/>
@@ -10322,7 +10318,7 @@
       <c r="A8" s="62"/>
       <c r="B8" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>74</v>
@@ -10332,19 +10328,19 @@
       </c>
       <c r="E8" s="37">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F8" s="37">
         <f>_xll.qlInterestRateIndexValueDate(L8,E8,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G8" s="37">
         <f>_xll.qlInterestRateIndexMaturity(L8,F8,Trigger)</f>
-        <v>42089</v>
+        <v>42143</v>
       </c>
       <c r="H8" s="43">
         <f>_xll.qlIndexFixing(L8,E8,TRUE,InterestRateTrigger)</f>
-        <v>-1.2102406118863485E-3</v>
+        <v>-2.5932528321526149E-3</v>
       </c>
       <c r="I8" s="44" t="str">
         <f>Contribution!P8</f>
@@ -10354,7 +10350,7 @@
       <c r="K8" s="33"/>
       <c r="L8" s="60" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C8="SN","1D",IF(C8="SW","1W",C8)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00350#0000</v>
+        <v>obj_00334#0000</v>
       </c>
       <c r="M8" s="57"/>
       <c r="N8" s="59" t="b">
@@ -10373,7 +10369,7 @@
       <c r="A9" s="62"/>
       <c r="B9" s="16">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>16</v>
@@ -10383,19 +10379,19 @@
       </c>
       <c r="E9" s="40">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F9" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L9,E9,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G9" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L9,F9,Trigger)</f>
-        <v>42095</v>
+        <v>42150</v>
       </c>
       <c r="H9" s="39">
         <f>_xll.qlIndexFixing(L9,E9,TRUE,InterestRateTrigger)</f>
-        <v>-1.2129999999815106E-3</v>
+        <v>-2.5969999999986282E-3</v>
       </c>
       <c r="I9" s="30" t="str">
         <f>Contribution!P9</f>
@@ -10405,7 +10401,7 @@
       <c r="K9" s="33"/>
       <c r="L9" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C9="SN","1D",IF(C9="SW","1W",C9)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0034a#0000</v>
+        <v>obj_00344#0000</v>
       </c>
       <c r="M9" s="57"/>
       <c r="N9" s="62"/>
@@ -10418,7 +10414,7 @@
       <c r="A10" s="62"/>
       <c r="B10" s="16">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>17</v>
@@ -10428,19 +10424,19 @@
       </c>
       <c r="E10" s="40">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F10" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L10,E10,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G10" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L10,F10,Trigger)</f>
-        <v>42102</v>
+        <v>42156</v>
       </c>
       <c r="H10" s="39">
         <f>_xll.qlIndexFixing(L10,E10,TRUE,InterestRateTrigger)</f>
-        <v>-1.221000000046768E-3</v>
+        <v>-2.6040000000025565E-3</v>
       </c>
       <c r="I10" s="30" t="str">
         <f>Contribution!P10</f>
@@ -10450,7 +10446,7 @@
       <c r="K10" s="33"/>
       <c r="L10" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C10="SN","1D",IF(C10="SW","1W",C10)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00345#0000</v>
+        <v>obj_00351#0000</v>
       </c>
       <c r="M10" s="57"/>
       <c r="N10" s="62"/>
@@ -10463,7 +10459,7 @@
       <c r="A11" s="62"/>
       <c r="B11" s="16">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>18</v>
@@ -10473,19 +10469,19 @@
       </c>
       <c r="E11" s="40">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F11" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L11,E11,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G11" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L11,F11,Trigger)</f>
-        <v>42109</v>
+        <v>42163</v>
       </c>
       <c r="H11" s="39">
         <f>_xll.qlIndexFixing(L11,E11,TRUE,InterestRateTrigger)</f>
-        <v>-1.234000000190757E-3</v>
+        <v>-2.6149999999981943E-3</v>
       </c>
       <c r="I11" s="30" t="str">
         <f>Contribution!P11</f>
@@ -10495,7 +10491,7 @@
       <c r="K11" s="33"/>
       <c r="L11" s="27" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C11="SN","1D",IF(C11="SW","1W",C11)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00320#0000</v>
+        <v>obj_00331#0000</v>
       </c>
       <c r="M11" s="57"/>
       <c r="N11" s="62"/>
@@ -10508,7 +10504,7 @@
       <c r="A12" s="62"/>
       <c r="B12" s="142">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="142" t="s">
         <v>19</v>
@@ -10518,19 +10514,19 @@
       </c>
       <c r="E12" s="144">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F12" s="144">
         <f>_xll.qlInterestRateIndexValueDate(IborIndex,E12,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G12" s="144">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F12,Trigger)</f>
-        <v>42121</v>
+        <v>42173</v>
       </c>
       <c r="H12" s="145">
         <f>_xll.qlIndexFixing(IborIndex,E12,TRUE,InterestRateTrigger)</f>
-        <v>-1.2679999980850939E-3</v>
+        <v>-2.639999999989962E-3</v>
       </c>
       <c r="I12" s="146" t="str">
         <f>Contribution!P12</f>
@@ -10807,19 +10803,19 @@
       </c>
       <c r="E25" s="37">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F25" s="37">
         <f>_xll.qlInterestRateIndexValueDate(L25,E25,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G25" s="37">
         <f>_xll.qlInterestRateIndexMaturity(L25,F25,Trigger)</f>
-        <v>42458</v>
+        <v>42508</v>
       </c>
       <c r="H25" s="38">
         <f>_xll.qlIndexFixing(L25,E25,TRUE,InterestRateTrigger)</f>
-        <v>-1.9132798649356046E-3</v>
+        <v>-3.210971532459151E-3</v>
       </c>
       <c r="I25" s="31" t="str">
         <f>Contribution!P25</f>
@@ -10832,7 +10828,7 @@
       <c r="K25" s="33"/>
       <c r="L25" s="60" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00337#0000</v>
+        <v>obj_0032d#0000</v>
       </c>
       <c r="M25" s="57"/>
       <c r="N25" s="59" t="s">
@@ -10858,19 +10854,19 @@
       </c>
       <c r="E26" s="40">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F26" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L26,E26,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G26" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L26,F26,Trigger)</f>
-        <v>42821</v>
+        <v>42873</v>
       </c>
       <c r="H26" s="39">
         <f>_xll.qlIndexFixing(L26,E26,TRUE,InterestRateTrigger)</f>
-        <v>-1.5627027289320406E-3</v>
+        <v>-2.2621880165685135E-3</v>
       </c>
       <c r="I26" s="30" t="str">
         <f>Contribution!P26</f>
@@ -10903,19 +10899,19 @@
       </c>
       <c r="E27" s="40">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F27" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L27,E27,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G27" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L27,F27,Trigger)</f>
-        <v>43185</v>
+        <v>43238</v>
       </c>
       <c r="H27" s="39">
         <f>_xll.qlIndexFixing(L27,E27,TRUE,InterestRateTrigger)</f>
-        <v>-3.2037612674177233E-4</v>
+        <v>-2.694765592645632E-4</v>
       </c>
       <c r="I27" s="30" t="str">
         <f>Contribution!P27</f>
@@ -10928,7 +10924,7 @@
       <c r="K27" s="33"/>
       <c r="L27" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00344#0000</v>
+        <v>obj_0033c#0000</v>
       </c>
       <c r="M27" s="57"/>
       <c r="N27" s="62"/>
@@ -10948,19 +10944,19 @@
       </c>
       <c r="E28" s="40">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F28" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L28,E28,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G28" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L28,F28,Trigger)</f>
-        <v>43549</v>
+        <v>43605</v>
       </c>
       <c r="H28" s="39">
         <f>_xll.qlIndexFixing(L28,E28,TRUE,InterestRateTrigger)</f>
-        <v>1.1270977705203477E-3</v>
+        <v>1.9783409626271333E-3</v>
       </c>
       <c r="I28" s="30" t="str">
         <f>Contribution!P28</f>
@@ -10973,7 +10969,7 @@
       <c r="K28" s="33"/>
       <c r="L28" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00323#0000</v>
+        <v>obj_00355#0000</v>
       </c>
       <c r="M28" s="57"/>
       <c r="N28" s="62"/>
@@ -10993,19 +10989,19 @@
       </c>
       <c r="E29" s="40">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F29" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L29,E29,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G29" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L29,F29,Trigger)</f>
-        <v>43915</v>
+        <v>43969</v>
       </c>
       <c r="H29" s="39">
         <f>_xll.qlIndexFixing(L29,E29,TRUE,InterestRateTrigger)</f>
-        <v>2.6212571946558198E-3</v>
+        <v>4.2727491820882682E-3</v>
       </c>
       <c r="I29" s="30" t="str">
         <f>Contribution!P29</f>
@@ -11018,7 +11014,7 @@
       <c r="K29" s="33"/>
       <c r="L29" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00325#0000</v>
+        <v>obj_00336#0000</v>
       </c>
       <c r="M29" s="57"/>
       <c r="N29" s="62"/>
@@ -11038,19 +11034,19 @@
       </c>
       <c r="E30" s="40">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F30" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L30,E30,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G30" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L30,F30,Trigger)</f>
-        <v>44280</v>
+        <v>44334</v>
       </c>
       <c r="H30" s="39">
         <f>_xll.qlIndexFixing(L30,E30,TRUE,InterestRateTrigger)</f>
-        <v>4.0180681344880158E-3</v>
+        <v>6.3709210631232669E-3</v>
       </c>
       <c r="I30" s="30" t="str">
         <f>Contribution!P30</f>
@@ -11063,7 +11059,7 @@
       <c r="K30" s="33"/>
       <c r="L30" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C30,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00332#0000</v>
+        <v>obj_0032a#0000</v>
       </c>
       <c r="M30" s="57"/>
       <c r="N30" s="62"/>
@@ -11083,19 +11079,19 @@
       </c>
       <c r="E31" s="40">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F31" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L31,E31,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G31" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L31,F31,Trigger)</f>
-        <v>44645</v>
+        <v>44699</v>
       </c>
       <c r="H31" s="39">
         <f>_xll.qlIndexFixing(L31,E31,TRUE,InterestRateTrigger)</f>
-        <v>5.2429125738546823E-3</v>
+        <v>8.246182841351337E-3</v>
       </c>
       <c r="I31" s="30" t="str">
         <f>Contribution!P31</f>
@@ -11108,7 +11104,7 @@
       <c r="K31" s="33"/>
       <c r="L31" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C31,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00322#0000</v>
+        <v>obj_0032e#0000</v>
       </c>
       <c r="M31" s="57"/>
       <c r="N31" s="62"/>
@@ -11128,19 +11124,19 @@
       </c>
       <c r="E32" s="40">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F32" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L32,E32,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G32" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L32,F32,Trigger)</f>
-        <v>45012</v>
+        <v>45065</v>
       </c>
       <c r="H32" s="39">
         <f>_xll.qlIndexFixing(L32,E32,TRUE,InterestRateTrigger)</f>
-        <v>6.2917539919121303E-3</v>
+        <v>9.8215793742416641E-3</v>
       </c>
       <c r="I32" s="30" t="str">
         <f>Contribution!P32</f>
@@ -11153,7 +11149,7 @@
       <c r="K32" s="33"/>
       <c r="L32" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C32,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00326#0000</v>
+        <v>obj_00348#0000</v>
       </c>
       <c r="M32" s="57"/>
       <c r="N32" s="62"/>
@@ -11173,19 +11169,19 @@
       </c>
       <c r="E33" s="40">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F33" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L33,E33,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G33" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L33,F33,Trigger)</f>
-        <v>45376</v>
+        <v>45433</v>
       </c>
       <c r="H33" s="39">
         <f>_xll.qlIndexFixing(L33,E33,TRUE,InterestRateTrigger)</f>
-        <v>7.1673290638369696E-3</v>
+        <v>1.1071805229727359E-2</v>
       </c>
       <c r="I33" s="30" t="str">
         <f>Contribution!P33</f>
@@ -11198,7 +11194,7 @@
       <c r="K33" s="33"/>
       <c r="L33" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C33,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0033c#0000</v>
+        <v>obj_00349#0000</v>
       </c>
       <c r="M33" s="57"/>
       <c r="N33" s="62"/>
@@ -11218,19 +11214,19 @@
       </c>
       <c r="E34" s="40">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F34" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L34,E34,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G34" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L34,F34,Trigger)</f>
-        <v>45741</v>
+        <v>45796</v>
       </c>
       <c r="H34" s="39">
         <f>_xll.qlIndexFixing(L34,E34,TRUE,InterestRateTrigger)</f>
-        <v>7.9172464384677024E-3</v>
+        <v>1.2047469769411656E-2</v>
       </c>
       <c r="I34" s="30" t="str">
         <f>Contribution!P34</f>
@@ -11243,7 +11239,7 @@
       <c r="K34" s="33"/>
       <c r="L34" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C34,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00334#0000</v>
+        <v>obj_0034d#0000</v>
       </c>
       <c r="M34" s="57"/>
       <c r="N34" s="62"/>
@@ -11263,19 +11259,19 @@
       </c>
       <c r="E35" s="40">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F35" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L35,E35,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G35" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L35,F35,Trigger)</f>
-        <v>46471</v>
+        <v>46525</v>
       </c>
       <c r="H35" s="39">
         <f>_xll.qlIndexFixing(L35,E35,TRUE,InterestRateTrigger)</f>
-        <v>9.1431103235379042E-3</v>
+        <v>1.3547912548683051E-2</v>
       </c>
       <c r="I35" s="30" t="str">
         <f>Contribution!P35</f>
@@ -11288,7 +11284,7 @@
       <c r="K35" s="33"/>
       <c r="L35" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C35,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0033f#0000</v>
+        <v>obj_00350#0000</v>
       </c>
       <c r="M35" s="57"/>
       <c r="N35" s="62"/>
@@ -11308,19 +11304,19 @@
       </c>
       <c r="E36" s="40">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F36" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L36,E36,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G36" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L36,F36,Trigger)</f>
-        <v>47567</v>
+        <v>47623</v>
       </c>
       <c r="H36" s="39">
         <f>_xll.qlIndexFixing(L36,E36,TRUE,InterestRateTrigger)</f>
-        <v>1.0539096029397897E-2</v>
+        <v>1.5218564229779267E-2</v>
       </c>
       <c r="I36" s="30" t="str">
         <f>Contribution!P36</f>
@@ -11333,7 +11329,7 @@
       <c r="K36" s="33"/>
       <c r="L36" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C36,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00328#0000</v>
+        <v>obj_0034a#0000</v>
       </c>
       <c r="M36" s="57"/>
       <c r="N36" s="62"/>
@@ -11353,19 +11349,19 @@
       </c>
       <c r="E37" s="40">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F37" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L37,E37,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G37" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L37,F37,Trigger)</f>
-        <v>49395</v>
+        <v>49447</v>
       </c>
       <c r="H37" s="39">
         <f>_xll.qlIndexFixing(L37,E37,TRUE,InterestRateTrigger)</f>
-        <v>1.2141657616593624E-2</v>
+        <v>1.6993895273814886E-2</v>
       </c>
       <c r="I37" s="30" t="str">
         <f>Contribution!P37</f>
@@ -11378,7 +11374,7 @@
       <c r="K37" s="33"/>
       <c r="L37" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C37,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00355#0000</v>
+        <v>obj_00359#0000</v>
       </c>
       <c r="M37" s="57"/>
       <c r="N37" s="62"/>
@@ -11398,19 +11394,19 @@
       </c>
       <c r="E38" s="40">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F38" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L38,E38,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G38" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L38,F38,Trigger)</f>
-        <v>51221</v>
+        <v>51274</v>
       </c>
       <c r="H38" s="39">
         <f>_xll.qlIndexFixing(L38,E38,TRUE,InterestRateTrigger)</f>
-        <v>1.2937192639630541E-2</v>
+        <v>1.7836430499629578E-2</v>
       </c>
       <c r="I38" s="30" t="str">
         <f>Contribution!P38</f>
@@ -11423,7 +11419,7 @@
       <c r="K38" s="33"/>
       <c r="L38" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C38,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00357#0000</v>
+        <v>obj_0034f#0000</v>
       </c>
       <c r="M38" s="57"/>
       <c r="N38" s="62"/>
@@ -11443,19 +11439,19 @@
       </c>
       <c r="E39" s="41">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F39" s="41">
         <f>_xll.qlInterestRateIndexValueDate(L39,E39,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G39" s="41">
         <f>_xll.qlInterestRateIndexMaturity(L39,F39,Trigger)</f>
-        <v>53048</v>
+        <v>53101</v>
       </c>
       <c r="H39" s="42">
         <f>_xll.qlIndexFixing(L39,E39,TRUE,InterestRateTrigger)</f>
-        <v>1.3216662399604418E-2</v>
+        <v>1.8163927572013145E-2</v>
       </c>
       <c r="I39" s="32" t="str">
         <f>Contribution!P39</f>
@@ -11468,7 +11464,7 @@
       <c r="K39" s="33"/>
       <c r="L39" s="27" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C39,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00338#0000</v>
+        <v>obj_00337#0000</v>
       </c>
       <c r="M39" s="57"/>
       <c r="N39" s="62"/>
@@ -11692,7 +11688,7 @@
       <c r="A6" s="62"/>
       <c r="B6" s="16">
         <f t="shared" ref="B6:B14" si="0">G6-EvaluationDate</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>15</v>
@@ -11702,26 +11698,26 @@
       </c>
       <c r="E6" s="37">
         <f t="shared" ref="E6:E14" si="1">EvaluationDate</f>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F6" s="37">
         <f>E6</f>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="G6" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,F6,"1D","f",TRUE,Trigger)</f>
-        <v>42087</v>
+        <v>42139</v>
       </c>
       <c r="H6" s="43">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
-        <v>-6.4704629470333549E-4</v>
+        <v>-1.5588481765923068E-3</v>
       </c>
       <c r="I6" s="44"/>
       <c r="J6" s="45"/>
       <c r="K6" s="33"/>
       <c r="L6" s="59" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,B8:B14,H8:H14,,Trigger)</f>
-        <v>obj_0035e#0000</v>
+        <v>obj_0035c#0143</v>
       </c>
       <c r="M6" s="62"/>
       <c r="N6" s="62"/>
@@ -11734,7 +11730,7 @@
       <c r="A7" s="62"/>
       <c r="B7" s="16">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>73</v>
@@ -11744,19 +11740,19 @@
       </c>
       <c r="E7" s="40">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F7" s="40">
         <f>G6</f>
-        <v>42087</v>
+        <v>42139</v>
       </c>
       <c r="G7" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F7,"1D","f",TRUE,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="H7" s="111">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
-        <v>-6.473663059407491E-4</v>
+        <v>-1.560328167460077E-3</v>
       </c>
       <c r="I7" s="46"/>
       <c r="J7" s="112"/>
@@ -11781,7 +11777,7 @@
       <c r="A8" s="62"/>
       <c r="B8" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>74</v>
@@ -11791,19 +11787,19 @@
       </c>
       <c r="E8" s="37">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F8" s="37">
         <f>_xll.qlInterestRateIndexValueDate(L8,E8,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G8" s="37">
         <f>_xll.qlInterestRateIndexMaturity(L8,F8,Trigger)</f>
-        <v>42089</v>
+        <v>42143</v>
       </c>
       <c r="H8" s="43">
         <f>_xll.qlIndexFixing(L8,E8,TRUE,InterestRateTrigger)</f>
-        <v>-6.4766386753678518E-4</v>
+        <v>-1.5607385499194493E-3</v>
       </c>
       <c r="I8" s="44" t="str">
         <f>Contribution!S8</f>
@@ -11813,7 +11809,7 @@
       <c r="K8" s="33"/>
       <c r="L8" s="60" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C8="SN","1D",IF(C8="SW","1W",C8)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0032c#0000</v>
+        <v>obj_00327#0000</v>
       </c>
       <c r="M8" s="57"/>
       <c r="N8" s="59" t="b">
@@ -11832,7 +11828,7 @@
       <c r="A9" s="62"/>
       <c r="B9" s="16">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>16</v>
@@ -11842,19 +11838,19 @@
       </c>
       <c r="E9" s="40">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F9" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L9,E9,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G9" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L9,F9,Trigger)</f>
-        <v>42095</v>
+        <v>42150</v>
       </c>
       <c r="H9" s="39">
         <f>_xll.qlIndexFixing(L9,E9,TRUE,InterestRateTrigger)</f>
-        <v>-6.5023497456121295E-4</v>
+        <v>-1.5650047506771125E-3</v>
       </c>
       <c r="I9" s="30" t="str">
         <f>Contribution!S9</f>
@@ -11864,7 +11860,7 @@
       <c r="K9" s="33"/>
       <c r="L9" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C9="SN","1D",IF(C9="SW","1W",C9)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0033b#0000</v>
+        <v>obj_00329#0000</v>
       </c>
       <c r="M9" s="57"/>
       <c r="N9" s="62"/>
@@ -11877,7 +11873,7 @@
       <c r="A10" s="62"/>
       <c r="B10" s="16">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>17</v>
@@ -11887,19 +11883,19 @@
       </c>
       <c r="E10" s="40">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F10" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L10,E10,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G10" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L10,F10,Trigger)</f>
-        <v>42102</v>
+        <v>42156</v>
       </c>
       <c r="H10" s="39">
         <f>_xll.qlIndexFixing(L10,E10,TRUE,InterestRateTrigger)</f>
-        <v>-6.5811548335816179E-4</v>
+        <v>-1.5739724300911639E-3</v>
       </c>
       <c r="I10" s="30" t="str">
         <f>Contribution!S10</f>
@@ -11909,7 +11905,7 @@
       <c r="K10" s="33"/>
       <c r="L10" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C10="SN","1D",IF(C10="SW","1W",C10)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0033a#0000</v>
+        <v>obj_00320#0000</v>
       </c>
       <c r="M10" s="57"/>
       <c r="N10" s="62"/>
@@ -11922,7 +11918,7 @@
       <c r="A11" s="62"/>
       <c r="B11" s="16">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>18</v>
@@ -11932,19 +11928,19 @@
       </c>
       <c r="E11" s="40">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F11" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L11,E11,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G11" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L11,F11,Trigger)</f>
-        <v>42109</v>
+        <v>42163</v>
       </c>
       <c r="H11" s="39">
         <f>_xll.qlIndexFixing(L11,E11,TRUE,InterestRateTrigger)</f>
-        <v>-6.7125212964036507E-4</v>
+        <v>-1.5906302619184132E-3</v>
       </c>
       <c r="I11" s="30" t="str">
         <f>Contribution!S11</f>
@@ -11954,7 +11950,7 @@
       <c r="K11" s="33"/>
       <c r="L11" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C11="SN","1D",IF(C11="SW","1W",C11)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0034d#0000</v>
+        <v>obj_0032c#0000</v>
       </c>
       <c r="M11" s="57"/>
       <c r="N11" s="62"/>
@@ -11967,7 +11963,7 @@
       <c r="A12" s="62"/>
       <c r="B12" s="16">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>19</v>
@@ -11977,19 +11973,19 @@
       </c>
       <c r="E12" s="40">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F12" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L12,E12,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G12" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L12,F12,Trigger)</f>
-        <v>42121</v>
+        <v>42173</v>
       </c>
       <c r="H12" s="39">
         <f>_xll.qlIndexFixing(L12,E12,TRUE,InterestRateTrigger)</f>
-        <v>-7.059999998239939E-4</v>
+        <v>-1.6260000047622321E-3</v>
       </c>
       <c r="I12" s="30" t="str">
         <f>Contribution!S12</f>
@@ -11999,7 +11995,7 @@
       <c r="K12" s="33"/>
       <c r="L12" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C12="SN","1D",IF(C12="SW","1W",C12)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00354#0000</v>
+        <v>obj_00342#0000</v>
       </c>
       <c r="M12" s="57"/>
       <c r="N12" s="62"/>
@@ -12012,7 +12008,7 @@
       <c r="A13" s="62"/>
       <c r="B13" s="16">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>20</v>
@@ -12022,19 +12018,19 @@
       </c>
       <c r="E13" s="40">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F13" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L13,E13,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G13" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L13,F13,Trigger)</f>
-        <v>42150</v>
+        <v>42205</v>
       </c>
       <c r="H13" s="39">
         <f>_xll.qlIndexFixing(L13,E13,TRUE,InterestRateTrigger)</f>
-        <v>-8.159999994035304E-4</v>
+        <v>-1.8340000012966636E-3</v>
       </c>
       <c r="I13" s="30" t="str">
         <f>Contribution!S13</f>
@@ -12044,7 +12040,7 @@
       <c r="K13" s="33"/>
       <c r="L13" s="27" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C13="SN","1D",IF(C13="SW","1W",C13)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0032d#0000</v>
+        <v>obj_00358#0000</v>
       </c>
       <c r="M13" s="57"/>
       <c r="N13" s="62"/>
@@ -12057,7 +12053,7 @@
       <c r="A14" s="62"/>
       <c r="B14" s="142">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C14" s="142" t="s">
         <v>21</v>
@@ -12067,19 +12063,19 @@
       </c>
       <c r="E14" s="144">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F14" s="144">
         <f>_xll.qlInterestRateIndexValueDate(IborIndex,E14,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G14" s="144">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F14,Trigger)</f>
-        <v>42180</v>
+        <v>42234</v>
       </c>
       <c r="H14" s="145">
         <f>_xll.qlIndexFixing(IborIndex,E14,TRUE,InterestRateTrigger)</f>
-        <v>-8.9699999814722416E-4</v>
+        <v>-2.0799999999998116E-3</v>
       </c>
       <c r="I14" s="146" t="str">
         <f>Contribution!S14</f>
@@ -12203,7 +12199,7 @@
       </c>
       <c r="H19" s="77">
         <f>(1-_xll.qlIndexFixing(IborIndex,E19,TRUE,InterestRateTrigger))*100</f>
-        <v>100.11499999985878</v>
+        <v>100.23999999994962</v>
       </c>
       <c r="I19" s="31" t="str">
         <f>Contribution!S19</f>
@@ -12248,7 +12244,7 @@
       </c>
       <c r="H20" s="78">
         <f>(1-_xll.qlIndexFixing(IborIndex,E20,TRUE,InterestRateTrigger))*100</f>
-        <v>100.12499999994462</v>
+        <v>100.26000000020865</v>
       </c>
       <c r="I20" s="30" t="str">
         <f>Contribution!S20</f>
@@ -12293,7 +12289,7 @@
       </c>
       <c r="H21" s="78">
         <f>(1-_xll.qlIndexFixing(IborIndex,E21,TRUE,InterestRateTrigger))*100</f>
-        <v>100.125</v>
+        <v>100.25000000026682</v>
       </c>
       <c r="I21" s="30" t="str">
         <f>Contribution!S21</f>
@@ -12338,7 +12334,7 @@
       </c>
       <c r="H22" s="78">
         <f>(1-_xll.qlIndexFixing(IborIndex,E22,TRUE,InterestRateTrigger))*100</f>
-        <v>100.09499999999998</v>
+        <v>100.21499999990198</v>
       </c>
       <c r="I22" s="30" t="str">
         <f>Contribution!S22</f>
@@ -12383,7 +12379,7 @@
       </c>
       <c r="H23" s="78">
         <f>(1-_xll.qlIndexFixing(IborIndex,E23,TRUE,InterestRateTrigger))*100</f>
-        <v>100.04249999990166</v>
+        <v>100.1474999998748</v>
       </c>
       <c r="I23" s="30" t="str">
         <f>Contribution!S23</f>
@@ -12428,7 +12424,7 @@
       </c>
       <c r="H24" s="79">
         <f>(1-_xll.qlIndexFixing(IborIndex,E24,TRUE,InterestRateTrigger))*100</f>
-        <v>99.974999999999994</v>
+        <v>100.05499999986229</v>
       </c>
       <c r="I24" s="32" t="str">
         <f>Contribution!S24</f>
@@ -12466,19 +12462,19 @@
       </c>
       <c r="E25" s="37">
         <f>EvaluationDate</f>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F25" s="37">
         <f>_xll.qlInterestRateIndexValueDate(L25,E25,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G25" s="37">
         <f>_xll.qlInterestRateIndexMaturity(L25,F25,Trigger)</f>
-        <v>42458</v>
+        <v>42508</v>
       </c>
       <c r="H25" s="38">
         <f>_xll.qlIndexFixing(L25,E25,TRUE,InterestRateTrigger)</f>
-        <v>-1.1542212671681977E-3</v>
+        <v>-2.4189536157916752E-3</v>
       </c>
       <c r="I25" s="31" t="str">
         <f>Contribution!S25</f>
@@ -12491,7 +12487,7 @@
       <c r="K25" s="33"/>
       <c r="L25" s="60" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00352#0000</v>
+        <v>obj_0034e#0000</v>
       </c>
       <c r="M25" s="57"/>
       <c r="N25" s="59" t="s">
@@ -12517,19 +12513,19 @@
       </c>
       <c r="E26" s="40">
         <f t="shared" ref="E26:E27" si="4">EvaluationDate</f>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F26" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L26,E26,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G26" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L26,F26,Trigger)</f>
-        <v>42821</v>
+        <v>42873</v>
       </c>
       <c r="H26" s="39">
         <f>_xll.qlIndexFixing(L26,E26,TRUE,InterestRateTrigger)</f>
-        <v>-6.2499999995672701E-4</v>
+        <v>-1.3249999999888071E-3</v>
       </c>
       <c r="I26" s="30" t="str">
         <f>Contribution!S26</f>
@@ -12542,7 +12538,7 @@
       <c r="K26" s="33"/>
       <c r="L26" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00330#0000</v>
+        <v>obj_0035a#0000</v>
       </c>
       <c r="M26" s="57"/>
       <c r="N26" s="62"/>
@@ -12562,19 +12558,19 @@
       </c>
       <c r="E27" s="40">
         <f t="shared" si="4"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F27" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L27,E27,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G27" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L27,F27,Trigger)</f>
-        <v>43185</v>
+        <v>43238</v>
       </c>
       <c r="H27" s="39">
         <f>_xll.qlIndexFixing(L27,E27,TRUE,InterestRateTrigger)</f>
-        <v>6.7499999989308784E-4</v>
+        <v>7.2500000001042748E-4</v>
       </c>
       <c r="I27" s="30" t="str">
         <f>Contribution!S27</f>
@@ -12587,7 +12583,7 @@
       <c r="K27" s="33"/>
       <c r="L27" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00359#0000</v>
+        <v>obj_00352#0000</v>
       </c>
       <c r="M27" s="57"/>
       <c r="N27" s="62"/>
@@ -12607,19 +12603,19 @@
       </c>
       <c r="E28" s="40">
         <f t="shared" ref="E28:E29" si="5">EvaluationDate</f>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F28" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L28,E28,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G28" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L28,F28,Trigger)</f>
-        <v>43549</v>
+        <v>43605</v>
       </c>
       <c r="H28" s="39">
         <f>_xll.qlIndexFixing(L28,E28,TRUE,InterestRateTrigger)</f>
-        <v>2.1500000000126917E-3</v>
+        <v>3.0000000000080752E-3</v>
       </c>
       <c r="I28" s="30" t="str">
         <f>Contribution!S28</f>
@@ -12632,7 +12628,7 @@
       <c r="K28" s="33"/>
       <c r="L28" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0031d#0000</v>
+        <v>obj_00347#0000</v>
       </c>
       <c r="M28" s="57"/>
       <c r="N28" s="62"/>
@@ -12652,19 +12648,19 @@
       </c>
       <c r="E29" s="40">
         <f t="shared" si="5"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F29" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L29,E29,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G29" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L29,F29,Trigger)</f>
-        <v>43915</v>
+        <v>43969</v>
       </c>
       <c r="H29" s="39">
         <f>_xll.qlIndexFixing(L29,E29,TRUE,InterestRateTrigger)</f>
-        <v>3.650000000012428E-3</v>
+        <v>5.3000000000080682E-3</v>
       </c>
       <c r="I29" s="30" t="str">
         <f>Contribution!S29</f>
@@ -12677,7 +12673,7 @@
       <c r="K29" s="33"/>
       <c r="L29" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0034c#0000</v>
+        <v>obj_0032b#0000</v>
       </c>
       <c r="M29" s="57"/>
       <c r="N29" s="62"/>
@@ -12697,19 +12693,19 @@
       </c>
       <c r="E30" s="40">
         <f t="shared" ref="E30:E39" si="6">EvaluationDate</f>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F30" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L30,E30,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G30" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L30,F30,Trigger)</f>
-        <v>44280</v>
+        <v>44334</v>
       </c>
       <c r="H30" s="39">
         <f>_xll.qlIndexFixing(L30,E30,TRUE,InterestRateTrigger)</f>
-        <v>5.0500000000097672E-3</v>
+        <v>7.4000000000073989E-3</v>
       </c>
       <c r="I30" s="30" t="str">
         <f>Contribution!S30</f>
@@ -12722,7 +12718,7 @@
       <c r="K30" s="33"/>
       <c r="L30" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C30,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0032b#0000</v>
+        <v>obj_00332#0000</v>
       </c>
       <c r="M30" s="57"/>
       <c r="N30" s="62"/>
@@ -12742,19 +12738,19 @@
       </c>
       <c r="E31" s="40">
         <f t="shared" si="6"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F31" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L31,E31,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G31" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L31,F31,Trigger)</f>
-        <v>44645</v>
+        <v>44699</v>
       </c>
       <c r="H31" s="39">
         <f>_xll.qlIndexFixing(L31,E31,TRUE,InterestRateTrigger)</f>
-        <v>6.2750000000087762E-3</v>
+        <v>9.275000000006901E-3</v>
       </c>
       <c r="I31" s="30" t="str">
         <f>Contribution!S31</f>
@@ -12767,7 +12763,7 @@
       <c r="K31" s="33"/>
       <c r="L31" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C31,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00346#0000</v>
+        <v>obj_00353#0000</v>
       </c>
       <c r="M31" s="57"/>
       <c r="N31" s="62"/>
@@ -12787,19 +12783,19 @@
       </c>
       <c r="E32" s="40">
         <f t="shared" si="6"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F32" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L32,E32,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G32" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L32,F32,Trigger)</f>
-        <v>45012</v>
+        <v>45065</v>
       </c>
       <c r="H32" s="39">
         <f>_xll.qlIndexFixing(L32,E32,TRUE,InterestRateTrigger)</f>
-        <v>7.3250000000075815E-3</v>
+        <v>1.085000000000637E-2</v>
       </c>
       <c r="I32" s="30" t="str">
         <f>Contribution!S32</f>
@@ -12812,7 +12808,7 @@
       <c r="K32" s="33"/>
       <c r="L32" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C32,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00324#0000</v>
+        <v>obj_00321#0000</v>
       </c>
       <c r="M32" s="57"/>
       <c r="N32" s="62"/>
@@ -12832,19 +12828,19 @@
       </c>
       <c r="E33" s="40">
         <f t="shared" si="6"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F33" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L33,E33,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G33" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L33,F33,Trigger)</f>
-        <v>45376</v>
+        <v>45433</v>
       </c>
       <c r="H33" s="39">
         <f>_xll.qlIndexFixing(L33,E33,TRUE,InterestRateTrigger)</f>
-        <v>8.2000000000067384E-3</v>
+        <v>1.2100000000004491E-2</v>
       </c>
       <c r="I33" s="30" t="str">
         <f>Contribution!S33</f>
@@ -12857,7 +12853,7 @@
       <c r="K33" s="33"/>
       <c r="L33" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C33,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00329#0000</v>
+        <v>obj_0033b#0000</v>
       </c>
       <c r="M33" s="57"/>
       <c r="N33" s="62"/>
@@ -12877,19 +12873,19 @@
       </c>
       <c r="E34" s="40">
         <f t="shared" si="6"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F34" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L34,E34,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G34" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L34,F34,Trigger)</f>
-        <v>45741</v>
+        <v>45796</v>
       </c>
       <c r="H34" s="39">
         <f>_xll.qlIndexFixing(L34,E34,TRUE,InterestRateTrigger)</f>
-        <v>8.9500000000058526E-3</v>
+        <v>1.3075000000003391E-2</v>
       </c>
       <c r="I34" s="30" t="str">
         <f>Contribution!S34</f>
@@ -12902,7 +12898,7 @@
       <c r="K34" s="33"/>
       <c r="L34" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C34,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00341#0000</v>
+        <v>obj_0031e#0000</v>
       </c>
       <c r="M34" s="57"/>
       <c r="N34" s="62"/>
@@ -12922,19 +12918,19 @@
       </c>
       <c r="E35" s="40">
         <f t="shared" si="6"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F35" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L35,E35,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G35" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L35,F35,Trigger)</f>
-        <v>46471</v>
+        <v>46525</v>
       </c>
       <c r="H35" s="39">
         <f>_xll.qlIndexFixing(L35,E35,TRUE,InterestRateTrigger)</f>
-        <v>1.0175000000005168E-2</v>
+        <v>1.4575000000004326E-2</v>
       </c>
       <c r="I35" s="30" t="str">
         <f>Contribution!S35</f>
@@ -12947,7 +12943,7 @@
       <c r="K35" s="33"/>
       <c r="L35" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C35,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0031e#0000</v>
+        <v>obj_00343#0000</v>
       </c>
       <c r="M35" s="57"/>
       <c r="N35" s="62"/>
@@ -12967,19 +12963,19 @@
       </c>
       <c r="E36" s="40">
         <f t="shared" si="6"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F36" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L36,E36,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G36" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L36,F36,Trigger)</f>
-        <v>47567</v>
+        <v>47623</v>
       </c>
       <c r="H36" s="39">
         <f>_xll.qlIndexFixing(L36,E36,TRUE,InterestRateTrigger)</f>
-        <v>1.1549999999989692E-2</v>
+        <v>1.622500000001028E-2</v>
       </c>
       <c r="I36" s="30" t="str">
         <f>Contribution!S36</f>
@@ -12992,7 +12988,7 @@
       <c r="K36" s="33"/>
       <c r="L36" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C36,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00343#0000</v>
+        <v>obj_0032f#0000</v>
       </c>
       <c r="M36" s="57"/>
       <c r="N36" s="62"/>
@@ -13012,19 +13008,19 @@
       </c>
       <c r="E37" s="40">
         <f t="shared" si="6"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F37" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L37,E37,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G37" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L37,F37,Trigger)</f>
-        <v>49395</v>
+        <v>49447</v>
       </c>
       <c r="H37" s="39">
         <f>_xll.qlIndexFixing(L37,E37,TRUE,InterestRateTrigger)</f>
-        <v>1.3100000000004362E-2</v>
+        <v>1.7950000000014996E-2</v>
       </c>
       <c r="I37" s="30" t="str">
         <f>Contribution!S37</f>
@@ -13037,7 +13033,7 @@
       <c r="K37" s="33"/>
       <c r="L37" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C37,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00347#0000</v>
+        <v>obj_00346#0000</v>
       </c>
       <c r="M37" s="57"/>
       <c r="N37" s="62"/>
@@ -13057,19 +13053,19 @@
       </c>
       <c r="E38" s="40">
         <f t="shared" si="6"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F38" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L38,E38,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G38" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L38,F38,Trigger)</f>
-        <v>51221</v>
+        <v>51274</v>
       </c>
       <c r="H38" s="39">
         <f>_xll.qlIndexFixing(L38,E38,TRUE,InterestRateTrigger)</f>
-        <v>1.3850000000002959E-2</v>
+        <v>1.8750000000000908E-2</v>
       </c>
       <c r="I38" s="30" t="str">
         <f>Contribution!S38</f>
@@ -13082,7 +13078,7 @@
       <c r="K38" s="33"/>
       <c r="L38" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C38,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00333#0000</v>
+        <v>obj_00338#0000</v>
       </c>
       <c r="M38" s="57"/>
       <c r="N38" s="62"/>
@@ -13102,19 +13098,19 @@
       </c>
       <c r="E39" s="41">
         <f t="shared" si="6"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F39" s="41">
         <f>_xll.qlInterestRateIndexValueDate(L39,E39,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G39" s="41">
         <f>_xll.qlInterestRateIndexMaturity(L39,F39,Trigger)</f>
-        <v>53048</v>
+        <v>53101</v>
       </c>
       <c r="H39" s="42">
         <f>_xll.qlIndexFixing(L39,E39,TRUE,InterestRateTrigger)</f>
-        <v>1.4100000000002074E-2</v>
+        <v>1.9049999999981245E-2</v>
       </c>
       <c r="I39" s="32" t="str">
         <f>Contribution!S39</f>
@@ -13127,7 +13123,7 @@
       <c r="K39" s="33"/>
       <c r="L39" s="27" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C39,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00342#0000</v>
+        <v>obj_0033a#0000</v>
       </c>
       <c r="M39" s="57"/>
       <c r="N39" s="62"/>
@@ -13226,7 +13222,7 @@
     <col min="3" max="3" width="3.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="17.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.7109375" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -13352,7 +13348,7 @@
       <c r="A6" s="62"/>
       <c r="B6" s="16">
         <f t="shared" ref="B6:B17" si="0">G6-EvaluationDate</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>15</v>
@@ -13362,26 +13358,26 @@
       </c>
       <c r="E6" s="37">
         <f t="shared" ref="E6:E17" si="1">EvaluationDate</f>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F6" s="37">
         <f>E6</f>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="G6" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,F6,"1D","f",TRUE,Trigger)</f>
-        <v>42087</v>
+        <v>42139</v>
       </c>
       <c r="H6" s="43">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
-        <v>-4.0768964136895478E-4</v>
+        <v>-9.5289993278543244E-4</v>
       </c>
       <c r="I6" s="44"/>
       <c r="J6" s="45"/>
       <c r="K6" s="33"/>
       <c r="L6" s="59" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,B8:B17,H8:H17,,Trigger)</f>
-        <v>obj_0035d#0000</v>
+        <v>obj_0035e#0141</v>
       </c>
       <c r="M6" s="62"/>
       <c r="N6" s="62"/>
@@ -13394,7 +13390,7 @@
       <c r="A7" s="62"/>
       <c r="B7" s="16">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>73</v>
@@ -13404,19 +13400,19 @@
       </c>
       <c r="E7" s="40">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F7" s="40">
         <f>G6</f>
-        <v>42087</v>
+        <v>42139</v>
       </c>
       <c r="G7" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F7,"1D","f",TRUE,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="H7" s="111">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
-        <v>-4.0785416222941E-4</v>
+        <v>-9.5394029994130326E-4</v>
       </c>
       <c r="I7" s="46"/>
       <c r="J7" s="112"/>
@@ -13441,7 +13437,7 @@
       <c r="A8" s="62"/>
       <c r="B8" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>74</v>
@@ -13451,19 +13447,19 @@
       </c>
       <c r="E8" s="37">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F8" s="37">
         <f>_xll.qlInterestRateIndexValueDate(L8,E8,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G8" s="37">
         <f>_xll.qlInterestRateIndexMaturity(L8,F8,Trigger)</f>
-        <v>42089</v>
+        <v>42143</v>
       </c>
       <c r="H8" s="43">
         <f>_xll.qlIndexFixing(L8,E8,TRUE,InterestRateTrigger)</f>
-        <v>-4.0800712896249536E-4</v>
+        <v>-9.5422892267826853E-4</v>
       </c>
       <c r="I8" s="44" t="str">
         <f>Contribution!V8</f>
@@ -13473,7 +13469,7 @@
       <c r="K8" s="33"/>
       <c r="L8" s="60" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C8="SN","1D",IF(C8="SW","1W",C8)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00351#0000</v>
+        <v>obj_00328#0000</v>
       </c>
       <c r="M8" s="57"/>
       <c r="N8" s="59" t="b">
@@ -13492,7 +13488,7 @@
       <c r="A9" s="62"/>
       <c r="B9" s="16">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>16</v>
@@ -13502,19 +13498,19 @@
       </c>
       <c r="E9" s="40">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F9" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L9,E9,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G9" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L9,F9,Trigger)</f>
-        <v>42095</v>
+        <v>42150</v>
       </c>
       <c r="H9" s="39">
         <f>_xll.qlIndexFixing(L9,E9,TRUE,InterestRateTrigger)</f>
-        <v>-4.0932932381895374E-4</v>
+        <v>-9.572264759288851E-4</v>
       </c>
       <c r="I9" s="30" t="str">
         <f>Contribution!V9</f>
@@ -13524,7 +13520,7 @@
       <c r="K9" s="33"/>
       <c r="L9" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C9="SN","1D",IF(C9="SW","1W",C9)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0034f#0000</v>
+        <v>obj_00356#0000</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="62"/>
@@ -13537,7 +13533,7 @@
       <c r="A10" s="62"/>
       <c r="B10" s="16">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>17</v>
@@ -13547,19 +13543,19 @@
       </c>
       <c r="E10" s="40">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F10" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L10,E10,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G10" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L10,F10,Trigger)</f>
-        <v>42102</v>
+        <v>42156</v>
       </c>
       <c r="H10" s="39">
         <f>_xll.qlIndexFixing(L10,E10,TRUE,InterestRateTrigger)</f>
-        <v>-4.1338113243614771E-4</v>
+        <v>-9.635178746858486E-4</v>
       </c>
       <c r="I10" s="30" t="str">
         <f>Contribution!V10</f>
@@ -13569,7 +13565,7 @@
       <c r="K10" s="33"/>
       <c r="L10" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C10="SN","1D",IF(C10="SW","1W",C10)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0033e#0000</v>
+        <v>obj_0031c#0000</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="62"/>
@@ -13582,7 +13578,7 @@
       <c r="A11" s="62"/>
       <c r="B11" s="16">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>18</v>
@@ -13592,19 +13588,19 @@
       </c>
       <c r="E11" s="40">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F11" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L11,E11,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G11" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L11,F11,Trigger)</f>
-        <v>42109</v>
+        <v>42163</v>
       </c>
       <c r="H11" s="39">
         <f>_xll.qlIndexFixing(L11,E11,TRUE,InterestRateTrigger)</f>
-        <v>-4.2013514419839533E-4</v>
+        <v>-9.7520001409406073E-4</v>
       </c>
       <c r="I11" s="30" t="str">
         <f>Contribution!V11</f>
@@ -13614,7 +13610,7 @@
       <c r="K11" s="33"/>
       <c r="L11" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C11="SN","1D",IF(C11="SW","1W",C11)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00321#0000</v>
+        <v>obj_00324#0000</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="62"/>
@@ -13627,7 +13623,7 @@
       <c r="A12" s="62"/>
       <c r="B12" s="16">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>19</v>
@@ -13637,19 +13633,19 @@
       </c>
       <c r="E12" s="40">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F12" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L12,E12,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G12" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L12,F12,Trigger)</f>
-        <v>42121</v>
+        <v>42173</v>
       </c>
       <c r="H12" s="39">
         <f>_xll.qlIndexFixing(L12,E12,TRUE,InterestRateTrigger)</f>
-        <v>-4.3799999999896954E-4</v>
+        <v>-1.0000000000091299E-3</v>
       </c>
       <c r="I12" s="30" t="str">
         <f>Contribution!V12</f>
@@ -13659,7 +13655,7 @@
       <c r="K12" s="33"/>
       <c r="L12" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C12="SN","1D",IF(C12="SW","1W",C12)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0031c#0000</v>
+        <v>obj_0033d#0000</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="62"/>
@@ -13672,7 +13668,7 @@
       <c r="A13" s="62"/>
       <c r="B13" s="16">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>20</v>
@@ -13682,19 +13678,19 @@
       </c>
       <c r="E13" s="40">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F13" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L13,E13,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G13" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L13,F13,Trigger)</f>
-        <v>42150</v>
+        <v>42205</v>
       </c>
       <c r="H13" s="39">
         <f>_xll.qlIndexFixing(L13,E13,TRUE,InterestRateTrigger)</f>
-        <v>-4.9100000000059936E-4</v>
+        <v>-1.1600000000162275E-3</v>
       </c>
       <c r="I13" s="30" t="str">
         <f>Contribution!V13</f>
@@ -13704,7 +13700,7 @@
       <c r="K13" s="33"/>
       <c r="L13" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C13="SN","1D",IF(C13="SW","1W",C13)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0033d#0000</v>
+        <v>obj_00335#0000</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="47"/>
@@ -13717,7 +13713,7 @@
       <c r="A14" s="62"/>
       <c r="B14" s="16">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>21</v>
@@ -13727,19 +13723,19 @@
       </c>
       <c r="E14" s="40">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F14" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L14,E14,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G14" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L14,F14,Trigger)</f>
-        <v>42180</v>
+        <v>42234</v>
       </c>
       <c r="H14" s="39">
         <f>_xll.qlIndexFixing(L14,E14,TRUE,InterestRateTrigger)</f>
-        <v>-5.1200000000000041E-4</v>
+        <v>-1.3700000000210525E-3</v>
       </c>
       <c r="I14" s="30" t="str">
         <f>Contribution!V14</f>
@@ -13749,7 +13745,7 @@
       <c r="K14" s="33"/>
       <c r="L14" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C14="SN","1D",IF(C14="SW","1W",C14)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00336#0000</v>
+        <v>obj_0033e#0000</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="47"/>
@@ -13762,7 +13758,7 @@
       <c r="A15" s="62"/>
       <c r="B15" s="16">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>22</v>
@@ -13772,19 +13768,19 @@
       </c>
       <c r="E15" s="40">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F15" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L15,E15,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G15" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L15,F15,Trigger)</f>
-        <v>42212</v>
+        <v>42265</v>
       </c>
       <c r="H15" s="39">
         <f>_xll.qlIndexFixing(L15,E15,TRUE,InterestRateTrigger)</f>
-        <v>-4.9799999952417474E-4</v>
+        <v>-1.4700000000303292E-3</v>
       </c>
       <c r="I15" s="30" t="str">
         <f>Contribution!V15</f>
@@ -13794,7 +13790,7 @@
       <c r="K15" s="33"/>
       <c r="L15" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C15="SN","1D",IF(C15="SW","1W",C15)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0035b#0000</v>
+        <v>obj_00354#0000</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="47"/>
@@ -13807,7 +13803,7 @@
       <c r="A16" s="62"/>
       <c r="B16" s="16">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>23</v>
@@ -13817,19 +13813,19 @@
       </c>
       <c r="E16" s="40">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F16" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L16,E16,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G16" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L16,F16,Trigger)</f>
-        <v>42241</v>
+        <v>42296</v>
       </c>
       <c r="H16" s="39">
         <f>_xll.qlIndexFixing(L16,E16,TRUE,InterestRateTrigger)</f>
-        <v>-4.8100000046095748E-4</v>
+        <v>-1.489999999999951E-3</v>
       </c>
       <c r="I16" s="30" t="str">
         <f>Contribution!V16</f>
@@ -13839,7 +13835,7 @@
       <c r="K16" s="33"/>
       <c r="L16" s="27" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C16="SN","1D",IF(C16="SW","1W",C16)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0034e#0000</v>
+        <v>obj_0034c#0000</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="47"/>
@@ -13852,7 +13848,7 @@
       <c r="A17" s="62"/>
       <c r="B17" s="142">
         <f t="shared" si="0"/>
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C17" s="142" t="s">
         <v>14</v>
@@ -13862,19 +13858,19 @@
       </c>
       <c r="E17" s="144">
         <f t="shared" si="1"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F17" s="144">
         <f>_xll.qlInterestRateIndexValueDate(IborIndex,E17,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G17" s="144">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F17,Trigger)</f>
-        <v>42272</v>
+        <v>42326</v>
       </c>
       <c r="H17" s="145">
         <f>_xll.qlIndexFixing(IborIndex,E17,TRUE,InterestRateTrigger)</f>
-        <v>-4.4999999999990702E-4</v>
+        <v>-1.5499999999999453E-3</v>
       </c>
       <c r="I17" s="146" t="str">
         <f>Contribution!V17</f>
@@ -14051,19 +14047,19 @@
       </c>
       <c r="E25" s="37">
         <f t="shared" ref="E25:E27" si="2">EvaluationDate</f>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F25" s="37">
         <f>_xll.qlInterestRateIndexValueDate(L25,E25,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G25" s="37">
         <f>_xll.qlInterestRateIndexMaturity(L25,F25,Trigger)</f>
-        <v>42458</v>
+        <v>42508</v>
       </c>
       <c r="H25" s="38">
         <f>_xll.qlIndexFixing(L25,E25,TRUE,InterestRateTrigger)</f>
-        <v>-4.3623538733729601E-4</v>
+        <v>-1.5752471896158804E-3</v>
       </c>
       <c r="I25" s="31" t="str">
         <f>Contribution!V25</f>
@@ -14076,7 +14072,7 @@
       <c r="K25" s="33"/>
       <c r="L25" s="60" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0032f#0000</v>
+        <v>obj_00330#0000</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="59" t="s">
@@ -14102,19 +14098,19 @@
       </c>
       <c r="E26" s="40">
         <f t="shared" si="2"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F26" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L26,E26,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G26" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L26,F26,Trigger)</f>
-        <v>42821</v>
+        <v>42873</v>
       </c>
       <c r="H26" s="39">
         <f>_xll.qlIndexFixing(L26,E26,TRUE,InterestRateTrigger)</f>
-        <v>2.3970658132554441E-4</v>
+        <v>-3.9675202601862649E-4</v>
       </c>
       <c r="I26" s="30" t="str">
         <f>Contribution!V26</f>
@@ -14127,7 +14123,7 @@
       <c r="K26" s="33"/>
       <c r="L26" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00358#0000</v>
+        <v>obj_0034b#0000</v>
       </c>
       <c r="M26" s="57"/>
       <c r="N26" s="62"/>
@@ -14147,19 +14143,19 @@
       </c>
       <c r="E27" s="40">
         <f t="shared" si="2"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F27" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L27,E27,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G27" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L27,F27,Trigger)</f>
-        <v>43185</v>
+        <v>43238</v>
       </c>
       <c r="H27" s="39">
         <f>_xll.qlIndexFixing(L27,E27,TRUE,InterestRateTrigger)</f>
-        <v>1.5882204778771207E-3</v>
+        <v>1.6799386825871751E-3</v>
       </c>
       <c r="I27" s="30" t="str">
         <f>Contribution!V27</f>
@@ -14172,7 +14168,7 @@
       <c r="K27" s="33"/>
       <c r="L27" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0034b#0000</v>
+        <v>obj_0031f#0000</v>
       </c>
       <c r="M27" s="57"/>
       <c r="N27" s="62"/>
@@ -14192,19 +14188,19 @@
       </c>
       <c r="E28" s="40">
         <f t="shared" ref="E28:E29" si="4">EvaluationDate</f>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F28" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L28,E28,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G28" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L28,F28,Trigger)</f>
-        <v>43549</v>
+        <v>43605</v>
       </c>
       <c r="H28" s="39">
         <f>_xll.qlIndexFixing(L28,E28,TRUE,InterestRateTrigger)</f>
-        <v>3.0856076319858532E-3</v>
+        <v>3.9666822915645043E-3</v>
       </c>
       <c r="I28" s="30" t="str">
         <f>Contribution!V28</f>
@@ -14217,7 +14213,7 @@
       <c r="K28" s="33"/>
       <c r="L28" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00353#0000</v>
+        <v>obj_0035b#0000</v>
       </c>
       <c r="M28" s="57"/>
       <c r="N28" s="47"/>
@@ -14237,19 +14233,19 @@
       </c>
       <c r="E29" s="40">
         <f t="shared" si="4"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F29" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L29,E29,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G29" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L29,F29,Trigger)</f>
-        <v>43915</v>
+        <v>43969</v>
       </c>
       <c r="H29" s="39">
         <f>_xll.qlIndexFixing(L29,E29,TRUE,InterestRateTrigger)</f>
-        <v>4.5994495849480625E-3</v>
+        <v>6.273021632201988E-3</v>
       </c>
       <c r="I29" s="30" t="str">
         <f>Contribution!V29</f>
@@ -14262,7 +14258,7 @@
       <c r="K29" s="33"/>
       <c r="L29" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0032e#0000</v>
+        <v>obj_00322#0000</v>
       </c>
       <c r="M29" s="57"/>
       <c r="N29" s="47"/>
@@ -14282,19 +14278,19 @@
       </c>
       <c r="E30" s="40">
         <f t="shared" ref="E30:E39" si="5">EvaluationDate</f>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F30" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L30,E30,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G30" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L30,F30,Trigger)</f>
-        <v>44280</v>
+        <v>44334</v>
       </c>
       <c r="H30" s="39">
         <f>_xll.qlIndexFixing(L30,E30,TRUE,InterestRateTrigger)</f>
-        <v>6.0066344015783125E-3</v>
+        <v>8.3756521366221866E-3</v>
       </c>
       <c r="I30" s="30" t="str">
         <f>Contribution!V30</f>
@@ -14307,7 +14303,7 @@
       <c r="K30" s="33"/>
       <c r="L30" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C30,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00335#0000</v>
+        <v>obj_00345#0000</v>
       </c>
       <c r="M30" s="57"/>
       <c r="N30" s="47"/>
@@ -14327,19 +14323,19 @@
       </c>
       <c r="E31" s="40">
         <f t="shared" si="5"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F31" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L31,E31,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G31" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L31,F31,Trigger)</f>
-        <v>44645</v>
+        <v>44699</v>
       </c>
       <c r="H31" s="39">
         <f>_xll.qlIndexFixing(L31,E31,TRUE,InterestRateTrigger)</f>
-        <v>7.2357920977970634E-3</v>
+        <v>1.0251214935585427E-2</v>
       </c>
       <c r="I31" s="30" t="str">
         <f>Contribution!V31</f>
@@ -14352,7 +14348,7 @@
       <c r="K31" s="33"/>
       <c r="L31" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C31,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00340#0000</v>
+        <v>obj_00323#0000</v>
       </c>
       <c r="M31" s="57"/>
       <c r="N31" s="47"/>
@@ -14372,19 +14368,19 @@
       </c>
       <c r="E32" s="40">
         <f t="shared" si="5"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F32" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L32,E32,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G32" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L32,F32,Trigger)</f>
-        <v>45012</v>
+        <v>45065</v>
       </c>
       <c r="H32" s="39">
         <f>_xll.qlIndexFixing(L32,E32,TRUE,InterestRateTrigger)</f>
-        <v>8.2889285872554831E-3</v>
+        <v>1.1825659256964303E-2</v>
       </c>
       <c r="I32" s="30" t="str">
         <f>Contribution!V32</f>
@@ -14397,7 +14393,7 @@
       <c r="K32" s="33"/>
       <c r="L32" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C32,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00331#0000</v>
+        <v>obj_00326#0000</v>
       </c>
       <c r="M32" s="57"/>
       <c r="N32" s="47"/>
@@ -14417,19 +14413,19 @@
       </c>
       <c r="E33" s="40">
         <f t="shared" si="5"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F33" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L33,E33,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G33" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L33,F33,Trigger)</f>
-        <v>45376</v>
+        <v>45433</v>
       </c>
       <c r="H33" s="39">
         <f>_xll.qlIndexFixing(L33,E33,TRUE,InterestRateTrigger)</f>
-        <v>9.1663376432828594E-3</v>
+        <v>1.3075289451457863E-2</v>
       </c>
       <c r="I33" s="30" t="str">
         <f>Contribution!V33</f>
@@ -14442,7 +14438,7 @@
       <c r="K33" s="33"/>
       <c r="L33" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C33,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0032a#0000</v>
+        <v>obj_00325#0000</v>
       </c>
       <c r="M33" s="57"/>
       <c r="N33" s="47"/>
@@ -14462,19 +14458,19 @@
       </c>
       <c r="E34" s="40">
         <f t="shared" si="5"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F34" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L34,E34,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G34" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L34,F34,Trigger)</f>
-        <v>45741</v>
+        <v>45796</v>
       </c>
       <c r="H34" s="39">
         <f>_xll.qlIndexFixing(L34,E34,TRUE,InterestRateTrigger)</f>
-        <v>9.9123199980293356E-3</v>
+        <v>1.4045452994811174E-2</v>
       </c>
       <c r="I34" s="30" t="str">
         <f>Contribution!V34</f>
@@ -14487,7 +14483,7 @@
       <c r="K34" s="33"/>
       <c r="L34" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C34,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00356#0000</v>
+        <v>obj_00341#0000</v>
       </c>
       <c r="M34" s="57"/>
       <c r="N34" s="47"/>
@@ -14507,19 +14503,19 @@
       </c>
       <c r="E35" s="40">
         <f t="shared" si="5"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F35" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L35,E35,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G35" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L35,F35,Trigger)</f>
-        <v>46471</v>
+        <v>46525</v>
       </c>
       <c r="H35" s="39">
         <f>_xll.qlIndexFixing(L35,E35,TRUE,InterestRateTrigger)</f>
-        <v>1.1114037811975773E-2</v>
+        <v>1.5521399354079594E-2</v>
       </c>
       <c r="I35" s="30" t="str">
         <f>Contribution!V35</f>
@@ -14532,7 +14528,7 @@
       <c r="K35" s="33"/>
       <c r="L35" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C35,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00327#0000</v>
+        <v>obj_00357#0000</v>
       </c>
       <c r="M35" s="57"/>
       <c r="N35" s="47"/>
@@ -14552,19 +14548,19 @@
       </c>
       <c r="E36" s="40">
         <f t="shared" si="5"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F36" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L36,E36,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G36" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L36,F36,Trigger)</f>
-        <v>47567</v>
+        <v>47623</v>
       </c>
       <c r="H36" s="39">
         <f>_xll.qlIndexFixing(L36,E36,TRUE,InterestRateTrigger)</f>
-        <v>1.2422226574754835E-2</v>
+        <v>1.7104657664153328E-2</v>
       </c>
       <c r="I36" s="30" t="str">
         <f>Contribution!V36</f>
@@ -14577,7 +14573,7 @@
       <c r="K36" s="33"/>
       <c r="L36" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C36,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0035a#0000</v>
+        <v>obj_0031d#0000</v>
       </c>
       <c r="M36" s="57"/>
       <c r="N36" s="47"/>
@@ -14597,19 +14593,19 @@
       </c>
       <c r="E37" s="40">
         <f t="shared" si="5"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F37" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L37,E37,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G37" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L37,F37,Trigger)</f>
-        <v>49395</v>
+        <v>49447</v>
       </c>
       <c r="H37" s="39">
         <f>_xll.qlIndexFixing(L37,E37,TRUE,InterestRateTrigger)</f>
-        <v>1.3870773285585209E-2</v>
+        <v>1.8730147884245839E-2</v>
       </c>
       <c r="I37" s="30" t="str">
         <f>Contribution!V37</f>
@@ -14622,7 +14618,7 @@
       <c r="K37" s="33"/>
       <c r="L37" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C37,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0031f#0000</v>
+        <v>obj_0033f#0000</v>
       </c>
       <c r="M37" s="57"/>
       <c r="N37" s="47"/>
@@ -14642,19 +14638,19 @@
       </c>
       <c r="E38" s="40">
         <f t="shared" si="5"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F38" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L38,E38,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G38" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L38,F38,Trigger)</f>
-        <v>51221</v>
+        <v>51274</v>
       </c>
       <c r="H38" s="39">
         <f>_xll.qlIndexFixing(L38,E38,TRUE,InterestRateTrigger)</f>
-        <v>1.4545688348535903E-2</v>
+        <v>1.9457914859059164E-2</v>
       </c>
       <c r="I38" s="30" t="str">
         <f>Contribution!V38</f>
@@ -14667,7 +14663,7 @@
       <c r="K38" s="33"/>
       <c r="L38" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C38,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00349#0000</v>
+        <v>obj_00340#0000</v>
       </c>
       <c r="M38" s="57"/>
       <c r="N38" s="47"/>
@@ -14687,19 +14683,19 @@
       </c>
       <c r="E39" s="41">
         <f t="shared" si="5"/>
-        <v>42086</v>
+        <v>42137</v>
       </c>
       <c r="F39" s="41">
         <f>_xll.qlInterestRateIndexValueDate(L39,E39,Trigger)</f>
-        <v>42088</v>
+        <v>42142</v>
       </c>
       <c r="G39" s="41">
         <f>_xll.qlInterestRateIndexMaturity(L39,F39,Trigger)</f>
-        <v>53048</v>
+        <v>53101</v>
       </c>
       <c r="H39" s="42">
         <f>_xll.qlIndexFixing(L39,E39,TRUE,InterestRateTrigger)</f>
-        <v>1.4733665776958308E-2</v>
+        <v>1.9698736787406145E-2</v>
       </c>
       <c r="I39" s="32" t="str">
         <f>Contribution!V39</f>
@@ -14712,7 +14708,7 @@
       <c r="K39" s="33"/>
       <c r="L39" s="27" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C39,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00348#0000</v>
+        <v>obj_00333#0000</v>
       </c>
       <c r="M39" s="57"/>
       <c r="N39" s="47"/>
